--- a/Github Issues.xlsx
+++ b/Github Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyb\Desktop\ARP-issues.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C694F7-8BBF-4F5F-818B-B4A39F446D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEEB6AD-11D3-4CED-BAB8-624AC5B8ACEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6ADBFC8-225E-4F88-98AE-4FFB5B264DE3}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Issues!$A$1:$F$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Issues!$A$1:$F$154</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -343,16 +343,9 @@
     <t>ID</t>
   </si>
   <si>
-    <t>BugID</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
-    <t>Fixing strategy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/k9mail/k-9/issues/2110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,10 +362,6 @@
   <si>
     <t>Type 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manifestation Type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Link</t>
@@ -1147,9 +1136,6 @@
     <t>#1</t>
   </si>
   <si>
-    <t>#8</t>
-  </si>
-  <si>
     <t>#598</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1585,9 +1571,6 @@
     <t>https://github.com//open-keychain/open-keychain/issues/1571</t>
   </si>
   <si>
-    <t>https://github.com/PhotoBackup/client-android/issues/8</t>
-  </si>
-  <si>
     <t>https://github.com/erickok/transdroid/issues/258</t>
   </si>
   <si>
@@ -1686,9 +1669,6 @@
     <t>open-keychain/open-keychain</t>
   </si>
   <si>
-    <t>PhotoBackup/client-android</t>
-  </si>
-  <si>
     <t>evercam/evercam-android</t>
   </si>
   <si>
@@ -1905,10 +1885,6 @@
   <si>
     <t>https://github.com/JoaquimLey/sms-parsing/pull/2/</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fixing Strategies</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1932,7 +1908,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Supplementing the incomplete process for requesting dangerous permissions</t>
+      <t xml:space="preserve"> Completing the permission check and request process</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1946,7 +1922,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Strategy 2:</t>
+      <t xml:space="preserve">Strategy 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
     </r>
     <r>
       <rPr>
@@ -1957,7 +1944,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Adapting API-DP mappings to various Android platform versions</t>
+      <t>heck SDK versions before requesting permissions or invoking permission-protected APIs.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1983,7 +1970,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Adjusting the merge priorities of attributes configurated in multiple manifest files</t>
+      <t xml:space="preserve"> Revise their apps’ configuration of the &lt;uses-permission&gt; attributes</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2005,12 +1992,13 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Revising the usage of system APIs for requesting dangerous permissions</t>
+      <t>Revising the usage of permission check or request APIs</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2034,14 +2022,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Adapting the processing mechanism of dangerous permission to customized platforms</t>
+      <t xml:space="preserve"> Check device information (e.g., the manufacturer) before using permission-protected APIs.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Strategy 6: </t>
+    </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -2049,20 +2039,35 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Strategy 6: </t>
+      <t>Coordinating with library developers to remove the SDK version constraints on dangerous permissions</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Coordinating with library developers to remove the configuration attribute maxSdkVersion constrained for dangerous permissions </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue Type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixing Strategy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixing strategies</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/jensstein/oandbackup/issues/124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jensstein/oandbackup</t>
   </si>
 </sst>
 </file>
@@ -2167,7 +2172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2213,6 +2218,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF91C373"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2295,7 +2312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2317,9 +2334,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2328,15 +2342,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2359,8 +2364,50 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2437,8 +2484,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFA9D08E"/>
+      <color rgb="FF6AA347"/>
+      <color rgb="FFDDEBF7"/>
+      <color rgb="FF91C373"/>
       <color rgb="FFE2EFDA"/>
-      <color rgb="FFDDEBF7"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2752,7 +2802,7 @@
   <dimension ref="A1:A663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2766,42 +2816,42 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2811,17 +2861,17 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2829,38 +2879,38 @@
       <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>475</v>
+      <c r="A16" s="10" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>476</v>
+      <c r="A17" s="16" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>477</v>
+      <c r="A18" s="17" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>478</v>
+      <c r="A19" s="16" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>479</v>
+      <c r="A20" s="16" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>480</v>
+      <c r="A21" s="17" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>481</v>
+      <c r="A22" s="18" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -4789,6 +4839,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4797,13 +4848,13 @@
   <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="9" style="5"/>
+    <col min="2" max="2" width="11.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="47.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="23.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="4" customWidth="1"/>
@@ -4814,3160 +4865,3160 @@
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="B17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="B24" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="F44" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="9" t="s">
+    </row>
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="B45" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="F69" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    </row>
+    <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F101" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+    </row>
+    <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="7">
+        <v>102</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="7">
+        <v>103</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="7">
+        <v>104</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="7">
+        <v>105</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="7">
+        <v>106</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="7">
+        <v>107</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="7">
+        <v>108</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="7">
+        <v>109</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="7">
+        <v>110</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F111" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="7">
+        <v>111</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="7">
+        <v>112</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D113" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="7">
+        <v>113</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="7">
+        <v>114</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="7">
+        <v>115</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="7">
+        <v>116</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="7">
+        <v>117</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="7">
+        <v>118</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="7">
+        <v>119</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="7">
+        <v>120</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="7">
+        <v>121</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="7">
+        <v>122</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="7">
+        <v>123</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="7">
+        <v>124</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="7">
+        <v>125</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="7">
+        <v>126</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="7">
+        <v>127</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="7">
+        <v>128</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="7">
+        <v>129</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="F130" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="7">
+        <v>130</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="7">
+        <v>131</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="7">
+        <v>132</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="7">
+        <v>133</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="7">
+        <v>134</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="7">
+        <v>135</v>
+      </c>
+      <c r="B136" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="C136" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="B137" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="7">
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="B139" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="B140" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="7">
+        <v>140</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="B142" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="B143" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="B144" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="7">
+        <v>144</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="B146" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="B147" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="B148" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="B149" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="B150" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="B151" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="F51" s="10" t="s">
+      <c r="B152" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="7">
+        <v>152</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="7">
+        <v>153</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="7">
+        <v>154</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="7">
+        <v>155</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="7">
+        <v>156</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="7">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
-        <v>51</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
-        <v>52</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
-        <v>53</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
-        <v>54</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
-        <v>55</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
-        <v>56</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
-        <v>57</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
-        <v>58</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
-        <v>59</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
-        <v>60</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
-        <v>61</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
-        <v>62</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
-        <v>63</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8">
-        <v>64</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
-        <v>65</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8">
-        <v>66</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
-        <v>67</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
-        <v>68</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
-        <v>69</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
-        <v>70</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
-        <v>71</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
-        <v>72</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
-        <v>73</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
-        <v>74</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
-        <v>75</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="8">
-        <v>76</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
-        <v>77</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8">
-        <v>78</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
-        <v>79</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
-        <v>80</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
-        <v>81</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
-        <v>82</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
-        <v>83</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
-        <v>84</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
-        <v>85</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
-        <v>86</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
-        <v>87</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
-        <v>88</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
-        <v>89</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8">
-        <v>90</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
-        <v>91</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="8">
-        <v>92</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
-        <v>93</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="8">
-        <v>94</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
-        <v>95</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
-        <v>96</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="F97" s="10" t="s">
+      <c r="B158" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E158" s="7" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
-        <v>97</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8">
-        <v>98</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
-        <v>99</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8">
-        <v>100</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
-        <v>101</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8">
-        <v>102</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F103" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8">
-        <v>103</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="8">
-        <v>104</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
-        <v>105</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F106" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="8">
-        <v>106</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
-        <v>107</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8">
-        <v>108</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
-        <v>109</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="8">
-        <v>110</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8">
-        <v>111</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="8">
-        <v>112</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="8">
-        <v>113</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="8">
-        <v>114</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="8">
-        <v>115</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="8">
-        <v>116</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8">
-        <v>117</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="8">
-        <v>118</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="8">
-        <v>119</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8">
-        <v>120</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="8">
-        <v>121</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="8">
-        <v>122</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8">
-        <v>123</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="8">
-        <v>124</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="8">
-        <v>125</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="8">
-        <v>126</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="8">
-        <v>127</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="8">
-        <v>128</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="8">
-        <v>129</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="8">
-        <v>130</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="8">
-        <v>131</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8">
-        <v>132</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8">
-        <v>133</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F134" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8">
-        <v>134</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8">
-        <v>135</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F136" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="8">
-        <v>136</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="8">
-        <v>137</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F138" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8">
-        <v>138</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8">
-        <v>139</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F140" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="8">
-        <v>140</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="8">
-        <v>141</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F142" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="8">
-        <v>142</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F143" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="8">
-        <v>143</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F144" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="8">
-        <v>144</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F145" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="8">
-        <v>145</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F146" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="8">
-        <v>146</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F147" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="8">
-        <v>147</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F148" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="8">
-        <v>148</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F149" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="8">
-        <v>149</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F150" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="8">
-        <v>150</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F151" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="8">
-        <v>151</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F152" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="8">
-        <v>152</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F153" s="10" t="s">
+      <c r="F158" s="9" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="8">
-        <v>153</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F154" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="8">
-        <v>154</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F155" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="8">
-        <v>155</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F156" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="8">
-        <v>156</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F157" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="8">
-        <v>157</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F158" s="10" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8000,13 +8051,13 @@
     <hyperlink ref="F6" r:id="rId5" xr:uid="{D0B968EA-44D8-4D2C-96D4-E7E319518A84}"/>
     <hyperlink ref="F7" r:id="rId6" xr:uid="{6436E916-6010-4BBF-8D4E-1256C839BBAD}"/>
     <hyperlink ref="F8" r:id="rId7" xr:uid="{628B15F6-FD8C-4B92-92B8-4D81BC5363C6}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{CE6B82F9-81D3-4912-AACD-656326B21C73}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{00CCC760-197B-40BB-A433-EB601F533780}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{B1B118DC-4C63-4502-9E15-E1F749044113}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{5261EFF1-B589-43BE-94F6-27D7674DB791}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{07A8B24F-BB28-43F0-8FD8-3125883080C2}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{E11D326A-A517-4E37-BD52-9B092F24CF20}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{535D3146-155E-4070-AD4D-23C3CC222941}"/>
+    <hyperlink ref="F15" r:id="rId8" xr:uid="{CE6B82F9-81D3-4912-AACD-656326B21C73}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{00CCC760-197B-40BB-A433-EB601F533780}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{B1B118DC-4C63-4502-9E15-E1F749044113}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{5261EFF1-B589-43BE-94F6-27D7674DB791}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{07A8B24F-BB28-43F0-8FD8-3125883080C2}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{E11D326A-A517-4E37-BD52-9B092F24CF20}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{535D3146-155E-4070-AD4D-23C3CC222941}"/>
     <hyperlink ref="F16" r:id="rId15" xr:uid="{FE34CF41-FC3C-4B99-AF03-35B45AD7791D}"/>
     <hyperlink ref="F17" r:id="rId16" xr:uid="{B4EC6143-2FEB-44DD-AEC5-EA2AA270253C}"/>
     <hyperlink ref="F18" r:id="rId17" xr:uid="{8E588514-5638-4E37-86BF-AB18DCADE9AD}"/>
@@ -8035,121 +8086,121 @@
     <hyperlink ref="F41" r:id="rId40" xr:uid="{548D4987-5940-4834-9CC4-3660009F85DB}"/>
     <hyperlink ref="F42" r:id="rId41" xr:uid="{B6E749D4-4E09-45A7-88BD-0F64395CE955}"/>
     <hyperlink ref="F43" r:id="rId42" xr:uid="{ACACE800-48C3-4693-AD13-5DB450248D72}"/>
-    <hyperlink ref="F44" r:id="rId43" xr:uid="{B604D51A-317B-4354-8D33-F41080B3B86C}"/>
-    <hyperlink ref="F45" r:id="rId44" xr:uid="{80D329E6-0BB0-4A86-BCC0-05A5B381982E}"/>
+    <hyperlink ref="F45" r:id="rId43" xr:uid="{B604D51A-317B-4354-8D33-F41080B3B86C}"/>
+    <hyperlink ref="F44" r:id="rId44" xr:uid="{80D329E6-0BB0-4A86-BCC0-05A5B381982E}"/>
     <hyperlink ref="F46" r:id="rId45" xr:uid="{E574B7E9-C211-43A6-A680-CCC3F7F8583B}"/>
     <hyperlink ref="F47" r:id="rId46" xr:uid="{03FD922C-82F9-4E12-AD17-F3936FA02A6A}"/>
     <hyperlink ref="F48" r:id="rId47" xr:uid="{2667900E-A747-4B1F-AE1F-5319253247EF}"/>
     <hyperlink ref="F49" r:id="rId48" xr:uid="{7A2F7260-C29C-405E-BA43-456B3FC856FC}"/>
     <hyperlink ref="F50" r:id="rId49" xr:uid="{AE788CB9-1BDF-4EF1-80F2-12240DA197D1}"/>
-    <hyperlink ref="F52" r:id="rId50" xr:uid="{019819F2-31B5-4B0F-B77C-C3235535348A}"/>
-    <hyperlink ref="F53" r:id="rId51" xr:uid="{77DF8D3A-2E63-423E-A072-5A8FB2E49864}"/>
+    <hyperlink ref="F53" r:id="rId50" xr:uid="{019819F2-31B5-4B0F-B77C-C3235535348A}"/>
+    <hyperlink ref="F52" r:id="rId51" xr:uid="{77DF8D3A-2E63-423E-A072-5A8FB2E49864}"/>
     <hyperlink ref="F51" r:id="rId52" xr:uid="{F02251CF-F879-4B4E-8761-AA63C9D8E142}"/>
     <hyperlink ref="F65" r:id="rId53" tooltip="https://github.com/LuckSiege/PictureSelector/issues/624" xr:uid="{6E071450-7BA4-47CC-A605-D7833CE0187A}"/>
     <hyperlink ref="F64" r:id="rId54" tooltip="https://github.com/exozet/Geolocator/issues/5" xr:uid="{576C6025-6F20-46F6-A7CE-B588057BDADA}"/>
     <hyperlink ref="F63" r:id="rId55" xr:uid="{B9C5EDD3-9532-4F56-BCC5-BEA9C4C94F7C}"/>
-    <hyperlink ref="F60" r:id="rId56" tooltip="https://github.com/xuyisheng/ShortcutHelper/issues/14" xr:uid="{A808D7F5-8218-440B-9DE8-5EA4CB7608DB}"/>
-    <hyperlink ref="F59" r:id="rId57" tooltip="https://github.com/federicoiosue/Omni-Notes/issues/695" xr:uid="{E7513593-2100-4398-9DC9-922BF80CA832}"/>
-    <hyperlink ref="F57" r:id="rId58" tooltip="https://github.com/TeamNewPipe/NewPipe/issues/1998" xr:uid="{3ECCEC13-8091-4E35-BAF8-8290F2C895A3}"/>
-    <hyperlink ref="F56" r:id="rId59" tooltip="https://github.com/ThanosFisherman/WifiUtils/issues/38" xr:uid="{72816035-4CAA-4121-8FCC-0AA3C8B70AE8}"/>
-    <hyperlink ref="F55" r:id="rId60" tooltip="https://github.com/hedzr/android-file-chooser/issues/73" xr:uid="{CA501C01-5AE7-458F-B30F-AC8247434ACA}"/>
-    <hyperlink ref="F54" r:id="rId61" xr:uid="{0B817655-577D-47BC-877F-80C5F482798F}"/>
-    <hyperlink ref="F58" r:id="rId62" xr:uid="{8001AFA2-E6FA-4B67-9F7A-89FC705A625A}"/>
-    <hyperlink ref="F61" r:id="rId63" xr:uid="{416D9ECF-5759-4002-BDD9-886A3FE800FE}"/>
-    <hyperlink ref="F62" r:id="rId64" xr:uid="{2C0F189C-5CDC-48F4-8FF2-AEC97A4534E2}"/>
-    <hyperlink ref="F70" r:id="rId65" xr:uid="{6C7995B7-11C7-4EA5-A2FF-BCC55BF05F3A}"/>
-    <hyperlink ref="F69" r:id="rId66" xr:uid="{1DA6EB14-3821-431C-907B-CC03E7E7A070}"/>
-    <hyperlink ref="F68" r:id="rId67" tooltip="https://github.com/BelledonneCommunications/linphone-android/issues/837" xr:uid="{015AF2DF-D8EF-4CB7-80BD-CC3B3E7BCA99}"/>
-    <hyperlink ref="F67" r:id="rId68" xr:uid="{6B4C8BF2-2E6B-44BE-B5DB-AE495E315906}"/>
-    <hyperlink ref="F66" r:id="rId69" xr:uid="{227F46C1-D334-4FA7-AD00-AD1BEC9C230E}"/>
-    <hyperlink ref="F96" r:id="rId70" tooltip="https://github.com/qiangxi/CheckUpdateLibrary/issues/12" xr:uid="{A6706568-FC0F-40E4-806B-4C05B55E708A}"/>
-    <hyperlink ref="F97" r:id="rId71" xr:uid="{BC293894-9A3B-4850-B1F8-169FDA81C4E1}"/>
-    <hyperlink ref="F98" r:id="rId72" tooltip="https://github.com/mapbox/mapbox-events-android/issues/395" xr:uid="{550FE89D-E410-4311-931A-E1F1673933E1}"/>
-    <hyperlink ref="F99" r:id="rId73" tooltip="https://github.com/Swati4star/Images-to-PDF/issues/669" xr:uid="{A690957E-06E4-406F-8B31-6C2848D1EB5F}"/>
-    <hyperlink ref="F100" r:id="rId74" tooltip="https://github.com/ravi8x/Barcode-Reader/issues/2" xr:uid="{CA10CB01-6899-41D6-A144-686199DC27B5}"/>
-    <hyperlink ref="F104" r:id="rId75" tooltip="https://github.com//pwittchen/ReactiveBeacons/issues/76" xr:uid="{530232E0-ED7F-4362-9128-F563917E2228}"/>
-    <hyperlink ref="F103" r:id="rId76" xr:uid="{F8B04DE3-86F6-4A31-8E5F-6680E1F4E1A0}"/>
-    <hyperlink ref="F114" r:id="rId77" xr:uid="{98060211-8D06-4B88-B82B-FC0C348B7009}"/>
-    <hyperlink ref="F105" r:id="rId78" xr:uid="{37465F12-6B10-4107-9C7F-00383F104906}"/>
-    <hyperlink ref="F106" r:id="rId79" xr:uid="{DEAA2BA4-B4BA-4320-B17D-311BE181E266}"/>
-    <hyperlink ref="F108" r:id="rId80" tooltip="https://github.com/react-native-community/react-native-device-info/issues/268" xr:uid="{92119593-6CA3-462B-8B37-425B1E05087C}"/>
-    <hyperlink ref="F109" r:id="rId81" tooltip="https://github.com/scottyab/secure-preferences/issues/72" xr:uid="{8A860968-4A04-4FE3-A177-18548A814BD4}"/>
-    <hyperlink ref="F110" r:id="rId82" tooltip="https://github.com/react-native-community/react-native-device-info/pull/565" xr:uid="{99C69A60-994A-4499-8588-B84F59A011EB}"/>
-    <hyperlink ref="F111" r:id="rId83" tooltip="https://github.com/bantucracy/ayanda/issues/17" xr:uid="{DC2CA06F-320B-4979-8582-EE18DD0DFAF6}"/>
-    <hyperlink ref="F112" r:id="rId84" xr:uid="{D85B5C55-40AD-4337-AC2F-2D96B7619799}"/>
-    <hyperlink ref="F113" r:id="rId85" tooltip="https://github.com/massivedisaster/ADAL/issues/134" xr:uid="{40337FD4-F73B-4FD6-88FE-0D80A65C5464}"/>
-    <hyperlink ref="F115" r:id="rId86" xr:uid="{FCB3FC00-9E29-44F0-A609-DF1A990AB875}"/>
-    <hyperlink ref="F116" r:id="rId87" tooltip="https://github.com/react-native-community/react-native-device-info/issues/595" xr:uid="{36B8CBC0-C7DB-475A-BFAC-1F549A30A985}"/>
-    <hyperlink ref="F117" r:id="rId88" tooltip="https://github.com/line/line-sdk-android/issues/27" xr:uid="{A94B1D1B-6E44-47AC-B376-B40725A15AE1}"/>
-    <hyperlink ref="F118" r:id="rId89" tooltip="https://github.com/scottyab/secure-preferences/issues/88" xr:uid="{A2EB8418-3013-44DB-B8E3-A607982FCCD8}"/>
-    <hyperlink ref="F107" r:id="rId90" xr:uid="{5C0D8E00-A3E9-4854-8DA3-F6D52961C6E9}"/>
-    <hyperlink ref="F119" r:id="rId91" tooltip="https://github.com/Tamsiree/RxTool/issues/109" xr:uid="{0A5C4E84-9756-41F5-AF3F-B113D089B270}"/>
-    <hyperlink ref="F120" r:id="rId92" tooltip="https://github.com/AppLovin/Android-SDK-Demo/issues/42" xr:uid="{24EE10E4-ECD8-46CA-88A1-86A2227A7848}"/>
-    <hyperlink ref="F121" r:id="rId93" tooltip="https://github.com/square/leakcanary/issues/984" xr:uid="{54365BB6-A8D6-4ACB-9057-5DAA97032161}"/>
-    <hyperlink ref="F122" r:id="rId94" xr:uid="{2E78E1B0-240E-488E-8B3A-2C0917ABDD93}"/>
-    <hyperlink ref="F123" r:id="rId95" tooltip="https://github.com/bitstadium/HockeySDK-Xamarin/issues/115" xr:uid="{19566EAA-8D7E-4C04-9C45-A95DAD7D9064}"/>
-    <hyperlink ref="F124" r:id="rId96" xr:uid="{C0D5268C-1ECA-432C-91A0-EDA385F7D6B2}"/>
-    <hyperlink ref="F125" r:id="rId97" tooltip="https://github.com/bitstadium/HockeySDK-Android/issues/176" xr:uid="{2E7F12D4-D366-49A0-872B-A987B79890CB}"/>
-    <hyperlink ref="F126" r:id="rId98" xr:uid="{32CE9311-E3AA-4F6F-BC54-25E8394B8100}"/>
-    <hyperlink ref="F127" r:id="rId99" tooltip="https://github.com/Applifier/unity-ads/pull/51" xr:uid="{9D2E30FC-162B-4434-A3B9-3602CBDC4A14}"/>
-    <hyperlink ref="F128" r:id="rId100" xr:uid="{844DFD88-E119-4EAC-A069-9BC48FBBB3DE}"/>
-    <hyperlink ref="F129" r:id="rId101" tooltip="https://github.com/bitstadium/HockeySDK-Android/issues/351" xr:uid="{20AA305C-86C8-48B8-9DCB-A80E2A6FF787}"/>
-    <hyperlink ref="F130" r:id="rId102" xr:uid="{28332322-B27C-4CFF-A1C3-E94E9954A876}"/>
-    <hyperlink ref="F131" r:id="rId103" xr:uid="{6A7D1152-5F33-4988-9E97-FA3D375BA857}"/>
-    <hyperlink ref="F132" r:id="rId104" tooltip="https://github.com/RedApparat/FaceDetector/issues/33" xr:uid="{6A8399DA-5416-41FD-9BE7-C90FF9DA36F4}"/>
-    <hyperlink ref="F133" r:id="rId105" tooltip="https://github.com/apptentive/apptentive-android/issues/168" xr:uid="{7E756C3F-56AF-4CD2-8215-7CD6FFAC8922}"/>
-    <hyperlink ref="F134" r:id="rId106" xr:uid="{510F6483-2F17-414B-93C8-954C829F3321}"/>
-    <hyperlink ref="F135" r:id="rId107" xr:uid="{CDC9434F-1418-40F8-9A0E-D00DE8C2C8F6}"/>
-    <hyperlink ref="F136" r:id="rId108" xr:uid="{804D3370-85B1-4514-A01C-F2F73B9A3C2A}"/>
-    <hyperlink ref="F137" r:id="rId109" xr:uid="{8C988ED7-D28F-4EAE-80DF-4488D7853F32}"/>
-    <hyperlink ref="F138" r:id="rId110" xr:uid="{FA05BF77-DF93-4C58-83DE-C5E550D20B0B}"/>
-    <hyperlink ref="F139" r:id="rId111" tooltip="https://github.com/broakenmedia/MultiContactPicker/issues/3" xr:uid="{6B29F405-FFD3-422D-9A58-95C346C4FB58}"/>
-    <hyperlink ref="F140" r:id="rId112" xr:uid="{26A76049-D702-4EDE-89CB-E40FC8AF80AC}"/>
-    <hyperlink ref="F141" r:id="rId113" tooltip="https://github.com/LuckSiege/PictureSelector/issues/189" xr:uid="{87AD6884-D48F-4F7C-A792-3B702E4DAD4B}"/>
-    <hyperlink ref="F142" r:id="rId114" xr:uid="{0E7759F5-FF8B-448E-8367-56074A4E8388}"/>
-    <hyperlink ref="F143" r:id="rId115" xr:uid="{5EF27FAC-BAFF-423C-9F1C-965C47C3BEED}"/>
-    <hyperlink ref="F144" r:id="rId116" xr:uid="{66BF3499-D9F2-4400-8360-52EAA3568045}"/>
-    <hyperlink ref="F145" r:id="rId117" xr:uid="{7E680D78-DE46-473C-8DA8-81A43FA4C181}"/>
-    <hyperlink ref="F146" r:id="rId118" xr:uid="{04CA3D48-91B6-48F2-9E55-D829A9BBC6E2}"/>
-    <hyperlink ref="F147" r:id="rId119" xr:uid="{2ADD2B63-1F22-4774-B44A-F3760CDC6ACE}"/>
-    <hyperlink ref="F148" r:id="rId120" xr:uid="{0662980E-76F9-404D-9516-2C937B9D6DFA}"/>
-    <hyperlink ref="F149" r:id="rId121" xr:uid="{328E488E-EFA8-4843-80F7-96581665B782}"/>
-    <hyperlink ref="F150" r:id="rId122" xr:uid="{27607877-6C0C-4C80-B1EC-3D757FA00CAB}"/>
-    <hyperlink ref="F152" r:id="rId123" xr:uid="{771A28B4-FB6B-484F-B20C-37D71B685B1E}"/>
-    <hyperlink ref="F153" r:id="rId124" tooltip="https://github.com/dlazaro66/QRCodeReaderView/issues/129" xr:uid="{5E532925-5182-4C7A-A274-8483CD7BB7DC}"/>
-    <hyperlink ref="F154" r:id="rId125" xr:uid="{452474C7-E4DB-48F9-BE1B-5221B9EE1576}"/>
-    <hyperlink ref="F155" r:id="rId126" xr:uid="{A1C6F64F-20B3-48B6-A18A-1851AA40A576}"/>
-    <hyperlink ref="F156" r:id="rId127" xr:uid="{EBEB2864-E2DA-4362-8C6C-87DA5F9B2544}"/>
-    <hyperlink ref="F157" r:id="rId128" xr:uid="{FA75B0FF-0C10-4BC3-827A-9032CBE3FEB3}"/>
-    <hyperlink ref="F158" r:id="rId129" tooltip="https://github.com/yuriy-budiyev/code-scanner/issues/76" xr:uid="{87DB9B4E-AB7A-46DC-AD44-1B7100C92FCF}"/>
-    <hyperlink ref="F151" r:id="rId130" xr:uid="{4660277C-2106-4F25-9536-DFF35BBB2F54}"/>
-    <hyperlink ref="F71" r:id="rId131" xr:uid="{F50B0B7D-64BE-4986-98D5-DCC67C77A8B7}"/>
-    <hyperlink ref="F72" r:id="rId132" xr:uid="{7A137461-E822-4644-94CC-059045341F67}"/>
-    <hyperlink ref="F73" r:id="rId133" xr:uid="{0A3CF3DF-23A2-4880-AAEE-ACC14F735002}"/>
-    <hyperlink ref="F93" r:id="rId134" tooltip="https://github.com//commons-app/apps-android-commons/pull/1855" xr:uid="{5943BDEF-3011-428B-9A89-AE7FCCD51CAC}"/>
-    <hyperlink ref="F94" r:id="rId135" tooltip="https://github.com//openfoodfacts/openfoodfacts-androidapp/pull/977" xr:uid="{C8966B9B-8404-49D4-AB00-8BD6BE8D6FDF}"/>
-    <hyperlink ref="F95" r:id="rId136" tooltip="https://github.com/wbaumann/SmartReceiptsLibrary/pull/175" xr:uid="{A0C7F0C8-42DA-4052-8FEF-9D72CBF28CAB}"/>
-    <hyperlink ref="F90" r:id="rId137" xr:uid="{4B009A1E-C875-4F19-8BE9-365B6C79C078}"/>
-    <hyperlink ref="F91" r:id="rId138" xr:uid="{FB1A998D-3C6A-4F27-BBFE-7AFBA4C5FCF3}"/>
-    <hyperlink ref="F92" r:id="rId139" xr:uid="{AB663385-D117-40B4-BC3D-F4FE10425825}"/>
-    <hyperlink ref="F74" r:id="rId140" tooltip="https://github.com//Telegram-FOSS-Team/Telegram-FOSS/issues/39" xr:uid="{DD32EB4D-A96B-4B43-B695-C91F18C54672}"/>
-    <hyperlink ref="F75" r:id="rId141" tooltip="https://github.com//open-keychain/open-keychain/issues/1571" xr:uid="{6258DD84-8ADC-4C14-B027-EF1CB1B48462}"/>
-    <hyperlink ref="F79" r:id="rId142" tooltip="https://github.com/microg/IchnaeaNlpBackend/issues/19" xr:uid="{BF2632BD-6F04-4B50-9FD8-FC4C6E8E8158}"/>
-    <hyperlink ref="F78" r:id="rId143" tooltip="https://github.com/erickok/transdroid/issues/258" xr:uid="{E008ACAF-DC86-403A-B1C8-A8E8E80C9722}"/>
-    <hyperlink ref="F76" r:id="rId144" tooltip="https://github.com/PhotoBackup/client-android/issues/8" xr:uid="{93677AC7-C48D-4D90-BD6C-AF480172C948}"/>
-    <hyperlink ref="F87" r:id="rId145" tooltip="https://github.com/Etar-Group/Etar-Calendar/issues/75" xr:uid="{E12CDC10-1A03-41CC-8F4D-CA07C5009700}"/>
-    <hyperlink ref="F77" r:id="rId146" xr:uid="{36B5799C-6DA1-427B-B6B2-6D11318BF792}"/>
-    <hyperlink ref="F80" r:id="rId147" xr:uid="{C2FA1E08-3CA0-4685-9DB0-62D07AE478FD}"/>
-    <hyperlink ref="F81" r:id="rId148" xr:uid="{A9B61412-60E4-489F-8051-796903BA68D9}"/>
-    <hyperlink ref="F83" r:id="rId149" xr:uid="{58AFFE23-E20F-48DD-AFAC-15CEBD24C3F6}"/>
-    <hyperlink ref="F84" r:id="rId150" xr:uid="{348BE251-FBE4-4B14-9C9C-E266EA2F8CA9}"/>
-    <hyperlink ref="F85" r:id="rId151" xr:uid="{B800AF4D-7A72-487C-A418-308CEE8BD26E}"/>
-    <hyperlink ref="F86" r:id="rId152" xr:uid="{C6B3ED6F-3EB5-4AF9-9758-77F730110C26}"/>
-    <hyperlink ref="F89" r:id="rId153" xr:uid="{80796F83-AF18-4594-A8DC-AC064D000A93}"/>
-    <hyperlink ref="F82" r:id="rId154" xr:uid="{C872901B-29CF-43E2-AB22-D518D7C52FD5}"/>
-    <hyperlink ref="F88" r:id="rId155" xr:uid="{26C4F972-2F33-4DB6-8E94-DE818D7DDF2B}"/>
-    <hyperlink ref="F101" r:id="rId156" xr:uid="{A8E12036-54B1-42B1-B238-D81B554F7F41}"/>
-    <hyperlink ref="F102" r:id="rId157" xr:uid="{AB5ED15A-BC1E-4BF8-868B-573F9C843DE2}"/>
+    <hyperlink ref="F61" r:id="rId56" tooltip="https://github.com/xuyisheng/ShortcutHelper/issues/14" xr:uid="{A808D7F5-8218-440B-9DE8-5EA4CB7608DB}"/>
+    <hyperlink ref="F60" r:id="rId57" tooltip="https://github.com/federicoiosue/Omni-Notes/issues/695" xr:uid="{E7513593-2100-4398-9DC9-922BF80CA832}"/>
+    <hyperlink ref="F58" r:id="rId58" tooltip="https://github.com/TeamNewPipe/NewPipe/issues/1998" xr:uid="{3ECCEC13-8091-4E35-BAF8-8290F2C895A3}"/>
+    <hyperlink ref="F55" r:id="rId59" tooltip="https://github.com/ThanosFisherman/WifiUtils/issues/38" xr:uid="{72816035-4CAA-4121-8FCC-0AA3C8B70AE8}"/>
+    <hyperlink ref="F54" r:id="rId60" xr:uid="{0B817655-577D-47BC-877F-80C5F482798F}"/>
+    <hyperlink ref="F59" r:id="rId61" xr:uid="{8001AFA2-E6FA-4B67-9F7A-89FC705A625A}"/>
+    <hyperlink ref="F56" r:id="rId62" xr:uid="{416D9ECF-5759-4002-BDD9-886A3FE800FE}"/>
+    <hyperlink ref="F62" r:id="rId63" xr:uid="{2C0F189C-5CDC-48F4-8FF2-AEC97A4534E2}"/>
+    <hyperlink ref="F70" r:id="rId64" xr:uid="{6C7995B7-11C7-4EA5-A2FF-BCC55BF05F3A}"/>
+    <hyperlink ref="F69" r:id="rId65" xr:uid="{1DA6EB14-3821-431C-907B-CC03E7E7A070}"/>
+    <hyperlink ref="F68" r:id="rId66" tooltip="https://github.com/BelledonneCommunications/linphone-android/issues/837" xr:uid="{015AF2DF-D8EF-4CB7-80BD-CC3B3E7BCA99}"/>
+    <hyperlink ref="F67" r:id="rId67" xr:uid="{6B4C8BF2-2E6B-44BE-B5DB-AE495E315906}"/>
+    <hyperlink ref="F66" r:id="rId68" xr:uid="{227F46C1-D334-4FA7-AD00-AD1BEC9C230E}"/>
+    <hyperlink ref="F96" r:id="rId69" tooltip="https://github.com/qiangxi/CheckUpdateLibrary/issues/12" xr:uid="{A6706568-FC0F-40E4-806B-4C05B55E708A}"/>
+    <hyperlink ref="F97" r:id="rId70" xr:uid="{BC293894-9A3B-4850-B1F8-169FDA81C4E1}"/>
+    <hyperlink ref="F98" r:id="rId71" tooltip="https://github.com/mapbox/mapbox-events-android/issues/395" xr:uid="{550FE89D-E410-4311-931A-E1F1673933E1}"/>
+    <hyperlink ref="F99" r:id="rId72" tooltip="https://github.com/Swati4star/Images-to-PDF/issues/669" xr:uid="{A690957E-06E4-406F-8B31-6C2848D1EB5F}"/>
+    <hyperlink ref="F100" r:id="rId73" tooltip="https://github.com/ravi8x/Barcode-Reader/issues/2" xr:uid="{CA10CB01-6899-41D6-A144-686199DC27B5}"/>
+    <hyperlink ref="F104" r:id="rId74" tooltip="https://github.com//pwittchen/ReactiveBeacons/issues/76" xr:uid="{530232E0-ED7F-4362-9128-F563917E2228}"/>
+    <hyperlink ref="F103" r:id="rId75" xr:uid="{F8B04DE3-86F6-4A31-8E5F-6680E1F4E1A0}"/>
+    <hyperlink ref="F114" r:id="rId76" xr:uid="{98060211-8D06-4B88-B82B-FC0C348B7009}"/>
+    <hyperlink ref="F105" r:id="rId77" xr:uid="{37465F12-6B10-4107-9C7F-00383F104906}"/>
+    <hyperlink ref="F106" r:id="rId78" xr:uid="{DEAA2BA4-B4BA-4320-B17D-311BE181E266}"/>
+    <hyperlink ref="F108" r:id="rId79" tooltip="https://github.com/react-native-community/react-native-device-info/issues/268" xr:uid="{92119593-6CA3-462B-8B37-425B1E05087C}"/>
+    <hyperlink ref="F109" r:id="rId80" tooltip="https://github.com/scottyab/secure-preferences/issues/72" xr:uid="{8A860968-4A04-4FE3-A177-18548A814BD4}"/>
+    <hyperlink ref="F110" r:id="rId81" tooltip="https://github.com/react-native-community/react-native-device-info/pull/565" xr:uid="{99C69A60-994A-4499-8588-B84F59A011EB}"/>
+    <hyperlink ref="F111" r:id="rId82" tooltip="https://github.com/bantucracy/ayanda/issues/17" xr:uid="{DC2CA06F-320B-4979-8582-EE18DD0DFAF6}"/>
+    <hyperlink ref="F112" r:id="rId83" xr:uid="{D85B5C55-40AD-4337-AC2F-2D96B7619799}"/>
+    <hyperlink ref="F113" r:id="rId84" tooltip="https://github.com/massivedisaster/ADAL/issues/134" xr:uid="{40337FD4-F73B-4FD6-88FE-0D80A65C5464}"/>
+    <hyperlink ref="F115" r:id="rId85" xr:uid="{FCB3FC00-9E29-44F0-A609-DF1A990AB875}"/>
+    <hyperlink ref="F116" r:id="rId86" tooltip="https://github.com/react-native-community/react-native-device-info/issues/595" xr:uid="{36B8CBC0-C7DB-475A-BFAC-1F549A30A985}"/>
+    <hyperlink ref="F117" r:id="rId87" tooltip="https://github.com/line/line-sdk-android/issues/27" xr:uid="{A94B1D1B-6E44-47AC-B376-B40725A15AE1}"/>
+    <hyperlink ref="F118" r:id="rId88" tooltip="https://github.com/scottyab/secure-preferences/issues/88" xr:uid="{A2EB8418-3013-44DB-B8E3-A607982FCCD8}"/>
+    <hyperlink ref="F107" r:id="rId89" xr:uid="{5C0D8E00-A3E9-4854-8DA3-F6D52961C6E9}"/>
+    <hyperlink ref="F119" r:id="rId90" tooltip="https://github.com/Tamsiree/RxTool/issues/109" xr:uid="{0A5C4E84-9756-41F5-AF3F-B113D089B270}"/>
+    <hyperlink ref="F120" r:id="rId91" tooltip="https://github.com/AppLovin/Android-SDK-Demo/issues/42" xr:uid="{24EE10E4-ECD8-46CA-88A1-86A2227A7848}"/>
+    <hyperlink ref="F121" r:id="rId92" tooltip="https://github.com/square/leakcanary/issues/984" xr:uid="{54365BB6-A8D6-4ACB-9057-5DAA97032161}"/>
+    <hyperlink ref="F122" r:id="rId93" xr:uid="{2E78E1B0-240E-488E-8B3A-2C0917ABDD93}"/>
+    <hyperlink ref="F123" r:id="rId94" tooltip="https://github.com/bitstadium/HockeySDK-Xamarin/issues/115" xr:uid="{19566EAA-8D7E-4C04-9C45-A95DAD7D9064}"/>
+    <hyperlink ref="F124" r:id="rId95" xr:uid="{C0D5268C-1ECA-432C-91A0-EDA385F7D6B2}"/>
+    <hyperlink ref="F125" r:id="rId96" tooltip="https://github.com/bitstadium/HockeySDK-Android/issues/176" xr:uid="{2E7F12D4-D366-49A0-872B-A987B79890CB}"/>
+    <hyperlink ref="F126" r:id="rId97" xr:uid="{32CE9311-E3AA-4F6F-BC54-25E8394B8100}"/>
+    <hyperlink ref="F127" r:id="rId98" tooltip="https://github.com/Applifier/unity-ads/pull/51" xr:uid="{9D2E30FC-162B-4434-A3B9-3602CBDC4A14}"/>
+    <hyperlink ref="F128" r:id="rId99" xr:uid="{844DFD88-E119-4EAC-A069-9BC48FBBB3DE}"/>
+    <hyperlink ref="F129" r:id="rId100" tooltip="https://github.com/bitstadium/HockeySDK-Android/issues/351" xr:uid="{20AA305C-86C8-48B8-9DCB-A80E2A6FF787}"/>
+    <hyperlink ref="F130" r:id="rId101" xr:uid="{28332322-B27C-4CFF-A1C3-E94E9954A876}"/>
+    <hyperlink ref="F134" r:id="rId102" xr:uid="{6A7D1152-5F33-4988-9E97-FA3D375BA857}"/>
+    <hyperlink ref="F131" r:id="rId103" tooltip="https://github.com/RedApparat/FaceDetector/issues/33" xr:uid="{6A8399DA-5416-41FD-9BE7-C90FF9DA36F4}"/>
+    <hyperlink ref="F132" r:id="rId104" tooltip="https://github.com/apptentive/apptentive-android/issues/168" xr:uid="{7E756C3F-56AF-4CD2-8215-7CD6FFAC8922}"/>
+    <hyperlink ref="F133" r:id="rId105" xr:uid="{510F6483-2F17-414B-93C8-954C829F3321}"/>
+    <hyperlink ref="F135" r:id="rId106" xr:uid="{CDC9434F-1418-40F8-9A0E-D00DE8C2C8F6}"/>
+    <hyperlink ref="F136" r:id="rId107" xr:uid="{804D3370-85B1-4514-A01C-F2F73B9A3C2A}"/>
+    <hyperlink ref="F137" r:id="rId108" xr:uid="{8C988ED7-D28F-4EAE-80DF-4488D7853F32}"/>
+    <hyperlink ref="F138" r:id="rId109" xr:uid="{FA05BF77-DF93-4C58-83DE-C5E550D20B0B}"/>
+    <hyperlink ref="F139" r:id="rId110" tooltip="https://github.com/broakenmedia/MultiContactPicker/issues/3" xr:uid="{6B29F405-FFD3-422D-9A58-95C346C4FB58}"/>
+    <hyperlink ref="F140" r:id="rId111" xr:uid="{26A76049-D702-4EDE-89CB-E40FC8AF80AC}"/>
+    <hyperlink ref="F141" r:id="rId112" tooltip="https://github.com/LuckSiege/PictureSelector/issues/189" xr:uid="{87AD6884-D48F-4F7C-A792-3B702E4DAD4B}"/>
+    <hyperlink ref="F142" r:id="rId113" xr:uid="{0E7759F5-FF8B-448E-8367-56074A4E8388}"/>
+    <hyperlink ref="F155" r:id="rId114" xr:uid="{5EF27FAC-BAFF-423C-9F1C-965C47C3BEED}"/>
+    <hyperlink ref="F156" r:id="rId115" xr:uid="{66BF3499-D9F2-4400-8360-52EAA3568045}"/>
+    <hyperlink ref="F143" r:id="rId116" xr:uid="{7E680D78-DE46-473C-8DA8-81A43FA4C181}"/>
+    <hyperlink ref="F144" r:id="rId117" xr:uid="{04CA3D48-91B6-48F2-9E55-D829A9BBC6E2}"/>
+    <hyperlink ref="F145" r:id="rId118" xr:uid="{2ADD2B63-1F22-4774-B44A-F3760CDC6ACE}"/>
+    <hyperlink ref="F146" r:id="rId119" xr:uid="{0662980E-76F9-404D-9516-2C937B9D6DFA}"/>
+    <hyperlink ref="F147" r:id="rId120" xr:uid="{328E488E-EFA8-4843-80F7-96581665B782}"/>
+    <hyperlink ref="F157" r:id="rId121" xr:uid="{27607877-6C0C-4C80-B1EC-3D757FA00CAB}"/>
+    <hyperlink ref="F149" r:id="rId122" xr:uid="{771A28B4-FB6B-484F-B20C-37D71B685B1E}"/>
+    <hyperlink ref="F150" r:id="rId123" tooltip="https://github.com/dlazaro66/QRCodeReaderView/issues/129" xr:uid="{5E532925-5182-4C7A-A274-8483CD7BB7DC}"/>
+    <hyperlink ref="F151" r:id="rId124" xr:uid="{452474C7-E4DB-48F9-BE1B-5221B9EE1576}"/>
+    <hyperlink ref="F152" r:id="rId125" xr:uid="{A1C6F64F-20B3-48B6-A18A-1851AA40A576}"/>
+    <hyperlink ref="F153" r:id="rId126" xr:uid="{EBEB2864-E2DA-4362-8C6C-87DA5F9B2544}"/>
+    <hyperlink ref="F158" r:id="rId127" xr:uid="{FA75B0FF-0C10-4BC3-827A-9032CBE3FEB3}"/>
+    <hyperlink ref="F154" r:id="rId128" tooltip="https://github.com/yuriy-budiyev/code-scanner/issues/76" xr:uid="{87DB9B4E-AB7A-46DC-AD44-1B7100C92FCF}"/>
+    <hyperlink ref="F148" r:id="rId129" xr:uid="{4660277C-2106-4F25-9536-DFF35BBB2F54}"/>
+    <hyperlink ref="F71" r:id="rId130" xr:uid="{F50B0B7D-64BE-4986-98D5-DCC67C77A8B7}"/>
+    <hyperlink ref="F72" r:id="rId131" xr:uid="{7A137461-E822-4644-94CC-059045341F67}"/>
+    <hyperlink ref="F91" r:id="rId132" tooltip="https://github.com//commons-app/apps-android-commons/pull/1855" xr:uid="{5943BDEF-3011-428B-9A89-AE7FCCD51CAC}"/>
+    <hyperlink ref="F92" r:id="rId133" tooltip="https://github.com//openfoodfacts/openfoodfacts-androidapp/pull/977" xr:uid="{C8966B9B-8404-49D4-AB00-8BD6BE8D6FDF}"/>
+    <hyperlink ref="F93" r:id="rId134" tooltip="https://github.com/wbaumann/SmartReceiptsLibrary/pull/175" xr:uid="{A0C7F0C8-42DA-4052-8FEF-9D72CBF28CAB}"/>
+    <hyperlink ref="F88" r:id="rId135" xr:uid="{4B009A1E-C875-4F19-8BE9-365B6C79C078}"/>
+    <hyperlink ref="F89" r:id="rId136" xr:uid="{FB1A998D-3C6A-4F27-BBFE-7AFBA4C5FCF3}"/>
+    <hyperlink ref="F90" r:id="rId137" xr:uid="{AB663385-D117-40B4-BC3D-F4FE10425825}"/>
+    <hyperlink ref="F74" r:id="rId138" tooltip="https://github.com//Telegram-FOSS-Team/Telegram-FOSS/issues/39" xr:uid="{DD32EB4D-A96B-4B43-B695-C91F18C54672}"/>
+    <hyperlink ref="F75" r:id="rId139" tooltip="https://github.com//open-keychain/open-keychain/issues/1571" xr:uid="{6258DD84-8ADC-4C14-B027-EF1CB1B48462}"/>
+    <hyperlink ref="F78" r:id="rId140" tooltip="https://github.com/microg/IchnaeaNlpBackend/issues/19" xr:uid="{BF2632BD-6F04-4B50-9FD8-FC4C6E8E8158}"/>
+    <hyperlink ref="F77" r:id="rId141" tooltip="https://github.com/erickok/transdroid/issues/258" xr:uid="{E008ACAF-DC86-403A-B1C8-A8E8E80C9722}"/>
+    <hyperlink ref="F94" r:id="rId142" xr:uid="{93677AC7-C48D-4D90-BD6C-AF480172C948}"/>
+    <hyperlink ref="F85" r:id="rId143" tooltip="https://github.com/Etar-Group/Etar-Calendar/issues/75" xr:uid="{E12CDC10-1A03-41CC-8F4D-CA07C5009700}"/>
+    <hyperlink ref="F76" r:id="rId144" xr:uid="{36B5799C-6DA1-427B-B6B2-6D11318BF792}"/>
+    <hyperlink ref="F95" r:id="rId145" xr:uid="{C2FA1E08-3CA0-4685-9DB0-62D07AE478FD}"/>
+    <hyperlink ref="F79" r:id="rId146" xr:uid="{A9B61412-60E4-489F-8051-796903BA68D9}"/>
+    <hyperlink ref="F81" r:id="rId147" xr:uid="{58AFFE23-E20F-48DD-AFAC-15CEBD24C3F6}"/>
+    <hyperlink ref="F82" r:id="rId148" xr:uid="{348BE251-FBE4-4B14-9C9C-E266EA2F8CA9}"/>
+    <hyperlink ref="F83" r:id="rId149" xr:uid="{B800AF4D-7A72-487C-A418-308CEE8BD26E}"/>
+    <hyperlink ref="F84" r:id="rId150" xr:uid="{C6B3ED6F-3EB5-4AF9-9758-77F730110C26}"/>
+    <hyperlink ref="F87" r:id="rId151" xr:uid="{80796F83-AF18-4594-A8DC-AC064D000A93}"/>
+    <hyperlink ref="F80" r:id="rId152" xr:uid="{C872901B-29CF-43E2-AB22-D518D7C52FD5}"/>
+    <hyperlink ref="F86" r:id="rId153" xr:uid="{26C4F972-2F33-4DB6-8E94-DE818D7DDF2B}"/>
+    <hyperlink ref="F101" r:id="rId154" xr:uid="{A8E12036-54B1-42B1-B238-D81B554F7F41}"/>
+    <hyperlink ref="F102" r:id="rId155" xr:uid="{AB5ED15A-BC1E-4BF8-868B-573F9C843DE2}"/>
+    <hyperlink ref="F57" r:id="rId156" tooltip="https://github.com/hedzr/android-file-chooser/issues/73" xr:uid="{CA501C01-5AE7-458F-B30F-AC8247434ACA}"/>
+    <hyperlink ref="F73" r:id="rId157" xr:uid="{0A3CF3DF-23A2-4880-AAEE-ACC14F735002}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId158"/>

--- a/Github Issues.xlsx
+++ b/Github Issues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyb\Desktop\ARP-issues.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEEB6AD-11D3-4CED-BAB8-624AC5B8ACEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2D3D26-C910-4240-809E-0938400D25F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6ADBFC8-225E-4F88-98AE-4FFB5B264DE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A6ADBFC8-225E-4F88-98AE-4FFB5B264DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -2801,7 +2801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7293D8F2-8281-4E1B-99C2-4EF540B87715}">
   <dimension ref="A1:A663"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -4847,8 +4847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0D53C4-C210-4176-8EEA-224DB90158C3}">
   <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5162,7 +5162,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -5182,7 +5182,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -5202,7 +5202,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -5222,7 +5222,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -5242,7 +5242,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -5262,7 +5262,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -5282,7 +5282,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -5302,7 +5302,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -5322,7 +5322,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -5342,7 +5342,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -5362,7 +5362,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -5382,7 +5382,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -5402,7 +5402,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -5422,7 +5422,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -5442,7 +5442,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -5462,7 +5462,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="19">
         <v>30</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -5482,7 +5482,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="19">
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -5502,7 +5502,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="19">
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -5522,7 +5522,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="A34" s="19">
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -5542,7 +5542,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="19">
         <v>34</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -5562,7 +5562,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="19">
         <v>35</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -5582,7 +5582,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="19">
         <v>36</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -5602,7 +5602,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="19">
         <v>37</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -5622,7 +5622,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="19">
         <v>38</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -5642,7 +5642,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A40" s="19">
         <v>39</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -5662,7 +5662,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="19">
         <v>40</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -5682,7 +5682,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="19">
         <v>41</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -5702,7 +5702,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="A43" s="19">
         <v>42</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -5722,7 +5722,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="A44" s="19">
         <v>43</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -5742,7 +5742,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="19">
         <v>44</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -5762,7 +5762,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="A46" s="23">
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
@@ -5782,7 +5782,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="A47" s="23">
         <v>46</v>
       </c>
       <c r="B47" s="24" t="s">
@@ -5802,7 +5802,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="A48" s="23">
         <v>47</v>
       </c>
       <c r="B48" s="24" t="s">
@@ -5822,7 +5822,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="A49" s="23">
         <v>48</v>
       </c>
       <c r="B49" s="24" t="s">
@@ -5842,7 +5842,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="A50" s="23">
         <v>49</v>
       </c>
       <c r="B50" s="24" t="s">
@@ -5862,7 +5862,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="A51" s="26">
         <v>50</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -5882,7 +5882,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+      <c r="A52" s="26">
         <v>51</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -5902,7 +5902,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="A53" s="26">
         <v>52</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -5922,7 +5922,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+      <c r="A54" s="23">
         <v>53</v>
       </c>
       <c r="B54" s="24" t="s">
@@ -5942,7 +5942,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="A55" s="23">
         <v>54</v>
       </c>
       <c r="B55" s="24" t="s">
@@ -5962,7 +5962,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="A56" s="23">
         <v>55</v>
       </c>
       <c r="B56" s="24" t="s">
@@ -5982,7 +5982,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="23">
         <v>56</v>
       </c>
       <c r="B57" s="24" t="s">
@@ -6002,7 +6002,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+      <c r="A58" s="23">
         <v>57</v>
       </c>
       <c r="B58" s="24" t="s">
@@ -6022,7 +6022,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="A59" s="23">
         <v>58</v>
       </c>
       <c r="B59" s="24" t="s">
@@ -6042,7 +6042,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+      <c r="A60" s="23">
         <v>59</v>
       </c>
       <c r="B60" s="24" t="s">
@@ -6062,7 +6062,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="A61" s="23">
         <v>60</v>
       </c>
       <c r="B61" s="24" t="s">
@@ -6082,7 +6082,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="A62" s="23">
         <v>61</v>
       </c>
       <c r="B62" s="24" t="s">
@@ -6102,7 +6102,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+      <c r="A63" s="23">
         <v>62</v>
       </c>
       <c r="B63" s="24" t="s">
@@ -6122,7 +6122,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
+      <c r="A64" s="23">
         <v>63</v>
       </c>
       <c r="B64" s="24" t="s">
@@ -6142,7 +6142,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
+      <c r="A65" s="23">
         <v>64</v>
       </c>
       <c r="B65" s="24" t="s">
@@ -6162,7 +6162,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
+      <c r="A66" s="26">
         <v>65</v>
       </c>
       <c r="B66" s="27" t="s">
@@ -6182,7 +6182,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
+      <c r="A67" s="26">
         <v>66</v>
       </c>
       <c r="B67" s="27" t="s">
@@ -6202,7 +6202,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
+      <c r="A68" s="26">
         <v>67</v>
       </c>
       <c r="B68" s="27" t="s">
@@ -6222,7 +6222,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
+      <c r="A69" s="26">
         <v>68</v>
       </c>
       <c r="B69" s="27" t="s">
@@ -6242,7 +6242,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
+      <c r="A70" s="26">
         <v>69</v>
       </c>
       <c r="B70" s="27" t="s">
@@ -6762,7 +6762,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="7">
+      <c r="A96" s="19">
         <v>95</v>
       </c>
       <c r="B96" s="20" t="s">
@@ -6782,7 +6782,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
+      <c r="A97" s="19">
         <v>96</v>
       </c>
       <c r="B97" s="20" t="s">
@@ -6802,7 +6802,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7">
+      <c r="A98" s="19">
         <v>97</v>
       </c>
       <c r="B98" s="20" t="s">
@@ -6822,7 +6822,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
+      <c r="A99" s="19">
         <v>98</v>
       </c>
       <c r="B99" s="20" t="s">
@@ -6842,7 +6842,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7">
+      <c r="A100" s="19">
         <v>99</v>
       </c>
       <c r="B100" s="20" t="s">
@@ -6862,7 +6862,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
+      <c r="A101" s="19">
         <v>100</v>
       </c>
       <c r="B101" s="20" t="s">
@@ -6882,7 +6882,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7">
+      <c r="A102" s="19">
         <v>101</v>
       </c>
       <c r="B102" s="20" t="s">
@@ -6902,10 +6902,10 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7">
+      <c r="A103" s="23">
         <v>102</v>
       </c>
-      <c r="B103" s="24" t="s">
+      <c r="B103" s="23" t="s">
         <v>242</v>
       </c>
       <c r="C103" s="24" t="s">
@@ -6922,10 +6922,10 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="7">
+      <c r="A104" s="23">
         <v>103</v>
       </c>
-      <c r="B104" s="24" t="s">
+      <c r="B104" s="23" t="s">
         <v>238</v>
       </c>
       <c r="C104" s="24" t="s">
@@ -6942,10 +6942,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7">
+      <c r="A105" s="23">
         <v>104</v>
       </c>
-      <c r="B105" s="24" t="s">
+      <c r="B105" s="23" t="s">
         <v>244</v>
       </c>
       <c r="C105" s="24" t="s">
@@ -6962,10 +6962,10 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="7">
+      <c r="A106" s="23">
         <v>105</v>
       </c>
-      <c r="B106" s="24" t="s">
+      <c r="B106" s="23" t="s">
         <v>245</v>
       </c>
       <c r="C106" s="24" t="s">
@@ -6982,10 +6982,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7">
+      <c r="A107" s="23">
         <v>106</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="23" t="s">
         <v>246</v>
       </c>
       <c r="C107" s="24" t="s">
@@ -7002,10 +7002,10 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7">
+      <c r="A108" s="23">
         <v>107</v>
       </c>
-      <c r="B108" s="24" t="s">
+      <c r="B108" s="23" t="s">
         <v>247</v>
       </c>
       <c r="C108" s="24" t="s">
@@ -7022,10 +7022,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7">
+      <c r="A109" s="23">
         <v>108</v>
       </c>
-      <c r="B109" s="24" t="s">
+      <c r="B109" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C109" s="24" t="s">
@@ -7042,10 +7042,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="7">
+      <c r="A110" s="23">
         <v>109</v>
       </c>
-      <c r="B110" s="24" t="s">
+      <c r="B110" s="23" t="s">
         <v>249</v>
       </c>
       <c r="C110" s="24" t="s">
@@ -7062,10 +7062,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7">
+      <c r="A111" s="23">
         <v>110</v>
       </c>
-      <c r="B111" s="24" t="s">
+      <c r="B111" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C111" s="24" t="s">
@@ -7082,10 +7082,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7">
+      <c r="A112" s="23">
         <v>111</v>
       </c>
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="23" t="s">
         <v>113</v>
       </c>
       <c r="C112" s="24" t="s">
@@ -7102,10 +7102,10 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7">
+      <c r="A113" s="23">
         <v>112</v>
       </c>
-      <c r="B113" s="24" t="s">
+      <c r="B113" s="23" t="s">
         <v>251</v>
       </c>
       <c r="C113" s="24" t="s">
@@ -7122,10 +7122,10 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7">
+      <c r="A114" s="23">
         <v>113</v>
       </c>
-      <c r="B114" s="24" t="s">
+      <c r="B114" s="23" t="s">
         <v>243</v>
       </c>
       <c r="C114" s="24" t="s">
@@ -7142,10 +7142,10 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7">
+      <c r="A115" s="23">
         <v>114</v>
       </c>
-      <c r="B115" s="24" t="s">
+      <c r="B115" s="23" t="s">
         <v>252</v>
       </c>
       <c r="C115" s="24" t="s">
@@ -7162,10 +7162,10 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7">
+      <c r="A116" s="23">
         <v>115</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="23" t="s">
         <v>253</v>
       </c>
       <c r="C116" s="24" t="s">
@@ -7182,10 +7182,10 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7">
+      <c r="A117" s="23">
         <v>116</v>
       </c>
-      <c r="B117" s="24" t="s">
+      <c r="B117" s="23" t="s">
         <v>254</v>
       </c>
       <c r="C117" s="24" t="s">
@@ -7202,10 +7202,10 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7">
+      <c r="A118" s="23">
         <v>117</v>
       </c>
-      <c r="B118" s="24" t="s">
+      <c r="B118" s="23" t="s">
         <v>109</v>
       </c>
       <c r="C118" s="24" t="s">
@@ -7222,7 +7222,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7">
+      <c r="A119" s="19">
         <v>118</v>
       </c>
       <c r="B119" s="20" t="s">
@@ -7242,7 +7242,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7">
+      <c r="A120" s="19">
         <v>119</v>
       </c>
       <c r="B120" s="20" t="s">
@@ -7262,7 +7262,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="7">
+      <c r="A121" s="19">
         <v>120</v>
       </c>
       <c r="B121" s="20" t="s">
@@ -7282,7 +7282,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="7">
+      <c r="A122" s="19">
         <v>121</v>
       </c>
       <c r="B122" s="20" t="s">
@@ -7302,7 +7302,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="7">
+      <c r="A123" s="19">
         <v>122</v>
       </c>
       <c r="B123" s="20" t="s">
@@ -7322,7 +7322,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="7">
+      <c r="A124" s="19">
         <v>123</v>
       </c>
       <c r="B124" s="20" t="s">
@@ -7342,7 +7342,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="7">
+      <c r="A125" s="19">
         <v>124</v>
       </c>
       <c r="B125" s="20" t="s">
@@ -7362,7 +7362,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="7">
+      <c r="A126" s="19">
         <v>125</v>
       </c>
       <c r="B126" s="20" t="s">
@@ -7382,7 +7382,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
+      <c r="A127" s="19">
         <v>126</v>
       </c>
       <c r="B127" s="20" t="s">
@@ -7402,7 +7402,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="7">
+      <c r="A128" s="19">
         <v>127</v>
       </c>
       <c r="B128" s="20" t="s">
@@ -7422,7 +7422,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="7">
+      <c r="A129" s="19">
         <v>128</v>
       </c>
       <c r="B129" s="20" t="s">
@@ -7442,7 +7442,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="7">
+      <c r="A130" s="19">
         <v>129</v>
       </c>
       <c r="B130" s="20" t="s">
@@ -7462,7 +7462,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="7">
+      <c r="A131" s="19">
         <v>130</v>
       </c>
       <c r="B131" s="20" t="s">
@@ -7482,7 +7482,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="7">
+      <c r="A132" s="19">
         <v>131</v>
       </c>
       <c r="B132" s="20" t="s">
@@ -7502,7 +7502,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="7">
+      <c r="A133" s="19">
         <v>132</v>
       </c>
       <c r="B133" s="31" t="s">
@@ -7522,7 +7522,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="7">
+      <c r="A134" s="19">
         <v>133</v>
       </c>
       <c r="B134" s="20" t="s">

--- a/Github Issues.xlsx
+++ b/Github Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyb\Desktop\ARP-issues.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F734F4D2-11E8-4CA8-B702-AA950C56D699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB19B870-7B4C-4BB4-9317-B85CAA07BA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6ADBFC8-225E-4F88-98AE-4FFB5B264DE3}"/>
   </bookViews>
@@ -350,10 +350,6 @@
     <t>#2110</t>
   </si>
   <si>
-    <t>#2110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>k9mail/k-9</t>
   </si>
   <si>
@@ -1934,22 +1930,6 @@
       <t>Revising the usage of permission check or request APIs</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Strategy 6: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Coordinating with library developers to remove the SDK version constraints on dangerous permissions</t>
-    </r>
   </si>
   <si>
     <t>Issue Type</t>
@@ -2066,8 +2046,49 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Revising apps’ configuration of the &lt;uses-permission&gt; attributes in their manifest file to counteract the SDK version constraints set by the libraries</t>
+      <t xml:space="preserve"> Revising apps’ configuration of the &lt;uses-permission&gt; attributes in their manifest files to counteract the SDK version constraints set by the libraries</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Strategy 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Coordinating with library developers to remove the SDK version constraints on dangerous permissions</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2270,7 +2291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2307,15 +2328,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2339,6 +2351,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2672,2038 +2690,2038 @@
   <dimension ref="A1:A663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="149.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+    <row r="22" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
     </row>
   </sheetData>
@@ -4717,8 +4735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0D53C4-C210-4176-8EEA-224DB90158C3}">
   <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4735,300 +4753,300 @@
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>474</v>
+      <c r="B1" s="21" t="s">
+        <v>472</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="16" t="s">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="E4" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="B15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
-        <v>13</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5036,19 +5054,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5056,19 +5074,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="D17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5076,19 +5094,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5096,19 +5114,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5116,19 +5134,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5136,19 +5154,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5156,19 +5174,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5176,19 +5194,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5196,19 +5214,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5216,19 +5234,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5236,19 +5254,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5256,19 +5274,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5276,19 +5294,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5296,19 +5314,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5316,19 +5334,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="D30" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5336,19 +5354,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5356,19 +5374,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5376,19 +5394,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5396,19 +5414,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5416,19 +5434,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5436,19 +5454,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="D36" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5456,19 +5474,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="D37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5476,19 +5494,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="D38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5496,19 +5514,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="D39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5516,19 +5534,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="D40" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5536,19 +5554,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5556,19 +5574,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="D42" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5576,19 +5594,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="D43" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5596,19 +5614,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5616,119 +5634,119 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>438</v>
-      </c>
     </row>
     <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F46" s="17" t="s">
+      <c r="C47" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
-        <v>46</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F47" s="17" t="s">
+    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
-        <v>47</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="16" t="s">
+    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F48" s="17" t="s">
+      <c r="C49" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F49" s="14" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
-        <v>48</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="16" t="s">
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F49" s="17" t="s">
+      <c r="C50" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F50" s="14" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15">
-        <v>49</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5736,19 +5754,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5756,19 +5774,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="D52" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5776,259 +5794,259 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="D53" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15">
-        <v>53</v>
-      </c>
-      <c r="B54" s="16" t="s">
+      <c r="F54" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C57" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F54" s="17" t="s">
+      <c r="D57" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F57" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
-        <v>54</v>
-      </c>
-      <c r="B55" s="16" t="s">
+    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C58" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F55" s="17" t="s">
+      <c r="D58" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F58" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15">
-        <v>55</v>
-      </c>
-      <c r="B56" s="16" t="s">
+    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12">
+        <v>59</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="12">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C62" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D56" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15">
-        <v>56</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15">
-        <v>57</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15">
-        <v>58</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15">
-        <v>59</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15">
-        <v>60</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F61" s="17" t="s">
+      <c r="D62" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F62" s="14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15">
-        <v>61</v>
-      </c>
-      <c r="B62" s="16" t="s">
+    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="12">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F63" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C62" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F62" s="17" t="s">
+    </row>
+    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="12">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F64" s="14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15">
-        <v>62</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63" s="16" t="s">
+    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="12">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D63" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15">
-        <v>63</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F64" s="17" t="s">
+      <c r="D65" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F65" s="14" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15">
-        <v>64</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6036,19 +6054,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>197</v>
-      </c>
       <c r="D66" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6056,19 +6074,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="D67" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6076,19 +6094,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="D68" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6096,19 +6114,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="D69" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E69" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6116,519 +6134,519 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>445</v>
-      </c>
     </row>
     <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="15">
+      <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="12">
+        <v>71</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12">
+        <v>72</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="12">
+        <v>73</v>
+      </c>
+      <c r="B74" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C74" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="D71" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15">
-        <v>71</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15">
-        <v>72</v>
-      </c>
-      <c r="B73" s="16" t="s">
+      <c r="D74" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="12">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="12">
+        <v>77</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="12">
+        <v>78</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="12">
+        <v>79</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="12">
+        <v>80</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="12">
+        <v>81</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="12">
+        <v>82</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="12">
+        <v>83</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="12">
+        <v>84</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="12">
+        <v>85</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="12">
+        <v>86</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="12">
+        <v>87</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="12">
+        <v>88</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F89" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="C73" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15">
-        <v>73</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15">
-        <v>74</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15">
-        <v>75</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15">
-        <v>76</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="15">
-        <v>77</v>
-      </c>
-      <c r="B78" s="16" t="s">
+    </row>
+    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="12">
+        <v>89</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="12">
+        <v>90</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="12">
+        <v>91</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="12">
+        <v>92</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="12">
+        <v>93</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="12">
+        <v>94</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C95" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="D78" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F78" s="17" t="s">
+      <c r="D95" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F95" s="14" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="15">
-        <v>78</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="15">
-        <v>79</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="15">
-        <v>80</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="15">
-        <v>81</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15">
-        <v>82</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="15">
-        <v>83</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="15">
-        <v>84</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F85" s="17" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="15">
-        <v>85</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F86" s="17" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="15">
-        <v>86</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F87" s="17" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="15">
-        <v>87</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F88" s="17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="15">
-        <v>88</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F89" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="15">
-        <v>89</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F90" s="17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="15">
-        <v>90</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F91" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="15">
-        <v>91</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F92" s="17" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="15">
-        <v>92</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F93" s="17" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="15">
-        <v>93</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F94" s="17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="15">
-        <v>94</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F95" s="17" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6636,19 +6654,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D96" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F96" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6656,19 +6674,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6676,19 +6694,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6696,19 +6714,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6716,19 +6734,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6736,19 +6754,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>427</v>
-      </c>
       <c r="D101" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6756,339 +6774,339 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="15">
+      <c r="A103" s="12">
         <v>102</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="12">
+        <v>103</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="12">
+        <v>104</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="12">
+        <v>105</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="12">
+        <v>106</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="12">
+        <v>107</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="12">
+        <v>108</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="12">
+        <v>109</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="12">
+        <v>110</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="12">
+        <v>111</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="12">
+        <v>112</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="12">
+        <v>113</v>
+      </c>
+      <c r="B114" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C103" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F103" s="17" t="s">
+      <c r="C114" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F114" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="15">
-        <v>103</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F104" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="15">
-        <v>104</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E105" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="15">
-        <v>105</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C106" s="16" t="s">
+    <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="12">
+        <v>114</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="12">
+        <v>115</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="D106" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F106" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="15">
-        <v>106</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="15">
+      <c r="D116" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="12">
+        <v>116</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="12">
+        <v>117</v>
+      </c>
+      <c r="B118" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C108" s="16" t="s">
+      <c r="C118" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="D108" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F108" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="15">
-        <v>108</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F109" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="15">
-        <v>109</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F110" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="15">
-        <v>110</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F111" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="15">
-        <v>111</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F112" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="15">
-        <v>112</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F113" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="15">
-        <v>113</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F114" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="15">
-        <v>114</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F115" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="15">
-        <v>115</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="15">
-        <v>116</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F117" s="17" t="s">
+      <c r="D118" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F118" s="14" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="15">
-        <v>117</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F118" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7102,10 +7120,10 @@
         <v>282</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>266</v>
@@ -7122,10 +7140,10 @@
         <v>283</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>267</v>
@@ -7142,13 +7160,13 @@
         <v>284</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7162,13 +7180,13 @@
         <v>285</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7182,10 +7200,10 @@
         <v>286</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>269</v>
@@ -7202,10 +7220,10 @@
         <v>287</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>270</v>
@@ -7222,10 +7240,10 @@
         <v>288</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>271</v>
@@ -7242,10 +7260,10 @@
         <v>289</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>272</v>
@@ -7256,19 +7274,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7276,19 +7294,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7296,39 +7314,39 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>129</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>306</v>
+      <c r="B130" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>288</v>
+        <v>431</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7336,19 +7354,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>435</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7356,39 +7374,39 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>435</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>132</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>310</v>
+      <c r="B133" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>432</v>
+        <v>281</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>435</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7396,499 +7414,499 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="15">
+      <c r="A135" s="12">
         <v>134</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="12">
+        <v>135</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="12">
+        <v>136</v>
+      </c>
+      <c r="B137" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C137" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="D135" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F135" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="15">
-        <v>135</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C136" s="16" t="s">
+      <c r="D137" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F137" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="D136" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E136" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F136" s="17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="15">
-        <v>136</v>
-      </c>
-      <c r="B137" s="16" t="s">
+    </row>
+    <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="12">
+        <v>137</v>
+      </c>
+      <c r="B138" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C137" s="16" t="s">
+      <c r="C138" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D137" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E137" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F137" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="15">
-        <v>137</v>
-      </c>
-      <c r="B138" s="16" t="s">
+      <c r="D138" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="12">
+        <v>138</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="12">
+        <v>139</v>
+      </c>
+      <c r="B140" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C138" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="D138" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E138" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F138" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="15">
-        <v>138</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C139" s="16" t="s">
+      <c r="C140" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="D139" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E139" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F139" s="17" t="s">
+      <c r="D140" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F140" s="14" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="15">
+    <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="12">
+        <v>140</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="12">
+        <v>141</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="12">
+        <v>142</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="12">
+        <v>143</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="12">
+        <v>144</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="12">
+        <v>145</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="12">
+        <v>146</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="12">
+        <v>147</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="12">
+        <v>148</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="12">
+        <v>149</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="12">
+        <v>150</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="D140" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E140" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F140" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="15">
-        <v>140</v>
-      </c>
-      <c r="B141" s="16" t="s">
+      <c r="C151" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="12">
+        <v>151</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="12">
+        <v>152</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="12">
+        <v>153</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="12">
+        <v>154</v>
+      </c>
+      <c r="B155" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="C141" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D141" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E141" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F141" s="17" t="s">
+      <c r="C155" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F155" s="14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="15">
-        <v>141</v>
-      </c>
-      <c r="B142" s="16" t="s">
+    <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="12">
+        <v>155</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D156" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C142" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E142" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F142" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="15">
-        <v>142</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D143" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E143" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F143" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="15">
-        <v>143</v>
-      </c>
-      <c r="B144" s="16" t="s">
+      <c r="E156" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="12">
+        <v>156</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="12">
+        <v>157</v>
+      </c>
+      <c r="B158" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="C144" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D144" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E144" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F144" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="15">
-        <v>144</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="D145" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E145" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F145" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="15">
-        <v>145</v>
-      </c>
-      <c r="B146" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="D146" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E146" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F146" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="15">
-        <v>146</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E147" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F147" s="17" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="15">
-        <v>147</v>
-      </c>
-      <c r="B148" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="D148" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E148" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F148" s="17" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="15">
-        <v>148</v>
-      </c>
-      <c r="B149" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="D149" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E149" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F149" s="17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="15">
-        <v>149</v>
-      </c>
-      <c r="B150" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E150" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F150" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="15">
-        <v>150</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E151" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F151" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="15">
-        <v>151</v>
-      </c>
-      <c r="B152" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E152" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F152" s="17" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="15">
-        <v>152</v>
-      </c>
-      <c r="B153" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C153" s="16" t="s">
+      <c r="C158" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D153" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F153" s="17" t="s">
+      <c r="D158" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F158" s="14" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="15">
-        <v>153</v>
-      </c>
-      <c r="B154" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E154" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F154" s="17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="15">
-        <v>154</v>
-      </c>
-      <c r="B155" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E155" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F155" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="15">
-        <v>155</v>
-      </c>
-      <c r="B156" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D156" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E156" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F156" s="17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="15">
-        <v>156</v>
-      </c>
-      <c r="B157" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E157" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F157" s="17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="15">
-        <v>157</v>
-      </c>
-      <c r="B158" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="D158" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E158" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F158" s="17" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8003,74 +8021,74 @@
     <hyperlink ref="F117" r:id="rId87" tooltip="https://github.com/line/line-sdk-android/issues/27" xr:uid="{A94B1D1B-6E44-47AC-B376-B40725A15AE1}"/>
     <hyperlink ref="F118" r:id="rId88" tooltip="https://github.com/scottyab/secure-preferences/issues/88" xr:uid="{A2EB8418-3013-44DB-B8E3-A607982FCCD8}"/>
     <hyperlink ref="F107" r:id="rId89" xr:uid="{5C0D8E00-A3E9-4854-8DA3-F6D52961C6E9}"/>
-    <hyperlink ref="F119" r:id="rId90" tooltip="https://github.com/Tamsiree/RxTool/issues/109" xr:uid="{0A5C4E84-9756-41F5-AF3F-B113D089B270}"/>
-    <hyperlink ref="F120" r:id="rId91" tooltip="https://github.com/AppLovin/Android-SDK-Demo/issues/42" xr:uid="{24EE10E4-ECD8-46CA-88A1-86A2227A7848}"/>
-    <hyperlink ref="F121" r:id="rId92" tooltip="https://github.com/square/leakcanary/issues/984" xr:uid="{54365BB6-A8D6-4ACB-9057-5DAA97032161}"/>
-    <hyperlink ref="F122" r:id="rId93" xr:uid="{2E78E1B0-240E-488E-8B3A-2C0917ABDD93}"/>
-    <hyperlink ref="F123" r:id="rId94" tooltip="https://github.com/bitstadium/HockeySDK-Xamarin/issues/115" xr:uid="{19566EAA-8D7E-4C04-9C45-A95DAD7D9064}"/>
-    <hyperlink ref="F124" r:id="rId95" xr:uid="{C0D5268C-1ECA-432C-91A0-EDA385F7D6B2}"/>
-    <hyperlink ref="F125" r:id="rId96" tooltip="https://github.com/bitstadium/HockeySDK-Android/issues/176" xr:uid="{2E7F12D4-D366-49A0-872B-A987B79890CB}"/>
-    <hyperlink ref="F126" r:id="rId97" xr:uid="{32CE9311-E3AA-4F6F-BC54-25E8394B8100}"/>
-    <hyperlink ref="F127" r:id="rId98" tooltip="https://github.com/Applifier/unity-ads/pull/51" xr:uid="{9D2E30FC-162B-4434-A3B9-3602CBDC4A14}"/>
-    <hyperlink ref="F128" r:id="rId99" xr:uid="{844DFD88-E119-4EAC-A069-9BC48FBBB3DE}"/>
-    <hyperlink ref="F129" r:id="rId100" tooltip="https://github.com/bitstadium/HockeySDK-Android/issues/351" xr:uid="{20AA305C-86C8-48B8-9DCB-A80E2A6FF787}"/>
-    <hyperlink ref="F130" r:id="rId101" xr:uid="{28332322-B27C-4CFF-A1C3-E94E9954A876}"/>
-    <hyperlink ref="F134" r:id="rId102" xr:uid="{6A7D1152-5F33-4988-9E97-FA3D375BA857}"/>
-    <hyperlink ref="F131" r:id="rId103" tooltip="https://github.com/RedApparat/FaceDetector/issues/33" xr:uid="{6A8399DA-5416-41FD-9BE7-C90FF9DA36F4}"/>
-    <hyperlink ref="F132" r:id="rId104" tooltip="https://github.com/apptentive/apptentive-android/issues/168" xr:uid="{7E756C3F-56AF-4CD2-8215-7CD6FFAC8922}"/>
-    <hyperlink ref="F133" r:id="rId105" xr:uid="{510F6483-2F17-414B-93C8-954C829F3321}"/>
-    <hyperlink ref="F135" r:id="rId106" xr:uid="{CDC9434F-1418-40F8-9A0E-D00DE8C2C8F6}"/>
-    <hyperlink ref="F136" r:id="rId107" xr:uid="{804D3370-85B1-4514-A01C-F2F73B9A3C2A}"/>
-    <hyperlink ref="F137" r:id="rId108" xr:uid="{8C988ED7-D28F-4EAE-80DF-4488D7853F32}"/>
-    <hyperlink ref="F138" r:id="rId109" xr:uid="{FA05BF77-DF93-4C58-83DE-C5E550D20B0B}"/>
-    <hyperlink ref="F139" r:id="rId110" tooltip="https://github.com/broakenmedia/MultiContactPicker/issues/3" xr:uid="{6B29F405-FFD3-422D-9A58-95C346C4FB58}"/>
-    <hyperlink ref="F140" r:id="rId111" xr:uid="{26A76049-D702-4EDE-89CB-E40FC8AF80AC}"/>
-    <hyperlink ref="F141" r:id="rId112" tooltip="https://github.com/LuckSiege/PictureSelector/issues/189" xr:uid="{87AD6884-D48F-4F7C-A792-3B702E4DAD4B}"/>
-    <hyperlink ref="F142" r:id="rId113" xr:uid="{0E7759F5-FF8B-448E-8367-56074A4E8388}"/>
-    <hyperlink ref="F155" r:id="rId114" xr:uid="{5EF27FAC-BAFF-423C-9F1C-965C47C3BEED}"/>
-    <hyperlink ref="F156" r:id="rId115" xr:uid="{66BF3499-D9F2-4400-8360-52EAA3568045}"/>
-    <hyperlink ref="F143" r:id="rId116" xr:uid="{7E680D78-DE46-473C-8DA8-81A43FA4C181}"/>
-    <hyperlink ref="F144" r:id="rId117" xr:uid="{04CA3D48-91B6-48F2-9E55-D829A9BBC6E2}"/>
-    <hyperlink ref="F145" r:id="rId118" xr:uid="{2ADD2B63-1F22-4774-B44A-F3760CDC6ACE}"/>
-    <hyperlink ref="F146" r:id="rId119" xr:uid="{0662980E-76F9-404D-9516-2C937B9D6DFA}"/>
-    <hyperlink ref="F147" r:id="rId120" xr:uid="{328E488E-EFA8-4843-80F7-96581665B782}"/>
-    <hyperlink ref="F157" r:id="rId121" xr:uid="{27607877-6C0C-4C80-B1EC-3D757FA00CAB}"/>
-    <hyperlink ref="F149" r:id="rId122" xr:uid="{771A28B4-FB6B-484F-B20C-37D71B685B1E}"/>
-    <hyperlink ref="F150" r:id="rId123" tooltip="https://github.com/dlazaro66/QRCodeReaderView/issues/129" xr:uid="{5E532925-5182-4C7A-A274-8483CD7BB7DC}"/>
-    <hyperlink ref="F151" r:id="rId124" xr:uid="{452474C7-E4DB-48F9-BE1B-5221B9EE1576}"/>
-    <hyperlink ref="F152" r:id="rId125" xr:uid="{A1C6F64F-20B3-48B6-A18A-1851AA40A576}"/>
-    <hyperlink ref="F153" r:id="rId126" xr:uid="{EBEB2864-E2DA-4362-8C6C-87DA5F9B2544}"/>
-    <hyperlink ref="F158" r:id="rId127" xr:uid="{FA75B0FF-0C10-4BC3-827A-9032CBE3FEB3}"/>
-    <hyperlink ref="F154" r:id="rId128" tooltip="https://github.com/yuriy-budiyev/code-scanner/issues/76" xr:uid="{87DB9B4E-AB7A-46DC-AD44-1B7100C92FCF}"/>
-    <hyperlink ref="F148" r:id="rId129" xr:uid="{4660277C-2106-4F25-9536-DFF35BBB2F54}"/>
-    <hyperlink ref="F71" r:id="rId130" xr:uid="{F50B0B7D-64BE-4986-98D5-DCC67C77A8B7}"/>
-    <hyperlink ref="F72" r:id="rId131" xr:uid="{7A137461-E822-4644-94CC-059045341F67}"/>
-    <hyperlink ref="F91" r:id="rId132" tooltip="https://github.com//commons-app/apps-android-commons/pull/1855" xr:uid="{5943BDEF-3011-428B-9A89-AE7FCCD51CAC}"/>
-    <hyperlink ref="F92" r:id="rId133" tooltip="https://github.com//openfoodfacts/openfoodfacts-androidapp/pull/977" xr:uid="{C8966B9B-8404-49D4-AB00-8BD6BE8D6FDF}"/>
-    <hyperlink ref="F93" r:id="rId134" tooltip="https://github.com/wbaumann/SmartReceiptsLibrary/pull/175" xr:uid="{A0C7F0C8-42DA-4052-8FEF-9D72CBF28CAB}"/>
-    <hyperlink ref="F88" r:id="rId135" xr:uid="{4B009A1E-C875-4F19-8BE9-365B6C79C078}"/>
-    <hyperlink ref="F89" r:id="rId136" xr:uid="{FB1A998D-3C6A-4F27-BBFE-7AFBA4C5FCF3}"/>
-    <hyperlink ref="F90" r:id="rId137" xr:uid="{AB663385-D117-40B4-BC3D-F4FE10425825}"/>
-    <hyperlink ref="F74" r:id="rId138" tooltip="https://github.com//Telegram-FOSS-Team/Telegram-FOSS/issues/39" xr:uid="{DD32EB4D-A96B-4B43-B695-C91F18C54672}"/>
-    <hyperlink ref="F75" r:id="rId139" tooltip="https://github.com//open-keychain/open-keychain/issues/1571" xr:uid="{6258DD84-8ADC-4C14-B027-EF1CB1B48462}"/>
-    <hyperlink ref="F78" r:id="rId140" tooltip="https://github.com/microg/IchnaeaNlpBackend/issues/19" xr:uid="{BF2632BD-6F04-4B50-9FD8-FC4C6E8E8158}"/>
-    <hyperlink ref="F77" r:id="rId141" tooltip="https://github.com/erickok/transdroid/issues/258" xr:uid="{E008ACAF-DC86-403A-B1C8-A8E8E80C9722}"/>
-    <hyperlink ref="F94" r:id="rId142" xr:uid="{93677AC7-C48D-4D90-BD6C-AF480172C948}"/>
-    <hyperlink ref="F85" r:id="rId143" tooltip="https://github.com/Etar-Group/Etar-Calendar/issues/75" xr:uid="{E12CDC10-1A03-41CC-8F4D-CA07C5009700}"/>
-    <hyperlink ref="F76" r:id="rId144" xr:uid="{36B5799C-6DA1-427B-B6B2-6D11318BF792}"/>
-    <hyperlink ref="F95" r:id="rId145" xr:uid="{C2FA1E08-3CA0-4685-9DB0-62D07AE478FD}"/>
-    <hyperlink ref="F79" r:id="rId146" xr:uid="{A9B61412-60E4-489F-8051-796903BA68D9}"/>
-    <hyperlink ref="F81" r:id="rId147" xr:uid="{58AFFE23-E20F-48DD-AFAC-15CEBD24C3F6}"/>
-    <hyperlink ref="F82" r:id="rId148" xr:uid="{348BE251-FBE4-4B14-9C9C-E266EA2F8CA9}"/>
-    <hyperlink ref="F83" r:id="rId149" xr:uid="{B800AF4D-7A72-487C-A418-308CEE8BD26E}"/>
-    <hyperlink ref="F84" r:id="rId150" xr:uid="{C6B3ED6F-3EB5-4AF9-9758-77F730110C26}"/>
-    <hyperlink ref="F87" r:id="rId151" xr:uid="{80796F83-AF18-4594-A8DC-AC064D000A93}"/>
-    <hyperlink ref="F80" r:id="rId152" xr:uid="{C872901B-29CF-43E2-AB22-D518D7C52FD5}"/>
-    <hyperlink ref="F86" r:id="rId153" xr:uid="{26C4F972-2F33-4DB6-8E94-DE818D7DDF2B}"/>
-    <hyperlink ref="F101" r:id="rId154" xr:uid="{A8E12036-54B1-42B1-B238-D81B554F7F41}"/>
-    <hyperlink ref="F102" r:id="rId155" xr:uid="{AB5ED15A-BC1E-4BF8-868B-573F9C843DE2}"/>
-    <hyperlink ref="F57" r:id="rId156" tooltip="https://github.com/hedzr/android-file-chooser/issues/73" xr:uid="{CA501C01-5AE7-458F-B30F-AC8247434ACA}"/>
-    <hyperlink ref="F73" r:id="rId157" xr:uid="{0A3CF3DF-23A2-4880-AAEE-ACC14F735002}"/>
+    <hyperlink ref="F133" r:id="rId90" tooltip="https://github.com/Tamsiree/RxTool/issues/109" xr:uid="{0A5C4E84-9756-41F5-AF3F-B113D089B270}"/>
+    <hyperlink ref="F119" r:id="rId91" tooltip="https://github.com/AppLovin/Android-SDK-Demo/issues/42" xr:uid="{24EE10E4-ECD8-46CA-88A1-86A2227A7848}"/>
+    <hyperlink ref="F120" r:id="rId92" tooltip="https://github.com/square/leakcanary/issues/984" xr:uid="{54365BB6-A8D6-4ACB-9057-5DAA97032161}"/>
+    <hyperlink ref="F121" r:id="rId93" xr:uid="{2E78E1B0-240E-488E-8B3A-2C0917ABDD93}"/>
+    <hyperlink ref="F122" r:id="rId94" tooltip="https://github.com/bitstadium/HockeySDK-Xamarin/issues/115" xr:uid="{19566EAA-8D7E-4C04-9C45-A95DAD7D9064}"/>
+    <hyperlink ref="F123" r:id="rId95" xr:uid="{C0D5268C-1ECA-432C-91A0-EDA385F7D6B2}"/>
+    <hyperlink ref="F124" r:id="rId96" tooltip="https://github.com/bitstadium/HockeySDK-Android/issues/176" xr:uid="{2E7F12D4-D366-49A0-872B-A987B79890CB}"/>
+    <hyperlink ref="F125" r:id="rId97" xr:uid="{32CE9311-E3AA-4F6F-BC54-25E8394B8100}"/>
+    <hyperlink ref="F126" r:id="rId98" tooltip="https://github.com/Applifier/unity-ads/pull/51" xr:uid="{9D2E30FC-162B-4434-A3B9-3602CBDC4A14}"/>
+    <hyperlink ref="F127" r:id="rId99" tooltip="https://github.com/bitstadium/HockeySDK-Android/issues/351" xr:uid="{20AA305C-86C8-48B8-9DCB-A80E2A6FF787}"/>
+    <hyperlink ref="F131" r:id="rId100" xr:uid="{28332322-B27C-4CFF-A1C3-E94E9954A876}"/>
+    <hyperlink ref="F134" r:id="rId101" xr:uid="{6A7D1152-5F33-4988-9E97-FA3D375BA857}"/>
+    <hyperlink ref="F128" r:id="rId102" tooltip="https://github.com/RedApparat/FaceDetector/issues/33" xr:uid="{6A8399DA-5416-41FD-9BE7-C90FF9DA36F4}"/>
+    <hyperlink ref="F129" r:id="rId103" tooltip="https://github.com/apptentive/apptentive-android/issues/168" xr:uid="{7E756C3F-56AF-4CD2-8215-7CD6FFAC8922}"/>
+    <hyperlink ref="F130" r:id="rId104" xr:uid="{510F6483-2F17-414B-93C8-954C829F3321}"/>
+    <hyperlink ref="F135" r:id="rId105" xr:uid="{CDC9434F-1418-40F8-9A0E-D00DE8C2C8F6}"/>
+    <hyperlink ref="F136" r:id="rId106" xr:uid="{804D3370-85B1-4514-A01C-F2F73B9A3C2A}"/>
+    <hyperlink ref="F137" r:id="rId107" xr:uid="{8C988ED7-D28F-4EAE-80DF-4488D7853F32}"/>
+    <hyperlink ref="F138" r:id="rId108" xr:uid="{FA05BF77-DF93-4C58-83DE-C5E550D20B0B}"/>
+    <hyperlink ref="F139" r:id="rId109" tooltip="https://github.com/broakenmedia/MultiContactPicker/issues/3" xr:uid="{6B29F405-FFD3-422D-9A58-95C346C4FB58}"/>
+    <hyperlink ref="F140" r:id="rId110" xr:uid="{26A76049-D702-4EDE-89CB-E40FC8AF80AC}"/>
+    <hyperlink ref="F141" r:id="rId111" tooltip="https://github.com/LuckSiege/PictureSelector/issues/189" xr:uid="{87AD6884-D48F-4F7C-A792-3B702E4DAD4B}"/>
+    <hyperlink ref="F142" r:id="rId112" xr:uid="{0E7759F5-FF8B-448E-8367-56074A4E8388}"/>
+    <hyperlink ref="F155" r:id="rId113" xr:uid="{5EF27FAC-BAFF-423C-9F1C-965C47C3BEED}"/>
+    <hyperlink ref="F156" r:id="rId114" xr:uid="{66BF3499-D9F2-4400-8360-52EAA3568045}"/>
+    <hyperlink ref="F143" r:id="rId115" xr:uid="{7E680D78-DE46-473C-8DA8-81A43FA4C181}"/>
+    <hyperlink ref="F144" r:id="rId116" xr:uid="{04CA3D48-91B6-48F2-9E55-D829A9BBC6E2}"/>
+    <hyperlink ref="F145" r:id="rId117" xr:uid="{2ADD2B63-1F22-4774-B44A-F3760CDC6ACE}"/>
+    <hyperlink ref="F146" r:id="rId118" xr:uid="{0662980E-76F9-404D-9516-2C937B9D6DFA}"/>
+    <hyperlink ref="F147" r:id="rId119" xr:uid="{328E488E-EFA8-4843-80F7-96581665B782}"/>
+    <hyperlink ref="F157" r:id="rId120" xr:uid="{27607877-6C0C-4C80-B1EC-3D757FA00CAB}"/>
+    <hyperlink ref="F149" r:id="rId121" xr:uid="{771A28B4-FB6B-484F-B20C-37D71B685B1E}"/>
+    <hyperlink ref="F150" r:id="rId122" tooltip="https://github.com/dlazaro66/QRCodeReaderView/issues/129" xr:uid="{5E532925-5182-4C7A-A274-8483CD7BB7DC}"/>
+    <hyperlink ref="F151" r:id="rId123" xr:uid="{452474C7-E4DB-48F9-BE1B-5221B9EE1576}"/>
+    <hyperlink ref="F152" r:id="rId124" xr:uid="{A1C6F64F-20B3-48B6-A18A-1851AA40A576}"/>
+    <hyperlink ref="F153" r:id="rId125" xr:uid="{EBEB2864-E2DA-4362-8C6C-87DA5F9B2544}"/>
+    <hyperlink ref="F158" r:id="rId126" xr:uid="{FA75B0FF-0C10-4BC3-827A-9032CBE3FEB3}"/>
+    <hyperlink ref="F154" r:id="rId127" tooltip="https://github.com/yuriy-budiyev/code-scanner/issues/76" xr:uid="{87DB9B4E-AB7A-46DC-AD44-1B7100C92FCF}"/>
+    <hyperlink ref="F148" r:id="rId128" xr:uid="{4660277C-2106-4F25-9536-DFF35BBB2F54}"/>
+    <hyperlink ref="F71" r:id="rId129" xr:uid="{F50B0B7D-64BE-4986-98D5-DCC67C77A8B7}"/>
+    <hyperlink ref="F72" r:id="rId130" xr:uid="{7A137461-E822-4644-94CC-059045341F67}"/>
+    <hyperlink ref="F91" r:id="rId131" tooltip="https://github.com//commons-app/apps-android-commons/pull/1855" xr:uid="{5943BDEF-3011-428B-9A89-AE7FCCD51CAC}"/>
+    <hyperlink ref="F92" r:id="rId132" tooltip="https://github.com//openfoodfacts/openfoodfacts-androidapp/pull/977" xr:uid="{C8966B9B-8404-49D4-AB00-8BD6BE8D6FDF}"/>
+    <hyperlink ref="F93" r:id="rId133" tooltip="https://github.com/wbaumann/SmartReceiptsLibrary/pull/175" xr:uid="{A0C7F0C8-42DA-4052-8FEF-9D72CBF28CAB}"/>
+    <hyperlink ref="F88" r:id="rId134" xr:uid="{4B009A1E-C875-4F19-8BE9-365B6C79C078}"/>
+    <hyperlink ref="F89" r:id="rId135" xr:uid="{FB1A998D-3C6A-4F27-BBFE-7AFBA4C5FCF3}"/>
+    <hyperlink ref="F90" r:id="rId136" xr:uid="{AB663385-D117-40B4-BC3D-F4FE10425825}"/>
+    <hyperlink ref="F74" r:id="rId137" tooltip="https://github.com//Telegram-FOSS-Team/Telegram-FOSS/issues/39" xr:uid="{DD32EB4D-A96B-4B43-B695-C91F18C54672}"/>
+    <hyperlink ref="F75" r:id="rId138" tooltip="https://github.com//open-keychain/open-keychain/issues/1571" xr:uid="{6258DD84-8ADC-4C14-B027-EF1CB1B48462}"/>
+    <hyperlink ref="F78" r:id="rId139" tooltip="https://github.com/microg/IchnaeaNlpBackend/issues/19" xr:uid="{BF2632BD-6F04-4B50-9FD8-FC4C6E8E8158}"/>
+    <hyperlink ref="F77" r:id="rId140" tooltip="https://github.com/erickok/transdroid/issues/258" xr:uid="{E008ACAF-DC86-403A-B1C8-A8E8E80C9722}"/>
+    <hyperlink ref="F94" r:id="rId141" xr:uid="{93677AC7-C48D-4D90-BD6C-AF480172C948}"/>
+    <hyperlink ref="F85" r:id="rId142" tooltip="https://github.com/Etar-Group/Etar-Calendar/issues/75" xr:uid="{E12CDC10-1A03-41CC-8F4D-CA07C5009700}"/>
+    <hyperlink ref="F76" r:id="rId143" xr:uid="{36B5799C-6DA1-427B-B6B2-6D11318BF792}"/>
+    <hyperlink ref="F95" r:id="rId144" xr:uid="{C2FA1E08-3CA0-4685-9DB0-62D07AE478FD}"/>
+    <hyperlink ref="F79" r:id="rId145" xr:uid="{A9B61412-60E4-489F-8051-796903BA68D9}"/>
+    <hyperlink ref="F81" r:id="rId146" xr:uid="{58AFFE23-E20F-48DD-AFAC-15CEBD24C3F6}"/>
+    <hyperlink ref="F82" r:id="rId147" xr:uid="{348BE251-FBE4-4B14-9C9C-E266EA2F8CA9}"/>
+    <hyperlink ref="F83" r:id="rId148" xr:uid="{B800AF4D-7A72-487C-A418-308CEE8BD26E}"/>
+    <hyperlink ref="F84" r:id="rId149" xr:uid="{C6B3ED6F-3EB5-4AF9-9758-77F730110C26}"/>
+    <hyperlink ref="F87" r:id="rId150" xr:uid="{80796F83-AF18-4594-A8DC-AC064D000A93}"/>
+    <hyperlink ref="F80" r:id="rId151" xr:uid="{C872901B-29CF-43E2-AB22-D518D7C52FD5}"/>
+    <hyperlink ref="F86" r:id="rId152" xr:uid="{26C4F972-2F33-4DB6-8E94-DE818D7DDF2B}"/>
+    <hyperlink ref="F101" r:id="rId153" xr:uid="{A8E12036-54B1-42B1-B238-D81B554F7F41}"/>
+    <hyperlink ref="F102" r:id="rId154" xr:uid="{AB5ED15A-BC1E-4BF8-868B-573F9C843DE2}"/>
+    <hyperlink ref="F57" r:id="rId155" tooltip="https://github.com/hedzr/android-file-chooser/issues/73" xr:uid="{CA501C01-5AE7-458F-B30F-AC8247434ACA}"/>
+    <hyperlink ref="F73" r:id="rId156" xr:uid="{0A3CF3DF-23A2-4880-AAEE-ACC14F735002}"/>
+    <hyperlink ref="F132" r:id="rId157" xr:uid="{844DFD88-E119-4EAC-A069-9BC48FBBB3DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId158"/>

--- a/Github Issues.xlsx
+++ b/Github Issues.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyb\Desktop\ARP-issues.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB19B870-7B4C-4BB4-9317-B85CAA07BA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB14ECC-0C10-4EA5-A52A-1D90C796B938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6ADBFC8-225E-4F88-98AE-4FFB5B264DE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A6ADBFC8-225E-4F88-98AE-4FFB5B264DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Issues!$A$1:$F$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Issues!$C$1:$C$178</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="484">
   <si>
     <t>Non-library-interfered  issues</t>
   </si>
@@ -272,56 +272,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Type 9:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Conflicting targetSdkVersion settings in &lt;uses-sdk&gt; attributes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Type 10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Libraries setting maxSdkVersion in &lt;uses-permission&gt; attributes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Type 11:</t>
     </r>
     <r>
@@ -372,10 +322,6 @@
     <t>commons-app/apps-android-commons</t>
   </si>
   <si>
-    <t>https://github.com/owncloud/android/issues/1343</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#1343</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,14 +429,6 @@
     <t>SafeSlingerProject/SafeSlinger-Android</t>
   </si>
   <si>
-    <t>https://github.com/commons-app/apps-android-commons/issues/164</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#164</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/erickok/transdroid/issues/463</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -800,10 +738,6 @@
     <t>fishwjy/MultiType-FilePicker</t>
   </si>
   <si>
-    <t>#59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Buglife/buglife-android</t>
   </si>
   <si>
@@ -1080,15 +1014,9 @@
     <t>https://github.com//Yalantis/uCrop/issues/543</t>
   </si>
   <si>
-    <t>https://github.com//Karumi/Dexter/issues/240</t>
-  </si>
-  <si>
     <t>https://github.com/Yalantis/uCrop/issues/570</t>
   </si>
   <si>
-    <t>https://github.com/react-native-community/react-native-device-info/issues/268</t>
-  </si>
-  <si>
     <t>https://github.com/scottyab/secure-preferences/issues/72</t>
   </si>
   <si>
@@ -1141,18 +1069,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#570</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#268</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#72</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1222,24 +1142,9 @@
     <t>https://github.com/Tamsiree/RxTool/issues/109</t>
   </si>
   <si>
-    <t>https://github.com/AppLovin/Android-SDK-Demo/issues/42</t>
-  </si>
-  <si>
-    <t>https://github.com/square/leakcanary/issues/984</t>
-  </si>
-  <si>
     <t>https://github.com/bitstadium/HockeySDK-Xamarin/issues/115</t>
   </si>
   <si>
-    <t>https://github.com/facebook/buck/issues/1039</t>
-  </si>
-  <si>
-    <t>https://github.com/bitstadium/HockeySDK-Android/issues/176</t>
-  </si>
-  <si>
-    <t>https://github.com/lingochamp/FileDownloader/issues/322</t>
-  </si>
-  <si>
     <t>https://github.com/Applifier/unity-ads/pull/51</t>
   </si>
   <si>
@@ -1253,28 +1158,15 @@
   </si>
   <si>
     <t>https://github.com/czy1121/update/issues/83</t>
-  </si>
-  <si>
-    <t>https://github.com/RedApparat/FaceDetector/issues/33</t>
-  </si>
-  <si>
-    <t>https://github.com/apptentive/apptentive-android/issues/168</t>
   </si>
   <si>
     <t>https://github.com//mapsforge/mapsforge/issues/723</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/e-mission/e-mission-docs/issues/272</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tamsiree/RxTool</t>
   </si>
   <si>
-    <t>AppLovin/Android-SDK-Demo</t>
-  </si>
-  <si>
     <t>square/leakcanary</t>
   </si>
   <si>
@@ -1312,24 +1204,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#42</t>
-  </si>
-  <si>
     <t>#984</t>
   </si>
   <si>
-    <t>#272</t>
-  </si>
-  <si>
     <t>#115</t>
   </si>
   <si>
     <t>#1039</t>
   </si>
   <si>
-    <t>#176</t>
-  </si>
-  <si>
     <t>#322</t>
   </si>
   <si>
@@ -1357,9 +1240,6 @@
     <t>#723</t>
   </si>
   <si>
-    <t>https://github.com/AltBeacon/android-beacon-library/issues/337</t>
-  </si>
-  <si>
     <t>https://github.com/broakenmedia/MultiContactPicker/issues/3</t>
   </si>
   <si>
@@ -1421,9 +1301,6 @@
     <t>#4</t>
   </si>
   <si>
-    <t>#337</t>
-  </si>
-  <si>
     <t>#47</t>
   </si>
   <si>
@@ -1549,33 +1426,12 @@
     <t>yuriy-budiyev/code-scanner</t>
   </si>
   <si>
-    <t>https://github.com//commons-app/apps-android-commons/pull/1855</t>
-  </si>
-  <si>
     <t>https://github.com//openfoodfacts/openfoodfacts-androidapp/pull/977</t>
   </si>
   <si>
-    <t>https://github.com/wbaumann/SmartReceiptsLibrary/pull/175</t>
-  </si>
-  <si>
-    <t>https://github.com//Telegram-FOSS-Team/Telegram-FOSS/issues/39</t>
-  </si>
-  <si>
-    <t>https://github.com//open-keychain/open-keychain/issues/1571</t>
-  </si>
-  <si>
-    <t>https://github.com/erickok/transdroid/issues/258</t>
-  </si>
-  <si>
-    <t>https://github.com/microg/IchnaeaNlpBackend/issues/19</t>
-  </si>
-  <si>
     <t>https://github.com/microg/android_packages_apps_UnifiedNlp/issues/68</t>
   </si>
   <si>
-    <t>https://github.com/open-keychain/open-keychain/issues/1733</t>
-  </si>
-  <si>
     <t>https://github.com/meteor/mobile-packages/pull/119</t>
   </si>
   <si>
@@ -1613,18 +1469,9 @@
     <t>#75</t>
   </si>
   <si>
-    <t>#11</t>
-  </si>
-  <si>
-    <t>#1855</t>
-  </si>
-  <si>
     <t>#977</t>
   </si>
   <si>
-    <t>#175</t>
-  </si>
-  <si>
     <t>https://github.com/evercam/evercam-android/issues/124</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1686,19 +1533,9 @@
     <t>openMF/android-client</t>
   </si>
   <si>
-    <t>sofimofi/photokingdom</t>
-  </si>
-  <si>
     <t>openfoodfacts/openfoodfacts-androidapp</t>
   </si>
   <si>
-    <t>wbaumann/SmartReceiptsLibrary</t>
-  </si>
-  <si>
-    <t>https://github.com/android/ndk-samples</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1810,14 +1647,6 @@
     <t>alexkahriman/tripple-a-project</t>
   </si>
   <si>
-    <t>https://github.com/Karumi/Dexter/issues/240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/morenoh149/react-native-contacts/pull/181</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1852,10 +1681,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/sofimofi/photokingdom/pull/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com//tasks/tasks/issues/551</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1869,10 +1694,6 @@
   </si>
   <si>
     <t>https://github.com/fishwjy/MultiType-FilePicker/issues/50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/Buglife/buglife-android/pull/59</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1942,10 +1763,6 @@
   <si>
     <t>Fixing strategies</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Issue ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/jensstein/oandbackup/issues/124</t>
@@ -2089,6 +1906,222 @@
   </si>
   <si>
     <t>#2110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type 9:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conflicting targetSdkVersion settings in &lt;uses-sdk&gt; elements</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type 10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Libraries setting maxSdkVersion in &lt;uses-permission&gt; elements</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue ID</t>
+  </si>
+  <si>
+    <t>#229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AltBeacon/android-beacon-library/issues/920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/commons-app/apps-android-commons/issues/650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/android/ndk-samples/issues/90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/signalapp/Signal-Android/issues/3983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/afollestad/assent/issues/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afollestad/assent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Buglife/buglife-android/issues/58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/square/leakcanary/issues/984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/facebook/buck/issues/1039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/lingochamp/FileDownloader/issues/322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/lingochamp/FileDownloader/issues/32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/RedApparat/FaceDetector/issues/33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/apptentive/apptentive-android/issues/168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Telegram-FOSS-Team/Telegram-FOSS/issues/39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com//open-keychain/open-keychain/issues/1571</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/erickok/transdroid/issues/258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/microg/IchnaeaNlpBackend/issues/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/open-keychain/open-keychain/issues/1733</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/mapsforge/mapsforge/issues/717</t>
+  </si>
+  <si>
+    <t>#717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapsforge/mapsforge</t>
+  </si>
+  <si>
+    <t>Type 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Karumi/Dexter/issues/229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/react-native-community/react-native-device-info/pull/269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bitstadium/HockeySDK-Android/issues/356</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitstadium/HockeySDK-Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#356</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bitstadium/HockeySDK-Android/issues/382</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#382</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/owncloud/android/issues/1343</t>
+  </si>
+  <si>
+    <t>https://github.com//Karumi/Dexter/issues/240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#240</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2291,7 +2324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2349,14 +2382,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2366,6 +2402,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFE7F6DE"/>
       <color rgb="FFD6F0C6"/>
@@ -2398,7 +2500,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2689,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7293D8F2-8281-4E1B-99C2-4EF540B87715}">
   <dimension ref="A1:A663"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2745,22 +2847,22 @@
     </row>
     <row r="11" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>9</v>
+      <c r="A12" s="20" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>10</v>
+      <c r="A13" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2768,37 +2870,37 @@
     </row>
     <row r="16" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>480</v>
+      <c r="A22" s="19" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4735,8 +4837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0D53C4-C210-4176-8EEA-224DB90158C3}">
   <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4751,22 +4853,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>472</v>
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4774,19 +4876,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4794,19 +4896,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4814,19 +4916,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>22</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4834,19 +4936,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4854,19 +4956,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4874,19 +4976,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4894,19 +4996,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4914,19 +5016,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4934,19 +5036,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4954,19 +5056,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4974,19 +5076,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4994,19 +5096,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5014,19 +5116,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>53</v>
+        <v>449</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>52</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5034,19 +5136,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5054,19 +5156,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5074,19 +5176,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5094,19 +5196,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5114,19 +5216,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5134,19 +5236,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5154,19 +5256,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5276,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5194,19 +5296,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5214,19 +5316,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5234,19 +5336,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5254,19 +5356,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5274,19 +5376,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5294,19 +5396,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5314,19 +5416,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5334,19 +5436,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5354,19 +5456,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5374,19 +5476,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5394,19 +5496,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5414,19 +5516,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5434,19 +5536,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5454,19 +5556,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5474,19 +5576,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5494,19 +5596,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5514,19 +5616,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5534,19 +5636,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5554,19 +5656,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5574,19 +5676,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5594,19 +5696,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5614,19 +5716,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5634,19 +5736,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5654,19 +5756,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5674,19 +5776,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5694,19 +5796,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5714,19 +5816,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>142</v>
+        <v>455</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5734,19 +5836,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5754,19 +5856,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D51" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5774,19 +5876,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5794,19 +5896,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5814,19 +5916,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5834,19 +5936,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5854,19 +5956,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5874,19 +5976,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5894,19 +5996,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5914,19 +6016,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5934,19 +6036,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D60" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="F60" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5954,19 +6056,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5974,19 +6076,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5994,19 +6096,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6014,19 +6116,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6034,19 +6136,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6054,19 +6156,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6074,19 +6176,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6094,19 +6196,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6114,19 +6216,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6134,19 +6236,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6154,19 +6256,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6174,19 +6276,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6194,19 +6296,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6214,19 +6316,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>374</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6234,19 +6336,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>375</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6254,19 +6356,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6274,19 +6376,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>376</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6294,19 +6396,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>377</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6314,19 +6416,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6334,19 +6436,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>379</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6354,19 +6456,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6374,19 +6476,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6394,19 +6496,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6414,19 +6516,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6434,19 +6536,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6454,19 +6556,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6474,19 +6576,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6494,19 +6596,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>392</v>
+        <v>469</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>204</v>
+        <v>471</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>460</v>
+        <v>472</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6514,19 +6616,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6534,19 +6636,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6554,19 +6656,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>371</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6574,19 +6676,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6594,19 +6696,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E93" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>432</v>
-      </c>
       <c r="F93" s="14" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6614,19 +6716,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6634,19 +6736,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6654,19 +6756,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6674,19 +6776,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6694,19 +6796,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6714,19 +6816,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6734,19 +6836,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C100" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6754,19 +6856,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6774,19 +6876,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6794,19 +6896,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6814,19 +6916,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6834,19 +6936,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6854,19 +6956,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>243</v>
+        <v>483</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>224</v>
+        <v>482</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6874,19 +6976,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6894,19 +6996,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>245</v>
+        <v>475</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>226</v>
+        <v>474</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6914,19 +7016,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D109" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="F109" s="14" t="s">
         <v>219</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6934,19 +7036,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C110" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C110" s="13" t="s">
-        <v>257</v>
-      </c>
       <c r="D110" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6954,19 +7056,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6974,19 +7076,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6994,19 +7096,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7014,19 +7116,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7034,19 +7136,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7054,19 +7156,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7074,19 +7176,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7094,19 +7196,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7114,19 +7216,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>295</v>
+        <v>478</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>266</v>
+        <v>397</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7134,19 +7236,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>267</v>
+        <v>456</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7154,19 +7256,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>297</v>
+        <v>460</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>280</v>
+        <v>459</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7174,19 +7276,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7194,19 +7296,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>269</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7214,19 +7316,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>270</v>
+        <v>479</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7234,19 +7336,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>271</v>
+        <v>458</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7254,19 +7356,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7274,19 +7376,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7294,19 +7396,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>277</v>
+        <v>461</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7314,19 +7416,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>278</v>
+        <v>462</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7334,19 +7436,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7354,19 +7456,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7374,19 +7476,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7394,19 +7496,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7414,19 +7516,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7434,19 +7536,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C135" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C135" s="13" t="s">
-        <v>353</v>
-      </c>
       <c r="D135" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7454,19 +7556,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7474,19 +7576,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C137" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C137" s="13" t="s">
-        <v>354</v>
-      </c>
       <c r="D137" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7494,19 +7596,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C138" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C138" s="13" t="s">
-        <v>355</v>
-      </c>
       <c r="D138" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>310</v>
+        <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7514,19 +7616,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7534,19 +7636,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7554,19 +7656,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7574,19 +7676,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7594,19 +7696,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7614,19 +7716,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7634,19 +7736,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C145" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="C145" s="13" t="s">
-        <v>361</v>
-      </c>
       <c r="D145" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7654,19 +7756,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7674,19 +7776,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7694,19 +7796,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7714,19 +7816,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7734,19 +7836,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7754,19 +7856,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7774,19 +7876,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7794,19 +7896,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7814,19 +7916,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7834,19 +7936,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7854,19 +7956,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7874,19 +7976,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7894,19 +7996,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7934,161 +8036,161 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{3B415DAD-2367-4C37-8972-A06047674D39}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{5EA8ECBC-DAB7-47D6-938C-C5F448138EA4}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{E851BB10-DB7A-4C1C-A064-52932C902FFE}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{E36FCC59-17D8-40D4-8A2D-C025D3D2858A}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{D0B968EA-44D8-4D2C-96D4-E7E319518A84}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{6436E916-6010-4BBF-8D4E-1256C839BBAD}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{628B15F6-FD8C-4B92-92B8-4D81BC5363C6}"/>
-    <hyperlink ref="F15" r:id="rId8" xr:uid="{CE6B82F9-81D3-4912-AACD-656326B21C73}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{00CCC760-197B-40BB-A433-EB601F533780}"/>
-    <hyperlink ref="F10" r:id="rId10" xr:uid="{B1B118DC-4C63-4502-9E15-E1F749044113}"/>
-    <hyperlink ref="F11" r:id="rId11" xr:uid="{5261EFF1-B589-43BE-94F6-27D7674DB791}"/>
-    <hyperlink ref="F12" r:id="rId12" xr:uid="{07A8B24F-BB28-43F0-8FD8-3125883080C2}"/>
-    <hyperlink ref="F13" r:id="rId13" xr:uid="{E11D326A-A517-4E37-BD52-9B092F24CF20}"/>
-    <hyperlink ref="F14" r:id="rId14" xr:uid="{535D3146-155E-4070-AD4D-23C3CC222941}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{FE34CF41-FC3C-4B99-AF03-35B45AD7791D}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{B4EC6143-2FEB-44DD-AEC5-EA2AA270253C}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{8E588514-5638-4E37-86BF-AB18DCADE9AD}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{051FEDEB-A78F-4BD6-8DC0-3AAA4AF5F115}"/>
-    <hyperlink ref="F20" r:id="rId19" xr:uid="{19F055C1-9871-4D82-A9BA-6C5B2D9F531D}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{430093D9-697D-40D1-80BF-FDB40D249B34}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{B4D661A2-10F6-46D6-B1F1-1CD5769B695E}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{B984B976-6AAB-41D2-A6AD-5BBE2BF24446}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{02CA3620-16E0-4A57-838C-61B1746F8941}"/>
-    <hyperlink ref="F25" r:id="rId24" xr:uid="{55EF74EA-CE62-402C-8A73-CF73886CC115}"/>
-    <hyperlink ref="F26" r:id="rId25" xr:uid="{B3F43A38-372B-462D-B14B-553A08B52D7A}"/>
-    <hyperlink ref="F27" r:id="rId26" xr:uid="{62C7393C-DB3F-4A48-81C4-9706EE461758}"/>
-    <hyperlink ref="F28" r:id="rId27" xr:uid="{6D6F34D9-F552-48A5-8B50-E1B4BC1E3ABF}"/>
-    <hyperlink ref="F29" r:id="rId28" xr:uid="{9D5639D8-E886-4D7A-887D-B2C42DF7D548}"/>
-    <hyperlink ref="F30" r:id="rId29" xr:uid="{FC6E20E4-93C8-4E75-8760-D62D25F6EF8A}"/>
-    <hyperlink ref="F31" r:id="rId30" xr:uid="{FB9E06E7-4EC5-443A-A7E2-07C98002A37C}"/>
-    <hyperlink ref="F32" r:id="rId31" xr:uid="{E402C290-3738-4646-AFBF-F3A177B14645}"/>
-    <hyperlink ref="F33" r:id="rId32" xr:uid="{294CB2FE-DA74-487F-BC73-98262B705527}"/>
-    <hyperlink ref="F34" r:id="rId33" xr:uid="{4E2C2767-F883-40D4-A047-FBE20A7F1335}"/>
-    <hyperlink ref="F35" r:id="rId34" xr:uid="{F819E65D-949C-4801-9767-7FFA88555660}"/>
-    <hyperlink ref="F36" r:id="rId35" xr:uid="{2328B616-FB0E-4C57-8430-5B5DDECF3523}"/>
-    <hyperlink ref="F37" r:id="rId36" xr:uid="{D7C94FBB-0BB5-4F73-B374-730B1CAB7440}"/>
-    <hyperlink ref="F38" r:id="rId37" xr:uid="{08178725-6C30-4633-8CDF-A0A4C1BCC879}"/>
-    <hyperlink ref="F39" r:id="rId38" xr:uid="{7658D531-9DE6-44E7-8108-4EFAA21ECE3D}"/>
-    <hyperlink ref="F40" r:id="rId39" xr:uid="{1C027DF7-9A75-43EC-A5E4-A8944EDF58AD}"/>
-    <hyperlink ref="F41" r:id="rId40" xr:uid="{548D4987-5940-4834-9CC4-3660009F85DB}"/>
-    <hyperlink ref="F42" r:id="rId41" xr:uid="{B6E749D4-4E09-45A7-88BD-0F64395CE955}"/>
-    <hyperlink ref="F43" r:id="rId42" xr:uid="{ACACE800-48C3-4693-AD13-5DB450248D72}"/>
-    <hyperlink ref="F45" r:id="rId43" xr:uid="{B604D51A-317B-4354-8D33-F41080B3B86C}"/>
-    <hyperlink ref="F44" r:id="rId44" xr:uid="{80D329E6-0BB0-4A86-BCC0-05A5B381982E}"/>
-    <hyperlink ref="F46" r:id="rId45" xr:uid="{E574B7E9-C211-43A6-A680-CCC3F7F8583B}"/>
-    <hyperlink ref="F47" r:id="rId46" xr:uid="{03FD922C-82F9-4E12-AD17-F3936FA02A6A}"/>
-    <hyperlink ref="F48" r:id="rId47" xr:uid="{2667900E-A747-4B1F-AE1F-5319253247EF}"/>
-    <hyperlink ref="F49" r:id="rId48" xr:uid="{7A2F7260-C29C-405E-BA43-456B3FC856FC}"/>
-    <hyperlink ref="F50" r:id="rId49" xr:uid="{AE788CB9-1BDF-4EF1-80F2-12240DA197D1}"/>
-    <hyperlink ref="F53" r:id="rId50" xr:uid="{019819F2-31B5-4B0F-B77C-C3235535348A}"/>
-    <hyperlink ref="F52" r:id="rId51" xr:uid="{77DF8D3A-2E63-423E-A072-5A8FB2E49864}"/>
-    <hyperlink ref="F51" r:id="rId52" xr:uid="{F02251CF-F879-4B4E-8761-AA63C9D8E142}"/>
-    <hyperlink ref="F65" r:id="rId53" tooltip="https://github.com/LuckSiege/PictureSelector/issues/624" xr:uid="{6E071450-7BA4-47CC-A605-D7833CE0187A}"/>
-    <hyperlink ref="F64" r:id="rId54" tooltip="https://github.com/exozet/Geolocator/issues/5" xr:uid="{576C6025-6F20-46F6-A7CE-B588057BDADA}"/>
-    <hyperlink ref="F63" r:id="rId55" xr:uid="{B9C5EDD3-9532-4F56-BCC5-BEA9C4C94F7C}"/>
-    <hyperlink ref="F61" r:id="rId56" tooltip="https://github.com/xuyisheng/ShortcutHelper/issues/14" xr:uid="{A808D7F5-8218-440B-9DE8-5EA4CB7608DB}"/>
-    <hyperlink ref="F60" r:id="rId57" tooltip="https://github.com/federicoiosue/Omni-Notes/issues/695" xr:uid="{E7513593-2100-4398-9DC9-922BF80CA832}"/>
-    <hyperlink ref="F58" r:id="rId58" tooltip="https://github.com/TeamNewPipe/NewPipe/issues/1998" xr:uid="{3ECCEC13-8091-4E35-BAF8-8290F2C895A3}"/>
-    <hyperlink ref="F55" r:id="rId59" tooltip="https://github.com/ThanosFisherman/WifiUtils/issues/38" xr:uid="{72816035-4CAA-4121-8FCC-0AA3C8B70AE8}"/>
-    <hyperlink ref="F54" r:id="rId60" xr:uid="{0B817655-577D-47BC-877F-80C5F482798F}"/>
-    <hyperlink ref="F59" r:id="rId61" xr:uid="{8001AFA2-E6FA-4B67-9F7A-89FC705A625A}"/>
-    <hyperlink ref="F56" r:id="rId62" xr:uid="{416D9ECF-5759-4002-BDD9-886A3FE800FE}"/>
-    <hyperlink ref="F62" r:id="rId63" xr:uid="{2C0F189C-5CDC-48F4-8FF2-AEC97A4534E2}"/>
-    <hyperlink ref="F70" r:id="rId64" xr:uid="{6C7995B7-11C7-4EA5-A2FF-BCC55BF05F3A}"/>
-    <hyperlink ref="F69" r:id="rId65" xr:uid="{1DA6EB14-3821-431C-907B-CC03E7E7A070}"/>
-    <hyperlink ref="F68" r:id="rId66" tooltip="https://github.com/BelledonneCommunications/linphone-android/issues/837" xr:uid="{015AF2DF-D8EF-4CB7-80BD-CC3B3E7BCA99}"/>
-    <hyperlink ref="F67" r:id="rId67" xr:uid="{6B4C8BF2-2E6B-44BE-B5DB-AE495E315906}"/>
-    <hyperlink ref="F66" r:id="rId68" xr:uid="{227F46C1-D334-4FA7-AD00-AD1BEC9C230E}"/>
-    <hyperlink ref="F96" r:id="rId69" tooltip="https://github.com/qiangxi/CheckUpdateLibrary/issues/12" xr:uid="{A6706568-FC0F-40E4-806B-4C05B55E708A}"/>
-    <hyperlink ref="F97" r:id="rId70" xr:uid="{BC293894-9A3B-4850-B1F8-169FDA81C4E1}"/>
-    <hyperlink ref="F98" r:id="rId71" tooltip="https://github.com/mapbox/mapbox-events-android/issues/395" xr:uid="{550FE89D-E410-4311-931A-E1F1673933E1}"/>
-    <hyperlink ref="F99" r:id="rId72" tooltip="https://github.com/Swati4star/Images-to-PDF/issues/669" xr:uid="{A690957E-06E4-406F-8B31-6C2848D1EB5F}"/>
-    <hyperlink ref="F100" r:id="rId73" tooltip="https://github.com/ravi8x/Barcode-Reader/issues/2" xr:uid="{CA10CB01-6899-41D6-A144-686199DC27B5}"/>
-    <hyperlink ref="F104" r:id="rId74" tooltip="https://github.com//pwittchen/ReactiveBeacons/issues/76" xr:uid="{530232E0-ED7F-4362-9128-F563917E2228}"/>
-    <hyperlink ref="F103" r:id="rId75" xr:uid="{F8B04DE3-86F6-4A31-8E5F-6680E1F4E1A0}"/>
-    <hyperlink ref="F114" r:id="rId76" xr:uid="{98060211-8D06-4B88-B82B-FC0C348B7009}"/>
-    <hyperlink ref="F105" r:id="rId77" xr:uid="{37465F12-6B10-4107-9C7F-00383F104906}"/>
-    <hyperlink ref="F106" r:id="rId78" xr:uid="{DEAA2BA4-B4BA-4320-B17D-311BE181E266}"/>
-    <hyperlink ref="F108" r:id="rId79" tooltip="https://github.com/react-native-community/react-native-device-info/issues/268" xr:uid="{92119593-6CA3-462B-8B37-425B1E05087C}"/>
-    <hyperlink ref="F109" r:id="rId80" tooltip="https://github.com/scottyab/secure-preferences/issues/72" xr:uid="{8A860968-4A04-4FE3-A177-18548A814BD4}"/>
-    <hyperlink ref="F110" r:id="rId81" tooltip="https://github.com/react-native-community/react-native-device-info/pull/565" xr:uid="{99C69A60-994A-4499-8588-B84F59A011EB}"/>
-    <hyperlink ref="F111" r:id="rId82" tooltip="https://github.com/bantucracy/ayanda/issues/17" xr:uid="{DC2CA06F-320B-4979-8582-EE18DD0DFAF6}"/>
-    <hyperlink ref="F112" r:id="rId83" xr:uid="{D85B5C55-40AD-4337-AC2F-2D96B7619799}"/>
-    <hyperlink ref="F113" r:id="rId84" tooltip="https://github.com/massivedisaster/ADAL/issues/134" xr:uid="{40337FD4-F73B-4FD6-88FE-0D80A65C5464}"/>
-    <hyperlink ref="F115" r:id="rId85" xr:uid="{FCB3FC00-9E29-44F0-A609-DF1A990AB875}"/>
-    <hyperlink ref="F116" r:id="rId86" tooltip="https://github.com/react-native-community/react-native-device-info/issues/595" xr:uid="{36B8CBC0-C7DB-475A-BFAC-1F549A30A985}"/>
-    <hyperlink ref="F117" r:id="rId87" tooltip="https://github.com/line/line-sdk-android/issues/27" xr:uid="{A94B1D1B-6E44-47AC-B376-B40725A15AE1}"/>
-    <hyperlink ref="F118" r:id="rId88" tooltip="https://github.com/scottyab/secure-preferences/issues/88" xr:uid="{A2EB8418-3013-44DB-B8E3-A607982FCCD8}"/>
-    <hyperlink ref="F107" r:id="rId89" xr:uid="{5C0D8E00-A3E9-4854-8DA3-F6D52961C6E9}"/>
-    <hyperlink ref="F133" r:id="rId90" tooltip="https://github.com/Tamsiree/RxTool/issues/109" xr:uid="{0A5C4E84-9756-41F5-AF3F-B113D089B270}"/>
-    <hyperlink ref="F119" r:id="rId91" tooltip="https://github.com/AppLovin/Android-SDK-Demo/issues/42" xr:uid="{24EE10E4-ECD8-46CA-88A1-86A2227A7848}"/>
-    <hyperlink ref="F120" r:id="rId92" tooltip="https://github.com/square/leakcanary/issues/984" xr:uid="{54365BB6-A8D6-4ACB-9057-5DAA97032161}"/>
-    <hyperlink ref="F121" r:id="rId93" xr:uid="{2E78E1B0-240E-488E-8B3A-2C0917ABDD93}"/>
-    <hyperlink ref="F122" r:id="rId94" tooltip="https://github.com/bitstadium/HockeySDK-Xamarin/issues/115" xr:uid="{19566EAA-8D7E-4C04-9C45-A95DAD7D9064}"/>
-    <hyperlink ref="F123" r:id="rId95" xr:uid="{C0D5268C-1ECA-432C-91A0-EDA385F7D6B2}"/>
-    <hyperlink ref="F124" r:id="rId96" tooltip="https://github.com/bitstadium/HockeySDK-Android/issues/176" xr:uid="{2E7F12D4-D366-49A0-872B-A987B79890CB}"/>
-    <hyperlink ref="F125" r:id="rId97" xr:uid="{32CE9311-E3AA-4F6F-BC54-25E8394B8100}"/>
-    <hyperlink ref="F126" r:id="rId98" tooltip="https://github.com/Applifier/unity-ads/pull/51" xr:uid="{9D2E30FC-162B-4434-A3B9-3602CBDC4A14}"/>
-    <hyperlink ref="F127" r:id="rId99" tooltip="https://github.com/bitstadium/HockeySDK-Android/issues/351" xr:uid="{20AA305C-86C8-48B8-9DCB-A80E2A6FF787}"/>
-    <hyperlink ref="F131" r:id="rId100" xr:uid="{28332322-B27C-4CFF-A1C3-E94E9954A876}"/>
-    <hyperlink ref="F134" r:id="rId101" xr:uid="{6A7D1152-5F33-4988-9E97-FA3D375BA857}"/>
-    <hyperlink ref="F128" r:id="rId102" tooltip="https://github.com/RedApparat/FaceDetector/issues/33" xr:uid="{6A8399DA-5416-41FD-9BE7-C90FF9DA36F4}"/>
-    <hyperlink ref="F129" r:id="rId103" tooltip="https://github.com/apptentive/apptentive-android/issues/168" xr:uid="{7E756C3F-56AF-4CD2-8215-7CD6FFAC8922}"/>
-    <hyperlink ref="F130" r:id="rId104" xr:uid="{510F6483-2F17-414B-93C8-954C829F3321}"/>
-    <hyperlink ref="F135" r:id="rId105" xr:uid="{CDC9434F-1418-40F8-9A0E-D00DE8C2C8F6}"/>
-    <hyperlink ref="F136" r:id="rId106" xr:uid="{804D3370-85B1-4514-A01C-F2F73B9A3C2A}"/>
-    <hyperlink ref="F137" r:id="rId107" xr:uid="{8C988ED7-D28F-4EAE-80DF-4488D7853F32}"/>
-    <hyperlink ref="F138" r:id="rId108" xr:uid="{FA05BF77-DF93-4C58-83DE-C5E550D20B0B}"/>
-    <hyperlink ref="F139" r:id="rId109" tooltip="https://github.com/broakenmedia/MultiContactPicker/issues/3" xr:uid="{6B29F405-FFD3-422D-9A58-95C346C4FB58}"/>
-    <hyperlink ref="F140" r:id="rId110" xr:uid="{26A76049-D702-4EDE-89CB-E40FC8AF80AC}"/>
-    <hyperlink ref="F141" r:id="rId111" tooltip="https://github.com/LuckSiege/PictureSelector/issues/189" xr:uid="{87AD6884-D48F-4F7C-A792-3B702E4DAD4B}"/>
-    <hyperlink ref="F142" r:id="rId112" xr:uid="{0E7759F5-FF8B-448E-8367-56074A4E8388}"/>
-    <hyperlink ref="F155" r:id="rId113" xr:uid="{5EF27FAC-BAFF-423C-9F1C-965C47C3BEED}"/>
-    <hyperlink ref="F156" r:id="rId114" xr:uid="{66BF3499-D9F2-4400-8360-52EAA3568045}"/>
-    <hyperlink ref="F143" r:id="rId115" xr:uid="{7E680D78-DE46-473C-8DA8-81A43FA4C181}"/>
-    <hyperlink ref="F144" r:id="rId116" xr:uid="{04CA3D48-91B6-48F2-9E55-D829A9BBC6E2}"/>
-    <hyperlink ref="F145" r:id="rId117" xr:uid="{2ADD2B63-1F22-4774-B44A-F3760CDC6ACE}"/>
-    <hyperlink ref="F146" r:id="rId118" xr:uid="{0662980E-76F9-404D-9516-2C937B9D6DFA}"/>
-    <hyperlink ref="F147" r:id="rId119" xr:uid="{328E488E-EFA8-4843-80F7-96581665B782}"/>
-    <hyperlink ref="F157" r:id="rId120" xr:uid="{27607877-6C0C-4C80-B1EC-3D757FA00CAB}"/>
-    <hyperlink ref="F149" r:id="rId121" xr:uid="{771A28B4-FB6B-484F-B20C-37D71B685B1E}"/>
-    <hyperlink ref="F150" r:id="rId122" tooltip="https://github.com/dlazaro66/QRCodeReaderView/issues/129" xr:uid="{5E532925-5182-4C7A-A274-8483CD7BB7DC}"/>
-    <hyperlink ref="F151" r:id="rId123" xr:uid="{452474C7-E4DB-48F9-BE1B-5221B9EE1576}"/>
-    <hyperlink ref="F152" r:id="rId124" xr:uid="{A1C6F64F-20B3-48B6-A18A-1851AA40A576}"/>
-    <hyperlink ref="F153" r:id="rId125" xr:uid="{EBEB2864-E2DA-4362-8C6C-87DA5F9B2544}"/>
-    <hyperlink ref="F158" r:id="rId126" xr:uid="{FA75B0FF-0C10-4BC3-827A-9032CBE3FEB3}"/>
-    <hyperlink ref="F154" r:id="rId127" tooltip="https://github.com/yuriy-budiyev/code-scanner/issues/76" xr:uid="{87DB9B4E-AB7A-46DC-AD44-1B7100C92FCF}"/>
-    <hyperlink ref="F148" r:id="rId128" xr:uid="{4660277C-2106-4F25-9536-DFF35BBB2F54}"/>
-    <hyperlink ref="F71" r:id="rId129" xr:uid="{F50B0B7D-64BE-4986-98D5-DCC67C77A8B7}"/>
-    <hyperlink ref="F72" r:id="rId130" xr:uid="{7A137461-E822-4644-94CC-059045341F67}"/>
-    <hyperlink ref="F91" r:id="rId131" tooltip="https://github.com//commons-app/apps-android-commons/pull/1855" xr:uid="{5943BDEF-3011-428B-9A89-AE7FCCD51CAC}"/>
-    <hyperlink ref="F92" r:id="rId132" tooltip="https://github.com//openfoodfacts/openfoodfacts-androidapp/pull/977" xr:uid="{C8966B9B-8404-49D4-AB00-8BD6BE8D6FDF}"/>
-    <hyperlink ref="F93" r:id="rId133" tooltip="https://github.com/wbaumann/SmartReceiptsLibrary/pull/175" xr:uid="{A0C7F0C8-42DA-4052-8FEF-9D72CBF28CAB}"/>
-    <hyperlink ref="F88" r:id="rId134" xr:uid="{4B009A1E-C875-4F19-8BE9-365B6C79C078}"/>
-    <hyperlink ref="F89" r:id="rId135" xr:uid="{FB1A998D-3C6A-4F27-BBFE-7AFBA4C5FCF3}"/>
-    <hyperlink ref="F90" r:id="rId136" xr:uid="{AB663385-D117-40B4-BC3D-F4FE10425825}"/>
-    <hyperlink ref="F74" r:id="rId137" tooltip="https://github.com//Telegram-FOSS-Team/Telegram-FOSS/issues/39" xr:uid="{DD32EB4D-A96B-4B43-B695-C91F18C54672}"/>
-    <hyperlink ref="F75" r:id="rId138" tooltip="https://github.com//open-keychain/open-keychain/issues/1571" xr:uid="{6258DD84-8ADC-4C14-B027-EF1CB1B48462}"/>
-    <hyperlink ref="F78" r:id="rId139" tooltip="https://github.com/microg/IchnaeaNlpBackend/issues/19" xr:uid="{BF2632BD-6F04-4B50-9FD8-FC4C6E8E8158}"/>
-    <hyperlink ref="F77" r:id="rId140" tooltip="https://github.com/erickok/transdroid/issues/258" xr:uid="{E008ACAF-DC86-403A-B1C8-A8E8E80C9722}"/>
-    <hyperlink ref="F94" r:id="rId141" xr:uid="{93677AC7-C48D-4D90-BD6C-AF480172C948}"/>
-    <hyperlink ref="F85" r:id="rId142" tooltip="https://github.com/Etar-Group/Etar-Calendar/issues/75" xr:uid="{E12CDC10-1A03-41CC-8F4D-CA07C5009700}"/>
-    <hyperlink ref="F76" r:id="rId143" xr:uid="{36B5799C-6DA1-427B-B6B2-6D11318BF792}"/>
-    <hyperlink ref="F95" r:id="rId144" xr:uid="{C2FA1E08-3CA0-4685-9DB0-62D07AE478FD}"/>
-    <hyperlink ref="F79" r:id="rId145" xr:uid="{A9B61412-60E4-489F-8051-796903BA68D9}"/>
-    <hyperlink ref="F81" r:id="rId146" xr:uid="{58AFFE23-E20F-48DD-AFAC-15CEBD24C3F6}"/>
-    <hyperlink ref="F82" r:id="rId147" xr:uid="{348BE251-FBE4-4B14-9C9C-E266EA2F8CA9}"/>
-    <hyperlink ref="F83" r:id="rId148" xr:uid="{B800AF4D-7A72-487C-A418-308CEE8BD26E}"/>
-    <hyperlink ref="F84" r:id="rId149" xr:uid="{C6B3ED6F-3EB5-4AF9-9758-77F730110C26}"/>
-    <hyperlink ref="F87" r:id="rId150" xr:uid="{80796F83-AF18-4594-A8DC-AC064D000A93}"/>
-    <hyperlink ref="F80" r:id="rId151" xr:uid="{C872901B-29CF-43E2-AB22-D518D7C52FD5}"/>
-    <hyperlink ref="F86" r:id="rId152" xr:uid="{26C4F972-2F33-4DB6-8E94-DE818D7DDF2B}"/>
-    <hyperlink ref="F101" r:id="rId153" xr:uid="{A8E12036-54B1-42B1-B238-D81B554F7F41}"/>
-    <hyperlink ref="F102" r:id="rId154" xr:uid="{AB5ED15A-BC1E-4BF8-868B-573F9C843DE2}"/>
-    <hyperlink ref="F57" r:id="rId155" tooltip="https://github.com/hedzr/android-file-chooser/issues/73" xr:uid="{CA501C01-5AE7-458F-B30F-AC8247434ACA}"/>
-    <hyperlink ref="F73" r:id="rId156" xr:uid="{0A3CF3DF-23A2-4880-AAEE-ACC14F735002}"/>
-    <hyperlink ref="F132" r:id="rId157" xr:uid="{844DFD88-E119-4EAC-A069-9BC48FBBB3DE}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{E36FCC59-17D8-40D4-8A2D-C025D3D2858A}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{D0B968EA-44D8-4D2C-96D4-E7E319518A84}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{6436E916-6010-4BBF-8D4E-1256C839BBAD}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{628B15F6-FD8C-4B92-92B8-4D81BC5363C6}"/>
+    <hyperlink ref="F15" r:id="rId7" xr:uid="{CE6B82F9-81D3-4912-AACD-656326B21C73}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00CCC760-197B-40BB-A433-EB601F533780}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{B1B118DC-4C63-4502-9E15-E1F749044113}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{5261EFF1-B589-43BE-94F6-27D7674DB791}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{07A8B24F-BB28-43F0-8FD8-3125883080C2}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{E11D326A-A517-4E37-BD52-9B092F24CF20}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{535D3146-155E-4070-AD4D-23C3CC222941}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{FE34CF41-FC3C-4B99-AF03-35B45AD7791D}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{B4EC6143-2FEB-44DD-AEC5-EA2AA270253C}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{8E588514-5638-4E37-86BF-AB18DCADE9AD}"/>
+    <hyperlink ref="F19" r:id="rId17" xr:uid="{051FEDEB-A78F-4BD6-8DC0-3AAA4AF5F115}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{19F055C1-9871-4D82-A9BA-6C5B2D9F531D}"/>
+    <hyperlink ref="F21" r:id="rId19" xr:uid="{430093D9-697D-40D1-80BF-FDB40D249B34}"/>
+    <hyperlink ref="F22" r:id="rId20" xr:uid="{B4D661A2-10F6-46D6-B1F1-1CD5769B695E}"/>
+    <hyperlink ref="F23" r:id="rId21" xr:uid="{B984B976-6AAB-41D2-A6AD-5BBE2BF24446}"/>
+    <hyperlink ref="F24" r:id="rId22" xr:uid="{02CA3620-16E0-4A57-838C-61B1746F8941}"/>
+    <hyperlink ref="F25" r:id="rId23" xr:uid="{55EF74EA-CE62-402C-8A73-CF73886CC115}"/>
+    <hyperlink ref="F26" r:id="rId24" xr:uid="{B3F43A38-372B-462D-B14B-553A08B52D7A}"/>
+    <hyperlink ref="F27" r:id="rId25" xr:uid="{62C7393C-DB3F-4A48-81C4-9706EE461758}"/>
+    <hyperlink ref="F28" r:id="rId26" xr:uid="{6D6F34D9-F552-48A5-8B50-E1B4BC1E3ABF}"/>
+    <hyperlink ref="F29" r:id="rId27" xr:uid="{9D5639D8-E886-4D7A-887D-B2C42DF7D548}"/>
+    <hyperlink ref="F30" r:id="rId28" xr:uid="{FC6E20E4-93C8-4E75-8760-D62D25F6EF8A}"/>
+    <hyperlink ref="F31" r:id="rId29" xr:uid="{FB9E06E7-4EC5-443A-A7E2-07C98002A37C}"/>
+    <hyperlink ref="F32" r:id="rId30" xr:uid="{E402C290-3738-4646-AFBF-F3A177B14645}"/>
+    <hyperlink ref="F33" r:id="rId31" xr:uid="{294CB2FE-DA74-487F-BC73-98262B705527}"/>
+    <hyperlink ref="F34" r:id="rId32" xr:uid="{4E2C2767-F883-40D4-A047-FBE20A7F1335}"/>
+    <hyperlink ref="F35" r:id="rId33" xr:uid="{F819E65D-949C-4801-9767-7FFA88555660}"/>
+    <hyperlink ref="F36" r:id="rId34" xr:uid="{2328B616-FB0E-4C57-8430-5B5DDECF3523}"/>
+    <hyperlink ref="F37" r:id="rId35" xr:uid="{D7C94FBB-0BB5-4F73-B374-730B1CAB7440}"/>
+    <hyperlink ref="F38" r:id="rId36" xr:uid="{08178725-6C30-4633-8CDF-A0A4C1BCC879}"/>
+    <hyperlink ref="F39" r:id="rId37" xr:uid="{7658D531-9DE6-44E7-8108-4EFAA21ECE3D}"/>
+    <hyperlink ref="F40" r:id="rId38" xr:uid="{1C027DF7-9A75-43EC-A5E4-A8944EDF58AD}"/>
+    <hyperlink ref="F41" r:id="rId39" xr:uid="{548D4987-5940-4834-9CC4-3660009F85DB}"/>
+    <hyperlink ref="F42" r:id="rId40" xr:uid="{B6E749D4-4E09-45A7-88BD-0F64395CE955}"/>
+    <hyperlink ref="F43" r:id="rId41" xr:uid="{ACACE800-48C3-4693-AD13-5DB450248D72}"/>
+    <hyperlink ref="F45" r:id="rId42" xr:uid="{B604D51A-317B-4354-8D33-F41080B3B86C}"/>
+    <hyperlink ref="F44" r:id="rId43" xr:uid="{80D329E6-0BB0-4A86-BCC0-05A5B381982E}"/>
+    <hyperlink ref="F46" r:id="rId44" xr:uid="{E574B7E9-C211-43A6-A680-CCC3F7F8583B}"/>
+    <hyperlink ref="F47" r:id="rId45" xr:uid="{03FD922C-82F9-4E12-AD17-F3936FA02A6A}"/>
+    <hyperlink ref="F48" r:id="rId46" xr:uid="{2667900E-A747-4B1F-AE1F-5319253247EF}"/>
+    <hyperlink ref="F49" r:id="rId47" xr:uid="{7A2F7260-C29C-405E-BA43-456B3FC856FC}"/>
+    <hyperlink ref="F50" r:id="rId48" xr:uid="{AE788CB9-1BDF-4EF1-80F2-12240DA197D1}"/>
+    <hyperlink ref="F53" r:id="rId49" xr:uid="{019819F2-31B5-4B0F-B77C-C3235535348A}"/>
+    <hyperlink ref="F52" r:id="rId50" xr:uid="{77DF8D3A-2E63-423E-A072-5A8FB2E49864}"/>
+    <hyperlink ref="F51" r:id="rId51" xr:uid="{F02251CF-F879-4B4E-8761-AA63C9D8E142}"/>
+    <hyperlink ref="F65" r:id="rId52" tooltip="https://github.com/LuckSiege/PictureSelector/issues/624" xr:uid="{6E071450-7BA4-47CC-A605-D7833CE0187A}"/>
+    <hyperlink ref="F64" r:id="rId53" tooltip="https://github.com/exozet/Geolocator/issues/5" xr:uid="{576C6025-6F20-46F6-A7CE-B588057BDADA}"/>
+    <hyperlink ref="F63" r:id="rId54" xr:uid="{B9C5EDD3-9532-4F56-BCC5-BEA9C4C94F7C}"/>
+    <hyperlink ref="F61" r:id="rId55" tooltip="https://github.com/xuyisheng/ShortcutHelper/issues/14" xr:uid="{A808D7F5-8218-440B-9DE8-5EA4CB7608DB}"/>
+    <hyperlink ref="F60" r:id="rId56" tooltip="https://github.com/federicoiosue/Omni-Notes/issues/695" xr:uid="{E7513593-2100-4398-9DC9-922BF80CA832}"/>
+    <hyperlink ref="F58" r:id="rId57" tooltip="https://github.com/TeamNewPipe/NewPipe/issues/1998" xr:uid="{3ECCEC13-8091-4E35-BAF8-8290F2C895A3}"/>
+    <hyperlink ref="F55" r:id="rId58" tooltip="https://github.com/ThanosFisherman/WifiUtils/issues/38" xr:uid="{72816035-4CAA-4121-8FCC-0AA3C8B70AE8}"/>
+    <hyperlink ref="F54" r:id="rId59" xr:uid="{0B817655-577D-47BC-877F-80C5F482798F}"/>
+    <hyperlink ref="F59" r:id="rId60" xr:uid="{8001AFA2-E6FA-4B67-9F7A-89FC705A625A}"/>
+    <hyperlink ref="F56" r:id="rId61" xr:uid="{416D9ECF-5759-4002-BDD9-886A3FE800FE}"/>
+    <hyperlink ref="F62" r:id="rId62" xr:uid="{2C0F189C-5CDC-48F4-8FF2-AEC97A4534E2}"/>
+    <hyperlink ref="F70" r:id="rId63" xr:uid="{6C7995B7-11C7-4EA5-A2FF-BCC55BF05F3A}"/>
+    <hyperlink ref="F69" r:id="rId64" xr:uid="{1DA6EB14-3821-431C-907B-CC03E7E7A070}"/>
+    <hyperlink ref="F68" r:id="rId65" tooltip="https://github.com/BelledonneCommunications/linphone-android/issues/837" xr:uid="{015AF2DF-D8EF-4CB7-80BD-CC3B3E7BCA99}"/>
+    <hyperlink ref="F67" r:id="rId66" xr:uid="{6B4C8BF2-2E6B-44BE-B5DB-AE495E315906}"/>
+    <hyperlink ref="F66" r:id="rId67" xr:uid="{227F46C1-D334-4FA7-AD00-AD1BEC9C230E}"/>
+    <hyperlink ref="F96" r:id="rId68" tooltip="https://github.com/qiangxi/CheckUpdateLibrary/issues/12" xr:uid="{A6706568-FC0F-40E4-806B-4C05B55E708A}"/>
+    <hyperlink ref="F97" r:id="rId69" xr:uid="{BC293894-9A3B-4850-B1F8-169FDA81C4E1}"/>
+    <hyperlink ref="F98" r:id="rId70" tooltip="https://github.com/mapbox/mapbox-events-android/issues/395" xr:uid="{550FE89D-E410-4311-931A-E1F1673933E1}"/>
+    <hyperlink ref="F99" r:id="rId71" tooltip="https://github.com/Swati4star/Images-to-PDF/issues/669" xr:uid="{A690957E-06E4-406F-8B31-6C2848D1EB5F}"/>
+    <hyperlink ref="F100" r:id="rId72" tooltip="https://github.com/ravi8x/Barcode-Reader/issues/2" xr:uid="{CA10CB01-6899-41D6-A144-686199DC27B5}"/>
+    <hyperlink ref="F104" r:id="rId73" tooltip="https://github.com//pwittchen/ReactiveBeacons/issues/76" xr:uid="{530232E0-ED7F-4362-9128-F563917E2228}"/>
+    <hyperlink ref="F103" r:id="rId74" xr:uid="{F8B04DE3-86F6-4A31-8E5F-6680E1F4E1A0}"/>
+    <hyperlink ref="F114" r:id="rId75" xr:uid="{98060211-8D06-4B88-B82B-FC0C348B7009}"/>
+    <hyperlink ref="F105" r:id="rId76" xr:uid="{37465F12-6B10-4107-9C7F-00383F104906}"/>
+    <hyperlink ref="F106" r:id="rId77" xr:uid="{DEAA2BA4-B4BA-4320-B17D-311BE181E266}"/>
+    <hyperlink ref="F108" r:id="rId78" xr:uid="{92119593-6CA3-462B-8B37-425B1E05087C}"/>
+    <hyperlink ref="F109" r:id="rId79" tooltip="https://github.com/scottyab/secure-preferences/issues/72" xr:uid="{8A860968-4A04-4FE3-A177-18548A814BD4}"/>
+    <hyperlink ref="F110" r:id="rId80" tooltip="https://github.com/react-native-community/react-native-device-info/pull/565" xr:uid="{99C69A60-994A-4499-8588-B84F59A011EB}"/>
+    <hyperlink ref="F111" r:id="rId81" tooltip="https://github.com/bantucracy/ayanda/issues/17" xr:uid="{DC2CA06F-320B-4979-8582-EE18DD0DFAF6}"/>
+    <hyperlink ref="F112" r:id="rId82" xr:uid="{D85B5C55-40AD-4337-AC2F-2D96B7619799}"/>
+    <hyperlink ref="F113" r:id="rId83" tooltip="https://github.com/massivedisaster/ADAL/issues/134" xr:uid="{40337FD4-F73B-4FD6-88FE-0D80A65C5464}"/>
+    <hyperlink ref="F115" r:id="rId84" xr:uid="{FCB3FC00-9E29-44F0-A609-DF1A990AB875}"/>
+    <hyperlink ref="F116" r:id="rId85" tooltip="https://github.com/react-native-community/react-native-device-info/issues/595" xr:uid="{36B8CBC0-C7DB-475A-BFAC-1F549A30A985}"/>
+    <hyperlink ref="F117" r:id="rId86" tooltip="https://github.com/line/line-sdk-android/issues/27" xr:uid="{A94B1D1B-6E44-47AC-B376-B40725A15AE1}"/>
+    <hyperlink ref="F118" r:id="rId87" tooltip="https://github.com/scottyab/secure-preferences/issues/88" xr:uid="{A2EB8418-3013-44DB-B8E3-A607982FCCD8}"/>
+    <hyperlink ref="F107" r:id="rId88" xr:uid="{5C0D8E00-A3E9-4854-8DA3-F6D52961C6E9}"/>
+    <hyperlink ref="F133" r:id="rId89" tooltip="https://github.com/Tamsiree/RxTool/issues/109" xr:uid="{0A5C4E84-9756-41F5-AF3F-B113D089B270}"/>
+    <hyperlink ref="F119" r:id="rId90" xr:uid="{24EE10E4-ECD8-46CA-88A1-86A2227A7848}"/>
+    <hyperlink ref="F120" r:id="rId91" xr:uid="{54365BB6-A8D6-4ACB-9057-5DAA97032161}"/>
+    <hyperlink ref="F121" r:id="rId92" xr:uid="{2E78E1B0-240E-488E-8B3A-2C0917ABDD93}"/>
+    <hyperlink ref="F122" r:id="rId93" tooltip="https://github.com/bitstadium/HockeySDK-Xamarin/issues/115" xr:uid="{19566EAA-8D7E-4C04-9C45-A95DAD7D9064}"/>
+    <hyperlink ref="F123" r:id="rId94" xr:uid="{C0D5268C-1ECA-432C-91A0-EDA385F7D6B2}"/>
+    <hyperlink ref="F124" r:id="rId95" xr:uid="{2E7F12D4-D366-49A0-872B-A987B79890CB}"/>
+    <hyperlink ref="F125" r:id="rId96" xr:uid="{32CE9311-E3AA-4F6F-BC54-25E8394B8100}"/>
+    <hyperlink ref="F126" r:id="rId97" tooltip="https://github.com/Applifier/unity-ads/pull/51" xr:uid="{9D2E30FC-162B-4434-A3B9-3602CBDC4A14}"/>
+    <hyperlink ref="F127" r:id="rId98" tooltip="https://github.com/bitstadium/HockeySDK-Android/issues/351" xr:uid="{20AA305C-86C8-48B8-9DCB-A80E2A6FF787}"/>
+    <hyperlink ref="F131" r:id="rId99" xr:uid="{28332322-B27C-4CFF-A1C3-E94E9954A876}"/>
+    <hyperlink ref="F134" r:id="rId100" xr:uid="{6A7D1152-5F33-4988-9E97-FA3D375BA857}"/>
+    <hyperlink ref="F128" r:id="rId101" xr:uid="{6A8399DA-5416-41FD-9BE7-C90FF9DA36F4}"/>
+    <hyperlink ref="F129" r:id="rId102" xr:uid="{7E756C3F-56AF-4CD2-8215-7CD6FFAC8922}"/>
+    <hyperlink ref="F130" r:id="rId103" xr:uid="{510F6483-2F17-414B-93C8-954C829F3321}"/>
+    <hyperlink ref="F135" r:id="rId104" xr:uid="{CDC9434F-1418-40F8-9A0E-D00DE8C2C8F6}"/>
+    <hyperlink ref="F136" r:id="rId105" xr:uid="{804D3370-85B1-4514-A01C-F2F73B9A3C2A}"/>
+    <hyperlink ref="F137" r:id="rId106" xr:uid="{8C988ED7-D28F-4EAE-80DF-4488D7853F32}"/>
+    <hyperlink ref="F138" r:id="rId107" xr:uid="{FA05BF77-DF93-4C58-83DE-C5E550D20B0B}"/>
+    <hyperlink ref="F139" r:id="rId108" tooltip="https://github.com/broakenmedia/MultiContactPicker/issues/3" xr:uid="{6B29F405-FFD3-422D-9A58-95C346C4FB58}"/>
+    <hyperlink ref="F140" r:id="rId109" xr:uid="{26A76049-D702-4EDE-89CB-E40FC8AF80AC}"/>
+    <hyperlink ref="F141" r:id="rId110" tooltip="https://github.com/LuckSiege/PictureSelector/issues/189" xr:uid="{87AD6884-D48F-4F7C-A792-3B702E4DAD4B}"/>
+    <hyperlink ref="F142" r:id="rId111" xr:uid="{0E7759F5-FF8B-448E-8367-56074A4E8388}"/>
+    <hyperlink ref="F155" r:id="rId112" xr:uid="{5EF27FAC-BAFF-423C-9F1C-965C47C3BEED}"/>
+    <hyperlink ref="F156" r:id="rId113" xr:uid="{66BF3499-D9F2-4400-8360-52EAA3568045}"/>
+    <hyperlink ref="F143" r:id="rId114" xr:uid="{7E680D78-DE46-473C-8DA8-81A43FA4C181}"/>
+    <hyperlink ref="F144" r:id="rId115" xr:uid="{04CA3D48-91B6-48F2-9E55-D829A9BBC6E2}"/>
+    <hyperlink ref="F145" r:id="rId116" xr:uid="{2ADD2B63-1F22-4774-B44A-F3760CDC6ACE}"/>
+    <hyperlink ref="F146" r:id="rId117" xr:uid="{0662980E-76F9-404D-9516-2C937B9D6DFA}"/>
+    <hyperlink ref="F147" r:id="rId118" xr:uid="{328E488E-EFA8-4843-80F7-96581665B782}"/>
+    <hyperlink ref="F157" r:id="rId119" xr:uid="{27607877-6C0C-4C80-B1EC-3D757FA00CAB}"/>
+    <hyperlink ref="F149" r:id="rId120" xr:uid="{771A28B4-FB6B-484F-B20C-37D71B685B1E}"/>
+    <hyperlink ref="F150" r:id="rId121" tooltip="https://github.com/dlazaro66/QRCodeReaderView/issues/129" xr:uid="{5E532925-5182-4C7A-A274-8483CD7BB7DC}"/>
+    <hyperlink ref="F151" r:id="rId122" xr:uid="{452474C7-E4DB-48F9-BE1B-5221B9EE1576}"/>
+    <hyperlink ref="F152" r:id="rId123" xr:uid="{A1C6F64F-20B3-48B6-A18A-1851AA40A576}"/>
+    <hyperlink ref="F153" r:id="rId124" xr:uid="{EBEB2864-E2DA-4362-8C6C-87DA5F9B2544}"/>
+    <hyperlink ref="F158" r:id="rId125" xr:uid="{FA75B0FF-0C10-4BC3-827A-9032CBE3FEB3}"/>
+    <hyperlink ref="F154" r:id="rId126" tooltip="https://github.com/yuriy-budiyev/code-scanner/issues/76" xr:uid="{87DB9B4E-AB7A-46DC-AD44-1B7100C92FCF}"/>
+    <hyperlink ref="F148" r:id="rId127" xr:uid="{4660277C-2106-4F25-9536-DFF35BBB2F54}"/>
+    <hyperlink ref="F71" r:id="rId128" xr:uid="{F50B0B7D-64BE-4986-98D5-DCC67C77A8B7}"/>
+    <hyperlink ref="F72" r:id="rId129" xr:uid="{7A137461-E822-4644-94CC-059045341F67}"/>
+    <hyperlink ref="F91" r:id="rId130" xr:uid="{5943BDEF-3011-428B-9A89-AE7FCCD51CAC}"/>
+    <hyperlink ref="F92" r:id="rId131" tooltip="https://github.com//openfoodfacts/openfoodfacts-androidapp/pull/977" xr:uid="{C8966B9B-8404-49D4-AB00-8BD6BE8D6FDF}"/>
+    <hyperlink ref="F93" r:id="rId132" xr:uid="{A0C7F0C8-42DA-4052-8FEF-9D72CBF28CAB}"/>
+    <hyperlink ref="F89" r:id="rId133" xr:uid="{FB1A998D-3C6A-4F27-BBFE-7AFBA4C5FCF3}"/>
+    <hyperlink ref="F90" r:id="rId134" xr:uid="{AB663385-D117-40B4-BC3D-F4FE10425825}"/>
+    <hyperlink ref="F74" r:id="rId135" xr:uid="{DD32EB4D-A96B-4B43-B695-C91F18C54672}"/>
+    <hyperlink ref="F75" r:id="rId136" xr:uid="{6258DD84-8ADC-4C14-B027-EF1CB1B48462}"/>
+    <hyperlink ref="F78" r:id="rId137" xr:uid="{BF2632BD-6F04-4B50-9FD8-FC4C6E8E8158}"/>
+    <hyperlink ref="F77" r:id="rId138" xr:uid="{E008ACAF-DC86-403A-B1C8-A8E8E80C9722}"/>
+    <hyperlink ref="F94" r:id="rId139" xr:uid="{93677AC7-C48D-4D90-BD6C-AF480172C948}"/>
+    <hyperlink ref="F85" r:id="rId140" tooltip="https://github.com/Etar-Group/Etar-Calendar/issues/75" xr:uid="{E12CDC10-1A03-41CC-8F4D-CA07C5009700}"/>
+    <hyperlink ref="F76" r:id="rId141" xr:uid="{36B5799C-6DA1-427B-B6B2-6D11318BF792}"/>
+    <hyperlink ref="F95" r:id="rId142" xr:uid="{C2FA1E08-3CA0-4685-9DB0-62D07AE478FD}"/>
+    <hyperlink ref="F79" r:id="rId143" xr:uid="{A9B61412-60E4-489F-8051-796903BA68D9}"/>
+    <hyperlink ref="F81" r:id="rId144" xr:uid="{58AFFE23-E20F-48DD-AFAC-15CEBD24C3F6}"/>
+    <hyperlink ref="F82" r:id="rId145" xr:uid="{348BE251-FBE4-4B14-9C9C-E266EA2F8CA9}"/>
+    <hyperlink ref="F83" r:id="rId146" xr:uid="{B800AF4D-7A72-487C-A418-308CEE8BD26E}"/>
+    <hyperlink ref="F84" r:id="rId147" xr:uid="{C6B3ED6F-3EB5-4AF9-9758-77F730110C26}"/>
+    <hyperlink ref="F87" r:id="rId148" xr:uid="{80796F83-AF18-4594-A8DC-AC064D000A93}"/>
+    <hyperlink ref="F80" r:id="rId149" xr:uid="{C872901B-29CF-43E2-AB22-D518D7C52FD5}"/>
+    <hyperlink ref="F86" r:id="rId150" xr:uid="{26C4F972-2F33-4DB6-8E94-DE818D7DDF2B}"/>
+    <hyperlink ref="F101" r:id="rId151" xr:uid="{A8E12036-54B1-42B1-B238-D81B554F7F41}"/>
+    <hyperlink ref="F102" r:id="rId152" xr:uid="{AB5ED15A-BC1E-4BF8-868B-573F9C843DE2}"/>
+    <hyperlink ref="F57" r:id="rId153" tooltip="https://github.com/hedzr/android-file-chooser/issues/73" xr:uid="{CA501C01-5AE7-458F-B30F-AC8247434ACA}"/>
+    <hyperlink ref="F73" r:id="rId154" xr:uid="{0A3CF3DF-23A2-4880-AAEE-ACC14F735002}"/>
+    <hyperlink ref="F132" r:id="rId155" xr:uid="{844DFD88-E119-4EAC-A069-9BC48FBBB3DE}"/>
+    <hyperlink ref="F88" r:id="rId156" xr:uid="{DB24C1DF-A606-4705-B340-8F6C51DB806D}"/>
+    <hyperlink ref="F4" r:id="rId157" xr:uid="{E851BB10-DB7A-4C1C-A064-52932C902FFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId158"/>

--- a/Github Issues.xlsx
+++ b/Github Issues.xlsx
@@ -1,41 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyb\Desktop\ARP-issues.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AndroidPermission\EP-Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB14ECC-0C10-4EA5-A52A-1D90C796B938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C6FD3F-ED02-4093-8527-C11F0851F35D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A6ADBFC8-225E-4F88-98AE-4FFB5B264DE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{A6ADBFC8-225E-4F88-98AE-4FFB5B264DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Issues!$C$1:$C$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Issues!$C$1:$C$220</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="522">
   <si>
     <t>Non-library-interfered  issues</t>
   </si>
@@ -454,17 +448,6 @@
     <t>VREMSoftwareDevelopment/WiFiAnalyzer</t>
   </si>
   <si>
-    <t>https://github.com/kiwix/kiwix-android/issues/1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiwix/kiwix-android</t>
-  </si>
-  <si>
     <t>BramBonne/privacypolice</t>
   </si>
   <si>
@@ -555,14 +538,6 @@
   </si>
   <si>
     <t>#65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/permissions-dispatcher/PermissionsDispatcher/issues/646</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#646</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2064,64 +2039,209 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapsforge/mapsforge</t>
+  </si>
+  <si>
+    <t>Type 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Karumi/Dexter/issues/229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/react-native-community/react-native-device-info/pull/269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bitstadium/HockeySDK-Android/issues/356</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitstadium/HockeySDK-Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#356</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bitstadium/HockeySDK-Android/issues/382</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#382</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/owncloud/android/issues/1343</t>
+  </si>
+  <si>
+    <t>https://github.com//Karumi/Dexter/issues/240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/wordpress-mobile/WordPress-Android/issues/3115</t>
+  </si>
+  <si>
+    <t>https://github.com/moezbhatti/qksms/issues/567</t>
+  </si>
+  <si>
+    <t>https://github.com/ligi/PassAndroid/commit/3f020c4ab05eba202e0a4cc3d038273128335800</t>
+  </si>
+  <si>
+    <t>https://github.com/PaulWoitaschek/Voice/issues/349</t>
+  </si>
+  <si>
+    <t>https://github.com/mauron85/react-native-background-geolocation/issues/504</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamAmaze/AmazeFileManager/pull/1906</t>
+  </si>
+  <si>
+    <t>https://github.com/bpellin/keepassdroid/commit/ff711182d7205089b634c797f19e0cde21801723</t>
+  </si>
+  <si>
+    <t>https://github.com/mozilla-mobile/focus-android/issues/14</t>
+  </si>
+  <si>
+    <t>https://github.com/ukanth/afwall/commit/548f0bbaf4a2c2dc50e184889dec9e7700d4d6ec</t>
+  </si>
+  <si>
+    <t>https://github.com/termux/termux-api/issues/19</t>
+  </si>
+  <si>
+    <t>https://github.com/Swati4star/Images-to-PDF/pull/965</t>
+  </si>
+  <si>
+    <t>https://github.com/Kaljurand/K6nele/issues/43</t>
+  </si>
+  <si>
+    <t>https://github.com/brarcher/loyalty-card-locker/issues/12</t>
+  </si>
+  <si>
+    <t>https://github.com/qqq3/good-weather/issues/3</t>
+  </si>
+  <si>
+    <t>https://github.com/project-travel-mate/Travel-Mate/issues/566</t>
+  </si>
+  <si>
+    <t>https://github.com/fossasia/pslab-android/issues/343</t>
+  </si>
+  <si>
+    <t>https://github.com/kontalk/androidclient/issues/1167</t>
+  </si>
+  <si>
+    <t>https://github.com/dmfs/opentasks/issues/407</t>
+  </si>
+  <si>
+    <t>https://github.com/commons-app/apps-android-commons/pull/1695</t>
+  </si>
+  <si>
+    <t>https://github.com/trello/RxLifecycle/issues/326</t>
+  </si>
+  <si>
+    <t>https://github.com/syncthing/syncthing-android/pull/1575</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/VREMSoftwareDevelopment/WiFiAnalyzer/issues/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/VREMSoftwareDevelopment/WiFiAnalyzer/issues/331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/kiwix/kiwix-android/commit/8349f6d380a1a54576b34c08bc5b95f6324413f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/termux/termux-api/issues/268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/termux/termux-api/pull/375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/openhab/openhab-android/issues/1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/openhab/openhab-android/pull/2059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/labexp/osmtracker-android/issues/207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/deltachat/deltachat-android/issues/1522</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/termux/termux-api/issues/363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/osmandapp/OsmAnd/issues/10782</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/android-password-store/Android-Password-Store/issues/518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://github.com/mapsforge/mapsforge/issues/717</t>
-  </si>
-  <si>
-    <t>#717</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapsforge/mapsforge</t>
-  </si>
-  <si>
-    <t>Type 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strategy 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/Karumi/Dexter/issues/229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/react-native-community/react-native-device-info/pull/269</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#269</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bitstadium/HockeySDK-Android/issues/356</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitstadium/HockeySDK-Android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#356</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bitstadium/HockeySDK-Android/issues/382</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#382</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/owncloud/android/issues/1343</t>
-  </si>
-  <si>
-    <t>https://github.com//Karumi/Dexter/issues/240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/aaronjwood/PortAuthority/issues/112</t>
+  </si>
+  <si>
+    <t>https://github.com/kiwix/kiwix-android/pull/2432</t>
+  </si>
+  <si>
+    <t>https://github.com/aaronjwood/PortAuthority/commit/d95bfc2735941d0f19a8efe1a7485ae8a80ad45c</t>
+  </si>
+  <si>
+    <t>https://github.com/openhab/openhab-android/issues/2047</t>
+  </si>
+  <si>
+    <t>https://github.com/deltachat/deltachat-android/pull/1551</t>
+  </si>
+  <si>
+    <t>https://github.com/fAndreuzzi/TUI-ConsoleLauncher/issues/300</t>
+  </si>
+  <si>
+    <t>https://github.com/termux/termux-api/issues/279</t>
+  </si>
+  <si>
+    <t>https://github.com/kiwix/kiwix-android/issues/2292</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/kiwix/kiwix-android/pull/2453</t>
+  </si>
+  <si>
+    <t>https://github.com/chrisboyle/sgtpuzzles/issues/276</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2129,7 +2249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2221,6 +2341,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2324,7 +2453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2388,11 +2517,17 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2402,72 +2537,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFE7F6DE"/>
       <color rgb="FFD6F0C6"/>
@@ -2500,7 +2569,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2847,17 +2916,17 @@
     </row>
     <row r="11" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2870,37 +2939,37 @@
     </row>
     <row r="16" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4835,10 +4904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0D53C4-C210-4176-8EEA-224DB90158C3}">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="D106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4856,16 +4925,16 @@
         <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>16</v>
@@ -4876,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>14</v>
@@ -4885,7 +4954,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>12</v>
@@ -4905,7 +4974,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>17</v>
@@ -4925,10 +4994,10 @@
         <v>15</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4945,7 +5014,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>22</v>
@@ -4965,7 +5034,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>25</v>
@@ -4985,7 +5054,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>28</v>
@@ -5005,7 +5074,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>31</v>
@@ -5025,7 +5094,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>37</v>
@@ -5045,7 +5114,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>40</v>
@@ -5056,19 +5125,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5085,7 +5154,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>43</v>
@@ -5105,7 +5174,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>46</v>
@@ -5116,7 +5185,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>19</v>
@@ -5125,258 +5194,222 @@
         <v>15</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F15" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>14</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>55</v>
@@ -5385,2814 +5418,3429 @@
         <v>52</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="D44" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>401</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>385</v>
+        <v>116</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D45" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>400</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
-        <v>45</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="13" t="s">
+      <c r="A46" s="5">
+        <v>41</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
         <v>42</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
-        <v>46</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>423</v>
+      <c r="B47" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
-        <v>47</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>424</v>
+      <c r="A48" s="5">
+        <v>43</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
-        <v>48</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>454</v>
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12">
-        <v>49</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>425</v>
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>403</v>
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>146</v>
+        <v>503</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>403</v>
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>143</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12">
-        <v>53</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>149</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12">
-        <v>54</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>151</v>
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12">
-        <v>55</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>182</v>
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12">
-        <v>56</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>150</v>
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12">
-        <v>57</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>152</v>
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12">
-        <v>58</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>153</v>
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12">
-        <v>59</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>154</v>
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12">
-        <v>60</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>155</v>
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12">
-        <v>61</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>156</v>
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12">
-        <v>62</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>170</v>
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12">
-        <v>63</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>157</v>
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12">
-        <v>64</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>158</v>
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
-        <v>65</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>404</v>
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>386</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
-        <v>66</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>404</v>
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>408</v>
+        <v>520</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>193</v>
+        <v>380</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>187</v>
+        <v>378</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>188</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
-        <v>68</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>404</v>
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>394</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>405</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
-        <v>69</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>407</v>
+      <c r="A70" s="12">
+        <v>46</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>353</v>
+        <v>130</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>369</v>
+        <v>131</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>411</v>
+        <v>132</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>443</v>
+        <v>133</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>395</v>
+        <v>466</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>473</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>354</v>
+        <v>126</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="12">
-        <v>74</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>464</v>
+      <c r="A75" s="5">
+        <v>50</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="12">
-        <v>75</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>362</v>
+      <c r="A76" s="5">
+        <v>51</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="12">
-        <v>76</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>465</v>
+      <c r="A77" s="5">
+        <v>52</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>357</v>
+        <v>155</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>373</v>
+        <v>170</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>466</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>419</v>
+        <v>157</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>420</v>
+        <v>172</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>418</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>359</v>
+        <v>163</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>371</v>
+        <v>178</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>467</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>365</v>
+        <v>156</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>364</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>375</v>
+        <v>173</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>349</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>376</v>
+        <v>174</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>350</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>377</v>
+        <v>175</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>351</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>360</v>
+        <v>162</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>378</v>
+        <v>176</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>352</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="12">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>366</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>368</v>
+        <v>166</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>379</v>
+        <v>180</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>367</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>469</v>
+        <v>167</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>470</v>
+        <v>169</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>471</v>
+        <v>143</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="F88" s="21" t="s">
-        <v>468</v>
+        <v>394</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>413</v>
+        <v>168</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>414</v>
+        <v>181</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="12">
-        <v>89</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>417</v>
-      </c>
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
       <c r="D90" s="12" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F90" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
+        <v>65</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
+        <v>66</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
+        <v>67</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
+        <v>68</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
+        <v>69</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="12">
+        <v>70</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F96" s="14" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="12">
-        <v>90</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="12">
-        <v>91</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="12">
-        <v>92</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="12">
-        <v>93</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="12">
-        <v>94</v>
-      </c>
-      <c r="B95" s="13" t="s">
+    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="12">
+        <v>71</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="12">
+        <v>72</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="12">
+        <v>73</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="12">
+        <v>74</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="12">
+        <v>75</v>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C95" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
-        <v>95</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
-        <v>96</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
-        <v>97</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
-        <v>98</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
-        <v>99</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
-        <v>100</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>387</v>
+      <c r="C101" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5">
-        <v>101</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F102" s="7" t="s">
+      <c r="A102" s="12">
+        <v>76</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E102" s="12" t="s">
         <v>390</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>232</v>
+        <v>352</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>245</v>
+        <v>368</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>215</v>
+        <v>461</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>228</v>
+        <v>414</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>244</v>
+        <v>415</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>214</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>234</v>
+        <v>354</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>245</v>
+        <v>366</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>217</v>
+        <v>462</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>483</v>
+        <v>360</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>482</v>
+        <v>359</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>245</v>
+        <v>370</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>218</v>
+        <v>344</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>475</v>
+        <v>110</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>247</v>
+        <v>371</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>474</v>
+        <v>345</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>248</v>
+        <v>372</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>247</v>
+        <v>373</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>220</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>221</v>
+        <v>361</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>106</v>
+        <v>363</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>250</v>
+        <v>374</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>222</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>239</v>
+        <v>463</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>251</v>
+        <v>464</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>213</v>
+        <v>465</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>396</v>
+        <v>466</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>223</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>233</v>
+        <v>408</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>245</v>
+        <v>409</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>216</v>
+        <v>407</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="12">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>240</v>
+        <v>410</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>252</v>
+        <v>412</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>243</v>
+        <v>411</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>241</v>
+        <v>441</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>224</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>242</v>
+        <v>356</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>253</v>
+        <v>375</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>225</v>
+        <v>342</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>248</v>
+        <v>448</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>226</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5">
-        <v>118</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F119" s="22" t="s">
-        <v>476</v>
+      <c r="A119" s="12"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5">
-        <v>119</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>456</v>
+      <c r="A120" s="12"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5">
-        <v>120</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>459</v>
+      <c r="A121" s="12"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5">
-        <v>121</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>256</v>
+      <c r="A122" s="12"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="5">
-        <v>122</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>457</v>
+      <c r="A123" s="12"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="5">
-        <v>123</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>479</v>
+      <c r="A124" s="12"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5">
-        <v>124</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>458</v>
+      <c r="A125" s="12"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5">
-        <v>125</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>257</v>
+      <c r="A126" s="12"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5">
-        <v>126</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>259</v>
+      <c r="A127" s="12"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
-        <v>127</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
-        <v>128</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="5">
-        <v>129</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C130" s="6" t="s">
+      <c r="A128" s="12"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="12"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="12"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="12"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="12"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="12">
+        <v>94</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E133" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="5">
-        <v>130</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5">
-        <v>131</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="5">
-        <v>132</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>255</v>
+      <c r="F133" s="14" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="5">
+      <c r="A134" s="12">
+        <v>93</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="5">
+        <v>95</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="5">
+        <v>96</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="5">
+        <v>97</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="5">
+        <v>98</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="5">
+        <v>99</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E134" s="5" t="s">
+      <c r="C139" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E139" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="F134" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="12">
-        <v>134</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="12">
-        <v>135</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="12">
-        <v>136</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E137" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F137" s="14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="12">
-        <v>137</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F138" s="14" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="12">
-        <v>138</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F139" s="14" t="s">
-        <v>288</v>
+      <c r="F139" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="12">
-        <v>139</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F140" s="14" t="s">
-        <v>289</v>
+      <c r="A140" s="5">
+        <v>100</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="12">
-        <v>140</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E141" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F141" s="14" t="s">
-        <v>290</v>
+      <c r="A141" s="5">
+        <v>101</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="12">
-        <v>141</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E142" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>322</v>
+      <c r="A142" s="5"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="12">
-        <v>142</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>293</v>
+      <c r="A143" s="5"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="12">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>294</v>
+        <v>210</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>313</v>
+        <v>223</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="12">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>296</v>
+        <v>212</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="12">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>315</v>
+        <v>477</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>338</v>
+        <v>241</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>297</v>
+        <v>476</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="12">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>320</v>
+        <v>213</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>166</v>
+        <v>469</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>341</v>
+        <v>242</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>299</v>
+        <v>468</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="12">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>317</v>
+        <v>231</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>300</v>
+        <v>214</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="12">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>301</v>
+        <v>215</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="12">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>302</v>
+        <v>216</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="12">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>303</v>
+        <v>217</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="12">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>305</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="12">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>291</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="12">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>336</v>
+        <v>247</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>316</v>
+        <v>236</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>339</v>
+        <v>242</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="12">
+        <v>116</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="12">
+        <v>117</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="12"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="5">
+        <v>118</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F161" s="21" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="5">
+        <v>119</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="5">
+        <v>120</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="5">
+        <v>121</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="5">
+        <v>122</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="5">
+        <v>123</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="5">
+        <v>124</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="5">
+        <v>125</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="5">
+        <v>126</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="5">
+        <v>127</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="5">
+        <v>128</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="5">
+        <v>129</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="5">
+        <v>130</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="5">
+        <v>131</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="5">
+        <v>132</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="5">
+        <v>133</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="12">
+        <v>134</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="12">
+        <v>135</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="12">
+        <v>136</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="12">
+        <v>137</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="12">
+        <v>138</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="12">
+        <v>139</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="12">
+        <v>140</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="12">
+        <v>141</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="12">
+        <v>142</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D185" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="12">
+        <v>143</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="12">
+        <v>144</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="12">
+        <v>145</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="12">
+        <v>146</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="12">
+        <v>147</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="12">
+        <v>148</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F191" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="12">
+        <v>149</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="12">
+        <v>150</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F193" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="12">
+        <v>151</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F194" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="12">
+        <v>152</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="12">
+        <v>153</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E196" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F196" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="12">
+        <v>154</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="12">
+        <v>155</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="F198" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="12">
+        <v>156</v>
+      </c>
+      <c r="B199" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="12">
         <v>157</v>
       </c>
-      <c r="B158" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E158" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F158" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B200" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E200" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{3B415DAD-2367-4C37-8972-A06047674D39}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{5EA8ECBC-DAB7-47D6-938C-C5F448138EA4}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{E36FCC59-17D8-40D4-8A2D-C025D3D2858A}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{D0B968EA-44D8-4D2C-96D4-E7E319518A84}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{6436E916-6010-4BBF-8D4E-1256C839BBAD}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{628B15F6-FD8C-4B92-92B8-4D81BC5363C6}"/>
-    <hyperlink ref="F15" r:id="rId7" xr:uid="{CE6B82F9-81D3-4912-AACD-656326B21C73}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{00CCC760-197B-40BB-A433-EB601F533780}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{B1B118DC-4C63-4502-9E15-E1F749044113}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{5261EFF1-B589-43BE-94F6-27D7674DB791}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{07A8B24F-BB28-43F0-8FD8-3125883080C2}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{E11D326A-A517-4E37-BD52-9B092F24CF20}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{535D3146-155E-4070-AD4D-23C3CC222941}"/>
-    <hyperlink ref="F16" r:id="rId14" xr:uid="{FE34CF41-FC3C-4B99-AF03-35B45AD7791D}"/>
-    <hyperlink ref="F17" r:id="rId15" xr:uid="{B4EC6143-2FEB-44DD-AEC5-EA2AA270253C}"/>
-    <hyperlink ref="F18" r:id="rId16" xr:uid="{8E588514-5638-4E37-86BF-AB18DCADE9AD}"/>
-    <hyperlink ref="F19" r:id="rId17" xr:uid="{051FEDEB-A78F-4BD6-8DC0-3AAA4AF5F115}"/>
-    <hyperlink ref="F20" r:id="rId18" xr:uid="{19F055C1-9871-4D82-A9BA-6C5B2D9F531D}"/>
-    <hyperlink ref="F21" r:id="rId19" xr:uid="{430093D9-697D-40D1-80BF-FDB40D249B34}"/>
-    <hyperlink ref="F22" r:id="rId20" xr:uid="{B4D661A2-10F6-46D6-B1F1-1CD5769B695E}"/>
-    <hyperlink ref="F23" r:id="rId21" xr:uid="{B984B976-6AAB-41D2-A6AD-5BBE2BF24446}"/>
-    <hyperlink ref="F24" r:id="rId22" xr:uid="{02CA3620-16E0-4A57-838C-61B1746F8941}"/>
-    <hyperlink ref="F25" r:id="rId23" xr:uid="{55EF74EA-CE62-402C-8A73-CF73886CC115}"/>
-    <hyperlink ref="F26" r:id="rId24" xr:uid="{B3F43A38-372B-462D-B14B-553A08B52D7A}"/>
-    <hyperlink ref="F27" r:id="rId25" xr:uid="{62C7393C-DB3F-4A48-81C4-9706EE461758}"/>
-    <hyperlink ref="F28" r:id="rId26" xr:uid="{6D6F34D9-F552-48A5-8B50-E1B4BC1E3ABF}"/>
-    <hyperlink ref="F29" r:id="rId27" xr:uid="{9D5639D8-E886-4D7A-887D-B2C42DF7D548}"/>
-    <hyperlink ref="F30" r:id="rId28" xr:uid="{FC6E20E4-93C8-4E75-8760-D62D25F6EF8A}"/>
-    <hyperlink ref="F31" r:id="rId29" xr:uid="{FB9E06E7-4EC5-443A-A7E2-07C98002A37C}"/>
-    <hyperlink ref="F32" r:id="rId30" xr:uid="{E402C290-3738-4646-AFBF-F3A177B14645}"/>
-    <hyperlink ref="F33" r:id="rId31" xr:uid="{294CB2FE-DA74-487F-BC73-98262B705527}"/>
-    <hyperlink ref="F34" r:id="rId32" xr:uid="{4E2C2767-F883-40D4-A047-FBE20A7F1335}"/>
-    <hyperlink ref="F35" r:id="rId33" xr:uid="{F819E65D-949C-4801-9767-7FFA88555660}"/>
-    <hyperlink ref="F36" r:id="rId34" xr:uid="{2328B616-FB0E-4C57-8430-5B5DDECF3523}"/>
-    <hyperlink ref="F37" r:id="rId35" xr:uid="{D7C94FBB-0BB5-4F73-B374-730B1CAB7440}"/>
-    <hyperlink ref="F38" r:id="rId36" xr:uid="{08178725-6C30-4633-8CDF-A0A4C1BCC879}"/>
-    <hyperlink ref="F39" r:id="rId37" xr:uid="{7658D531-9DE6-44E7-8108-4EFAA21ECE3D}"/>
-    <hyperlink ref="F40" r:id="rId38" xr:uid="{1C027DF7-9A75-43EC-A5E4-A8944EDF58AD}"/>
-    <hyperlink ref="F41" r:id="rId39" xr:uid="{548D4987-5940-4834-9CC4-3660009F85DB}"/>
-    <hyperlink ref="F42" r:id="rId40" xr:uid="{B6E749D4-4E09-45A7-88BD-0F64395CE955}"/>
-    <hyperlink ref="F43" r:id="rId41" xr:uid="{ACACE800-48C3-4693-AD13-5DB450248D72}"/>
-    <hyperlink ref="F45" r:id="rId42" xr:uid="{B604D51A-317B-4354-8D33-F41080B3B86C}"/>
-    <hyperlink ref="F44" r:id="rId43" xr:uid="{80D329E6-0BB0-4A86-BCC0-05A5B381982E}"/>
-    <hyperlink ref="F46" r:id="rId44" xr:uid="{E574B7E9-C211-43A6-A680-CCC3F7F8583B}"/>
-    <hyperlink ref="F47" r:id="rId45" xr:uid="{03FD922C-82F9-4E12-AD17-F3936FA02A6A}"/>
-    <hyperlink ref="F48" r:id="rId46" xr:uid="{2667900E-A747-4B1F-AE1F-5319253247EF}"/>
-    <hyperlink ref="F49" r:id="rId47" xr:uid="{7A2F7260-C29C-405E-BA43-456B3FC856FC}"/>
-    <hyperlink ref="F50" r:id="rId48" xr:uid="{AE788CB9-1BDF-4EF1-80F2-12240DA197D1}"/>
-    <hyperlink ref="F53" r:id="rId49" xr:uid="{019819F2-31B5-4B0F-B77C-C3235535348A}"/>
-    <hyperlink ref="F52" r:id="rId50" xr:uid="{77DF8D3A-2E63-423E-A072-5A8FB2E49864}"/>
-    <hyperlink ref="F51" r:id="rId51" xr:uid="{F02251CF-F879-4B4E-8761-AA63C9D8E142}"/>
-    <hyperlink ref="F65" r:id="rId52" tooltip="https://github.com/LuckSiege/PictureSelector/issues/624" xr:uid="{6E071450-7BA4-47CC-A605-D7833CE0187A}"/>
-    <hyperlink ref="F64" r:id="rId53" tooltip="https://github.com/exozet/Geolocator/issues/5" xr:uid="{576C6025-6F20-46F6-A7CE-B588057BDADA}"/>
-    <hyperlink ref="F63" r:id="rId54" xr:uid="{B9C5EDD3-9532-4F56-BCC5-BEA9C4C94F7C}"/>
-    <hyperlink ref="F61" r:id="rId55" tooltip="https://github.com/xuyisheng/ShortcutHelper/issues/14" xr:uid="{A808D7F5-8218-440B-9DE8-5EA4CB7608DB}"/>
-    <hyperlink ref="F60" r:id="rId56" tooltip="https://github.com/federicoiosue/Omni-Notes/issues/695" xr:uid="{E7513593-2100-4398-9DC9-922BF80CA832}"/>
-    <hyperlink ref="F58" r:id="rId57" tooltip="https://github.com/TeamNewPipe/NewPipe/issues/1998" xr:uid="{3ECCEC13-8091-4E35-BAF8-8290F2C895A3}"/>
-    <hyperlink ref="F55" r:id="rId58" tooltip="https://github.com/ThanosFisherman/WifiUtils/issues/38" xr:uid="{72816035-4CAA-4121-8FCC-0AA3C8B70AE8}"/>
-    <hyperlink ref="F54" r:id="rId59" xr:uid="{0B817655-577D-47BC-877F-80C5F482798F}"/>
-    <hyperlink ref="F59" r:id="rId60" xr:uid="{8001AFA2-E6FA-4B67-9F7A-89FC705A625A}"/>
-    <hyperlink ref="F56" r:id="rId61" xr:uid="{416D9ECF-5759-4002-BDD9-886A3FE800FE}"/>
-    <hyperlink ref="F62" r:id="rId62" xr:uid="{2C0F189C-5CDC-48F4-8FF2-AEC97A4534E2}"/>
-    <hyperlink ref="F70" r:id="rId63" xr:uid="{6C7995B7-11C7-4EA5-A2FF-BCC55BF05F3A}"/>
-    <hyperlink ref="F69" r:id="rId64" xr:uid="{1DA6EB14-3821-431C-907B-CC03E7E7A070}"/>
-    <hyperlink ref="F68" r:id="rId65" tooltip="https://github.com/BelledonneCommunications/linphone-android/issues/837" xr:uid="{015AF2DF-D8EF-4CB7-80BD-CC3B3E7BCA99}"/>
-    <hyperlink ref="F67" r:id="rId66" xr:uid="{6B4C8BF2-2E6B-44BE-B5DB-AE495E315906}"/>
-    <hyperlink ref="F66" r:id="rId67" xr:uid="{227F46C1-D334-4FA7-AD00-AD1BEC9C230E}"/>
-    <hyperlink ref="F96" r:id="rId68" tooltip="https://github.com/qiangxi/CheckUpdateLibrary/issues/12" xr:uid="{A6706568-FC0F-40E4-806B-4C05B55E708A}"/>
-    <hyperlink ref="F97" r:id="rId69" xr:uid="{BC293894-9A3B-4850-B1F8-169FDA81C4E1}"/>
-    <hyperlink ref="F98" r:id="rId70" tooltip="https://github.com/mapbox/mapbox-events-android/issues/395" xr:uid="{550FE89D-E410-4311-931A-E1F1673933E1}"/>
-    <hyperlink ref="F99" r:id="rId71" tooltip="https://github.com/Swati4star/Images-to-PDF/issues/669" xr:uid="{A690957E-06E4-406F-8B31-6C2848D1EB5F}"/>
-    <hyperlink ref="F100" r:id="rId72" tooltip="https://github.com/ravi8x/Barcode-Reader/issues/2" xr:uid="{CA10CB01-6899-41D6-A144-686199DC27B5}"/>
-    <hyperlink ref="F104" r:id="rId73" tooltip="https://github.com//pwittchen/ReactiveBeacons/issues/76" xr:uid="{530232E0-ED7F-4362-9128-F563917E2228}"/>
-    <hyperlink ref="F103" r:id="rId74" xr:uid="{F8B04DE3-86F6-4A31-8E5F-6680E1F4E1A0}"/>
-    <hyperlink ref="F114" r:id="rId75" xr:uid="{98060211-8D06-4B88-B82B-FC0C348B7009}"/>
-    <hyperlink ref="F105" r:id="rId76" xr:uid="{37465F12-6B10-4107-9C7F-00383F104906}"/>
-    <hyperlink ref="F106" r:id="rId77" xr:uid="{DEAA2BA4-B4BA-4320-B17D-311BE181E266}"/>
-    <hyperlink ref="F108" r:id="rId78" xr:uid="{92119593-6CA3-462B-8B37-425B1E05087C}"/>
-    <hyperlink ref="F109" r:id="rId79" tooltip="https://github.com/scottyab/secure-preferences/issues/72" xr:uid="{8A860968-4A04-4FE3-A177-18548A814BD4}"/>
-    <hyperlink ref="F110" r:id="rId80" tooltip="https://github.com/react-native-community/react-native-device-info/pull/565" xr:uid="{99C69A60-994A-4499-8588-B84F59A011EB}"/>
-    <hyperlink ref="F111" r:id="rId81" tooltip="https://github.com/bantucracy/ayanda/issues/17" xr:uid="{DC2CA06F-320B-4979-8582-EE18DD0DFAF6}"/>
-    <hyperlink ref="F112" r:id="rId82" xr:uid="{D85B5C55-40AD-4337-AC2F-2D96B7619799}"/>
-    <hyperlink ref="F113" r:id="rId83" tooltip="https://github.com/massivedisaster/ADAL/issues/134" xr:uid="{40337FD4-F73B-4FD6-88FE-0D80A65C5464}"/>
-    <hyperlink ref="F115" r:id="rId84" xr:uid="{FCB3FC00-9E29-44F0-A609-DF1A990AB875}"/>
-    <hyperlink ref="F116" r:id="rId85" tooltip="https://github.com/react-native-community/react-native-device-info/issues/595" xr:uid="{36B8CBC0-C7DB-475A-BFAC-1F549A30A985}"/>
-    <hyperlink ref="F117" r:id="rId86" tooltip="https://github.com/line/line-sdk-android/issues/27" xr:uid="{A94B1D1B-6E44-47AC-B376-B40725A15AE1}"/>
-    <hyperlink ref="F118" r:id="rId87" tooltip="https://github.com/scottyab/secure-preferences/issues/88" xr:uid="{A2EB8418-3013-44DB-B8E3-A607982FCCD8}"/>
-    <hyperlink ref="F107" r:id="rId88" xr:uid="{5C0D8E00-A3E9-4854-8DA3-F6D52961C6E9}"/>
-    <hyperlink ref="F133" r:id="rId89" tooltip="https://github.com/Tamsiree/RxTool/issues/109" xr:uid="{0A5C4E84-9756-41F5-AF3F-B113D089B270}"/>
-    <hyperlink ref="F119" r:id="rId90" xr:uid="{24EE10E4-ECD8-46CA-88A1-86A2227A7848}"/>
-    <hyperlink ref="F120" r:id="rId91" xr:uid="{54365BB6-A8D6-4ACB-9057-5DAA97032161}"/>
-    <hyperlink ref="F121" r:id="rId92" xr:uid="{2E78E1B0-240E-488E-8B3A-2C0917ABDD93}"/>
-    <hyperlink ref="F122" r:id="rId93" tooltip="https://github.com/bitstadium/HockeySDK-Xamarin/issues/115" xr:uid="{19566EAA-8D7E-4C04-9C45-A95DAD7D9064}"/>
-    <hyperlink ref="F123" r:id="rId94" xr:uid="{C0D5268C-1ECA-432C-91A0-EDA385F7D6B2}"/>
-    <hyperlink ref="F124" r:id="rId95" xr:uid="{2E7F12D4-D366-49A0-872B-A987B79890CB}"/>
-    <hyperlink ref="F125" r:id="rId96" xr:uid="{32CE9311-E3AA-4F6F-BC54-25E8394B8100}"/>
-    <hyperlink ref="F126" r:id="rId97" tooltip="https://github.com/Applifier/unity-ads/pull/51" xr:uid="{9D2E30FC-162B-4434-A3B9-3602CBDC4A14}"/>
-    <hyperlink ref="F127" r:id="rId98" tooltip="https://github.com/bitstadium/HockeySDK-Android/issues/351" xr:uid="{20AA305C-86C8-48B8-9DCB-A80E2A6FF787}"/>
-    <hyperlink ref="F131" r:id="rId99" xr:uid="{28332322-B27C-4CFF-A1C3-E94E9954A876}"/>
-    <hyperlink ref="F134" r:id="rId100" xr:uid="{6A7D1152-5F33-4988-9E97-FA3D375BA857}"/>
-    <hyperlink ref="F128" r:id="rId101" xr:uid="{6A8399DA-5416-41FD-9BE7-C90FF9DA36F4}"/>
-    <hyperlink ref="F129" r:id="rId102" xr:uid="{7E756C3F-56AF-4CD2-8215-7CD6FFAC8922}"/>
-    <hyperlink ref="F130" r:id="rId103" xr:uid="{510F6483-2F17-414B-93C8-954C829F3321}"/>
-    <hyperlink ref="F135" r:id="rId104" xr:uid="{CDC9434F-1418-40F8-9A0E-D00DE8C2C8F6}"/>
-    <hyperlink ref="F136" r:id="rId105" xr:uid="{804D3370-85B1-4514-A01C-F2F73B9A3C2A}"/>
-    <hyperlink ref="F137" r:id="rId106" xr:uid="{8C988ED7-D28F-4EAE-80DF-4488D7853F32}"/>
-    <hyperlink ref="F138" r:id="rId107" xr:uid="{FA05BF77-DF93-4C58-83DE-C5E550D20B0B}"/>
-    <hyperlink ref="F139" r:id="rId108" tooltip="https://github.com/broakenmedia/MultiContactPicker/issues/3" xr:uid="{6B29F405-FFD3-422D-9A58-95C346C4FB58}"/>
-    <hyperlink ref="F140" r:id="rId109" xr:uid="{26A76049-D702-4EDE-89CB-E40FC8AF80AC}"/>
-    <hyperlink ref="F141" r:id="rId110" tooltip="https://github.com/LuckSiege/PictureSelector/issues/189" xr:uid="{87AD6884-D48F-4F7C-A792-3B702E4DAD4B}"/>
-    <hyperlink ref="F142" r:id="rId111" xr:uid="{0E7759F5-FF8B-448E-8367-56074A4E8388}"/>
-    <hyperlink ref="F155" r:id="rId112" xr:uid="{5EF27FAC-BAFF-423C-9F1C-965C47C3BEED}"/>
-    <hyperlink ref="F156" r:id="rId113" xr:uid="{66BF3499-D9F2-4400-8360-52EAA3568045}"/>
-    <hyperlink ref="F143" r:id="rId114" xr:uid="{7E680D78-DE46-473C-8DA8-81A43FA4C181}"/>
-    <hyperlink ref="F144" r:id="rId115" xr:uid="{04CA3D48-91B6-48F2-9E55-D829A9BBC6E2}"/>
-    <hyperlink ref="F145" r:id="rId116" xr:uid="{2ADD2B63-1F22-4774-B44A-F3760CDC6ACE}"/>
-    <hyperlink ref="F146" r:id="rId117" xr:uid="{0662980E-76F9-404D-9516-2C937B9D6DFA}"/>
-    <hyperlink ref="F147" r:id="rId118" xr:uid="{328E488E-EFA8-4843-80F7-96581665B782}"/>
-    <hyperlink ref="F157" r:id="rId119" xr:uid="{27607877-6C0C-4C80-B1EC-3D757FA00CAB}"/>
-    <hyperlink ref="F149" r:id="rId120" xr:uid="{771A28B4-FB6B-484F-B20C-37D71B685B1E}"/>
-    <hyperlink ref="F150" r:id="rId121" tooltip="https://github.com/dlazaro66/QRCodeReaderView/issues/129" xr:uid="{5E532925-5182-4C7A-A274-8483CD7BB7DC}"/>
-    <hyperlink ref="F151" r:id="rId122" xr:uid="{452474C7-E4DB-48F9-BE1B-5221B9EE1576}"/>
-    <hyperlink ref="F152" r:id="rId123" xr:uid="{A1C6F64F-20B3-48B6-A18A-1851AA40A576}"/>
-    <hyperlink ref="F153" r:id="rId124" xr:uid="{EBEB2864-E2DA-4362-8C6C-87DA5F9B2544}"/>
-    <hyperlink ref="F158" r:id="rId125" xr:uid="{FA75B0FF-0C10-4BC3-827A-9032CBE3FEB3}"/>
-    <hyperlink ref="F154" r:id="rId126" tooltip="https://github.com/yuriy-budiyev/code-scanner/issues/76" xr:uid="{87DB9B4E-AB7A-46DC-AD44-1B7100C92FCF}"/>
-    <hyperlink ref="F148" r:id="rId127" xr:uid="{4660277C-2106-4F25-9536-DFF35BBB2F54}"/>
-    <hyperlink ref="F71" r:id="rId128" xr:uid="{F50B0B7D-64BE-4986-98D5-DCC67C77A8B7}"/>
-    <hyperlink ref="F72" r:id="rId129" xr:uid="{7A137461-E822-4644-94CC-059045341F67}"/>
-    <hyperlink ref="F91" r:id="rId130" xr:uid="{5943BDEF-3011-428B-9A89-AE7FCCD51CAC}"/>
-    <hyperlink ref="F92" r:id="rId131" tooltip="https://github.com//openfoodfacts/openfoodfacts-androidapp/pull/977" xr:uid="{C8966B9B-8404-49D4-AB00-8BD6BE8D6FDF}"/>
-    <hyperlink ref="F93" r:id="rId132" xr:uid="{A0C7F0C8-42DA-4052-8FEF-9D72CBF28CAB}"/>
-    <hyperlink ref="F89" r:id="rId133" xr:uid="{FB1A998D-3C6A-4F27-BBFE-7AFBA4C5FCF3}"/>
-    <hyperlink ref="F90" r:id="rId134" xr:uid="{AB663385-D117-40B4-BC3D-F4FE10425825}"/>
-    <hyperlink ref="F74" r:id="rId135" xr:uid="{DD32EB4D-A96B-4B43-B695-C91F18C54672}"/>
-    <hyperlink ref="F75" r:id="rId136" xr:uid="{6258DD84-8ADC-4C14-B027-EF1CB1B48462}"/>
-    <hyperlink ref="F78" r:id="rId137" xr:uid="{BF2632BD-6F04-4B50-9FD8-FC4C6E8E8158}"/>
-    <hyperlink ref="F77" r:id="rId138" xr:uid="{E008ACAF-DC86-403A-B1C8-A8E8E80C9722}"/>
-    <hyperlink ref="F94" r:id="rId139" xr:uid="{93677AC7-C48D-4D90-BD6C-AF480172C948}"/>
-    <hyperlink ref="F85" r:id="rId140" tooltip="https://github.com/Etar-Group/Etar-Calendar/issues/75" xr:uid="{E12CDC10-1A03-41CC-8F4D-CA07C5009700}"/>
-    <hyperlink ref="F76" r:id="rId141" xr:uid="{36B5799C-6DA1-427B-B6B2-6D11318BF792}"/>
-    <hyperlink ref="F95" r:id="rId142" xr:uid="{C2FA1E08-3CA0-4685-9DB0-62D07AE478FD}"/>
-    <hyperlink ref="F79" r:id="rId143" xr:uid="{A9B61412-60E4-489F-8051-796903BA68D9}"/>
-    <hyperlink ref="F81" r:id="rId144" xr:uid="{58AFFE23-E20F-48DD-AFAC-15CEBD24C3F6}"/>
-    <hyperlink ref="F82" r:id="rId145" xr:uid="{348BE251-FBE4-4B14-9C9C-E266EA2F8CA9}"/>
-    <hyperlink ref="F83" r:id="rId146" xr:uid="{B800AF4D-7A72-487C-A418-308CEE8BD26E}"/>
-    <hyperlink ref="F84" r:id="rId147" xr:uid="{C6B3ED6F-3EB5-4AF9-9758-77F730110C26}"/>
-    <hyperlink ref="F87" r:id="rId148" xr:uid="{80796F83-AF18-4594-A8DC-AC064D000A93}"/>
-    <hyperlink ref="F80" r:id="rId149" xr:uid="{C872901B-29CF-43E2-AB22-D518D7C52FD5}"/>
-    <hyperlink ref="F86" r:id="rId150" xr:uid="{26C4F972-2F33-4DB6-8E94-DE818D7DDF2B}"/>
-    <hyperlink ref="F101" r:id="rId151" xr:uid="{A8E12036-54B1-42B1-B238-D81B554F7F41}"/>
-    <hyperlink ref="F102" r:id="rId152" xr:uid="{AB5ED15A-BC1E-4BF8-868B-573F9C843DE2}"/>
-    <hyperlink ref="F57" r:id="rId153" tooltip="https://github.com/hedzr/android-file-chooser/issues/73" xr:uid="{CA501C01-5AE7-458F-B30F-AC8247434ACA}"/>
-    <hyperlink ref="F73" r:id="rId154" xr:uid="{0A3CF3DF-23A2-4880-AAEE-ACC14F735002}"/>
-    <hyperlink ref="F132" r:id="rId155" xr:uid="{844DFD88-E119-4EAC-A069-9BC48FBBB3DE}"/>
-    <hyperlink ref="F88" r:id="rId156" xr:uid="{DB24C1DF-A606-4705-B340-8F6C51DB806D}"/>
-    <hyperlink ref="F4" r:id="rId157" xr:uid="{E851BB10-DB7A-4C1C-A064-52932C902FFE}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{E851BB10-DB7A-4C1C-A064-52932C902FFE}"/>
+    <hyperlink ref="F113" r:id="rId2" xr:uid="{DB24C1DF-A606-4705-B340-8F6C51DB806D}"/>
+    <hyperlink ref="F174" r:id="rId3" xr:uid="{844DFD88-E119-4EAC-A069-9BC48FBBB3DE}"/>
+    <hyperlink ref="F98" r:id="rId4" xr:uid="{0A3CF3DF-23A2-4880-AAEE-ACC14F735002}"/>
+    <hyperlink ref="F81" r:id="rId5" tooltip="https://github.com/hedzr/android-file-chooser/issues/73" xr:uid="{CA501C01-5AE7-458F-B30F-AC8247434ACA}"/>
+    <hyperlink ref="F141" r:id="rId6" xr:uid="{AB5ED15A-BC1E-4BF8-868B-573F9C843DE2}"/>
+    <hyperlink ref="F140" r:id="rId7" xr:uid="{A8E12036-54B1-42B1-B238-D81B554F7F41}"/>
+    <hyperlink ref="F111" r:id="rId8" xr:uid="{26C4F972-2F33-4DB6-8E94-DE818D7DDF2B}"/>
+    <hyperlink ref="F105" r:id="rId9" xr:uid="{C872901B-29CF-43E2-AB22-D518D7C52FD5}"/>
+    <hyperlink ref="F112" r:id="rId10" xr:uid="{80796F83-AF18-4594-A8DC-AC064D000A93}"/>
+    <hyperlink ref="F109" r:id="rId11" xr:uid="{C6B3ED6F-3EB5-4AF9-9758-77F730110C26}"/>
+    <hyperlink ref="F108" r:id="rId12" xr:uid="{B800AF4D-7A72-487C-A418-308CEE8BD26E}"/>
+    <hyperlink ref="F107" r:id="rId13" xr:uid="{348BE251-FBE4-4B14-9C9C-E266EA2F8CA9}"/>
+    <hyperlink ref="F106" r:id="rId14" xr:uid="{58AFFE23-E20F-48DD-AFAC-15CEBD24C3F6}"/>
+    <hyperlink ref="F104" r:id="rId15" xr:uid="{A9B61412-60E4-489F-8051-796903BA68D9}"/>
+    <hyperlink ref="F133" r:id="rId16" xr:uid="{C2FA1E08-3CA0-4685-9DB0-62D07AE478FD}"/>
+    <hyperlink ref="F101" r:id="rId17" xr:uid="{36B5799C-6DA1-427B-B6B2-6D11318BF792}"/>
+    <hyperlink ref="F110" r:id="rId18" tooltip="https://github.com/Etar-Group/Etar-Calendar/issues/75" xr:uid="{E12CDC10-1A03-41CC-8F4D-CA07C5009700}"/>
+    <hyperlink ref="F134" r:id="rId19" xr:uid="{93677AC7-C48D-4D90-BD6C-AF480172C948}"/>
+    <hyperlink ref="F102" r:id="rId20" xr:uid="{E008ACAF-DC86-403A-B1C8-A8E8E80C9722}"/>
+    <hyperlink ref="F103" r:id="rId21" xr:uid="{BF2632BD-6F04-4B50-9FD8-FC4C6E8E8158}"/>
+    <hyperlink ref="F100" r:id="rId22" xr:uid="{6258DD84-8ADC-4C14-B027-EF1CB1B48462}"/>
+    <hyperlink ref="F99" r:id="rId23" xr:uid="{DD32EB4D-A96B-4B43-B695-C91F18C54672}"/>
+    <hyperlink ref="F115" r:id="rId24" xr:uid="{AB663385-D117-40B4-BC3D-F4FE10425825}"/>
+    <hyperlink ref="F114" r:id="rId25" xr:uid="{FB1A998D-3C6A-4F27-BBFE-7AFBA4C5FCF3}"/>
+    <hyperlink ref="F118" r:id="rId26" xr:uid="{A0C7F0C8-42DA-4052-8FEF-9D72CBF28CAB}"/>
+    <hyperlink ref="F117" r:id="rId27" tooltip="https://github.com//openfoodfacts/openfoodfacts-androidapp/pull/977" xr:uid="{C8966B9B-8404-49D4-AB00-8BD6BE8D6FDF}"/>
+    <hyperlink ref="F116" r:id="rId28" xr:uid="{5943BDEF-3011-428B-9A89-AE7FCCD51CAC}"/>
+    <hyperlink ref="F97" r:id="rId29" xr:uid="{7A137461-E822-4644-94CC-059045341F67}"/>
+    <hyperlink ref="F96" r:id="rId30" xr:uid="{F50B0B7D-64BE-4986-98D5-DCC67C77A8B7}"/>
+    <hyperlink ref="F190" r:id="rId31" xr:uid="{4660277C-2106-4F25-9536-DFF35BBB2F54}"/>
+    <hyperlink ref="F196" r:id="rId32" tooltip="https://github.com/yuriy-budiyev/code-scanner/issues/76" xr:uid="{87DB9B4E-AB7A-46DC-AD44-1B7100C92FCF}"/>
+    <hyperlink ref="F200" r:id="rId33" xr:uid="{FA75B0FF-0C10-4BC3-827A-9032CBE3FEB3}"/>
+    <hyperlink ref="F195" r:id="rId34" xr:uid="{EBEB2864-E2DA-4362-8C6C-87DA5F9B2544}"/>
+    <hyperlink ref="F194" r:id="rId35" xr:uid="{A1C6F64F-20B3-48B6-A18A-1851AA40A576}"/>
+    <hyperlink ref="F193" r:id="rId36" xr:uid="{452474C7-E4DB-48F9-BE1B-5221B9EE1576}"/>
+    <hyperlink ref="F192" r:id="rId37" tooltip="https://github.com/dlazaro66/QRCodeReaderView/issues/129" xr:uid="{5E532925-5182-4C7A-A274-8483CD7BB7DC}"/>
+    <hyperlink ref="F191" r:id="rId38" xr:uid="{771A28B4-FB6B-484F-B20C-37D71B685B1E}"/>
+    <hyperlink ref="F199" r:id="rId39" xr:uid="{27607877-6C0C-4C80-B1EC-3D757FA00CAB}"/>
+    <hyperlink ref="F189" r:id="rId40" xr:uid="{328E488E-EFA8-4843-80F7-96581665B782}"/>
+    <hyperlink ref="F188" r:id="rId41" xr:uid="{0662980E-76F9-404D-9516-2C937B9D6DFA}"/>
+    <hyperlink ref="F187" r:id="rId42" xr:uid="{2ADD2B63-1F22-4774-B44A-F3760CDC6ACE}"/>
+    <hyperlink ref="F186" r:id="rId43" xr:uid="{04CA3D48-91B6-48F2-9E55-D829A9BBC6E2}"/>
+    <hyperlink ref="F185" r:id="rId44" xr:uid="{7E680D78-DE46-473C-8DA8-81A43FA4C181}"/>
+    <hyperlink ref="F198" r:id="rId45" xr:uid="{66BF3499-D9F2-4400-8360-52EAA3568045}"/>
+    <hyperlink ref="F197" r:id="rId46" xr:uid="{5EF27FAC-BAFF-423C-9F1C-965C47C3BEED}"/>
+    <hyperlink ref="F184" r:id="rId47" xr:uid="{0E7759F5-FF8B-448E-8367-56074A4E8388}"/>
+    <hyperlink ref="F183" r:id="rId48" tooltip="https://github.com/LuckSiege/PictureSelector/issues/189" xr:uid="{87AD6884-D48F-4F7C-A792-3B702E4DAD4B}"/>
+    <hyperlink ref="F182" r:id="rId49" xr:uid="{26A76049-D702-4EDE-89CB-E40FC8AF80AC}"/>
+    <hyperlink ref="F181" r:id="rId50" tooltip="https://github.com/broakenmedia/MultiContactPicker/issues/3" xr:uid="{6B29F405-FFD3-422D-9A58-95C346C4FB58}"/>
+    <hyperlink ref="F180" r:id="rId51" xr:uid="{FA05BF77-DF93-4C58-83DE-C5E550D20B0B}"/>
+    <hyperlink ref="F179" r:id="rId52" xr:uid="{8C988ED7-D28F-4EAE-80DF-4488D7853F32}"/>
+    <hyperlink ref="F178" r:id="rId53" xr:uid="{804D3370-85B1-4514-A01C-F2F73B9A3C2A}"/>
+    <hyperlink ref="F177" r:id="rId54" xr:uid="{CDC9434F-1418-40F8-9A0E-D00DE8C2C8F6}"/>
+    <hyperlink ref="F172" r:id="rId55" xr:uid="{510F6483-2F17-414B-93C8-954C829F3321}"/>
+    <hyperlink ref="F171" r:id="rId56" xr:uid="{7E756C3F-56AF-4CD2-8215-7CD6FFAC8922}"/>
+    <hyperlink ref="F170" r:id="rId57" xr:uid="{6A8399DA-5416-41FD-9BE7-C90FF9DA36F4}"/>
+    <hyperlink ref="F176" r:id="rId58" xr:uid="{6A7D1152-5F33-4988-9E97-FA3D375BA857}"/>
+    <hyperlink ref="F173" r:id="rId59" xr:uid="{28332322-B27C-4CFF-A1C3-E94E9954A876}"/>
+    <hyperlink ref="F169" r:id="rId60" tooltip="https://github.com/bitstadium/HockeySDK-Android/issues/351" xr:uid="{20AA305C-86C8-48B8-9DCB-A80E2A6FF787}"/>
+    <hyperlink ref="F168" r:id="rId61" tooltip="https://github.com/Applifier/unity-ads/pull/51" xr:uid="{9D2E30FC-162B-4434-A3B9-3602CBDC4A14}"/>
+    <hyperlink ref="F167" r:id="rId62" xr:uid="{32CE9311-E3AA-4F6F-BC54-25E8394B8100}"/>
+    <hyperlink ref="F166" r:id="rId63" xr:uid="{2E7F12D4-D366-49A0-872B-A987B79890CB}"/>
+    <hyperlink ref="F165" r:id="rId64" xr:uid="{C0D5268C-1ECA-432C-91A0-EDA385F7D6B2}"/>
+    <hyperlink ref="F164" r:id="rId65" tooltip="https://github.com/bitstadium/HockeySDK-Xamarin/issues/115" xr:uid="{19566EAA-8D7E-4C04-9C45-A95DAD7D9064}"/>
+    <hyperlink ref="F163" r:id="rId66" xr:uid="{2E78E1B0-240E-488E-8B3A-2C0917ABDD93}"/>
+    <hyperlink ref="F162" r:id="rId67" xr:uid="{54365BB6-A8D6-4ACB-9057-5DAA97032161}"/>
+    <hyperlink ref="F161" r:id="rId68" xr:uid="{24EE10E4-ECD8-46CA-88A1-86A2227A7848}"/>
+    <hyperlink ref="F175" r:id="rId69" tooltip="https://github.com/Tamsiree/RxTool/issues/109" xr:uid="{0A5C4E84-9756-41F5-AF3F-B113D089B270}"/>
+    <hyperlink ref="F148" r:id="rId70" xr:uid="{5C0D8E00-A3E9-4854-8DA3-F6D52961C6E9}"/>
+    <hyperlink ref="F159" r:id="rId71" tooltip="https://github.com/scottyab/secure-preferences/issues/88" xr:uid="{A2EB8418-3013-44DB-B8E3-A607982FCCD8}"/>
+    <hyperlink ref="F158" r:id="rId72" tooltip="https://github.com/line/line-sdk-android/issues/27" xr:uid="{A94B1D1B-6E44-47AC-B376-B40725A15AE1}"/>
+    <hyperlink ref="F157" r:id="rId73" tooltip="https://github.com/react-native-community/react-native-device-info/issues/595" xr:uid="{36B8CBC0-C7DB-475A-BFAC-1F549A30A985}"/>
+    <hyperlink ref="F156" r:id="rId74" xr:uid="{FCB3FC00-9E29-44F0-A609-DF1A990AB875}"/>
+    <hyperlink ref="F154" r:id="rId75" tooltip="https://github.com/massivedisaster/ADAL/issues/134" xr:uid="{40337FD4-F73B-4FD6-88FE-0D80A65C5464}"/>
+    <hyperlink ref="F153" r:id="rId76" xr:uid="{D85B5C55-40AD-4337-AC2F-2D96B7619799}"/>
+    <hyperlink ref="F152" r:id="rId77" tooltip="https://github.com/bantucracy/ayanda/issues/17" xr:uid="{DC2CA06F-320B-4979-8582-EE18DD0DFAF6}"/>
+    <hyperlink ref="F151" r:id="rId78" tooltip="https://github.com/react-native-community/react-native-device-info/pull/565" xr:uid="{99C69A60-994A-4499-8588-B84F59A011EB}"/>
+    <hyperlink ref="F150" r:id="rId79" tooltip="https://github.com/scottyab/secure-preferences/issues/72" xr:uid="{8A860968-4A04-4FE3-A177-18548A814BD4}"/>
+    <hyperlink ref="F149" r:id="rId80" xr:uid="{92119593-6CA3-462B-8B37-425B1E05087C}"/>
+    <hyperlink ref="F147" r:id="rId81" xr:uid="{DEAA2BA4-B4BA-4320-B17D-311BE181E266}"/>
+    <hyperlink ref="F146" r:id="rId82" xr:uid="{37465F12-6B10-4107-9C7F-00383F104906}"/>
+    <hyperlink ref="F155" r:id="rId83" xr:uid="{98060211-8D06-4B88-B82B-FC0C348B7009}"/>
+    <hyperlink ref="F144" r:id="rId84" xr:uid="{F8B04DE3-86F6-4A31-8E5F-6680E1F4E1A0}"/>
+    <hyperlink ref="F145" r:id="rId85" tooltip="https://github.com//pwittchen/ReactiveBeacons/issues/76" xr:uid="{530232E0-ED7F-4362-9128-F563917E2228}"/>
+    <hyperlink ref="F139" r:id="rId86" tooltip="https://github.com/ravi8x/Barcode-Reader/issues/2" xr:uid="{CA10CB01-6899-41D6-A144-686199DC27B5}"/>
+    <hyperlink ref="F138" r:id="rId87" tooltip="https://github.com/Swati4star/Images-to-PDF/issues/669" xr:uid="{A690957E-06E4-406F-8B31-6C2848D1EB5F}"/>
+    <hyperlink ref="F137" r:id="rId88" tooltip="https://github.com/mapbox/mapbox-events-android/issues/395" xr:uid="{550FE89D-E410-4311-931A-E1F1673933E1}"/>
+    <hyperlink ref="F136" r:id="rId89" xr:uid="{BC293894-9A3B-4850-B1F8-169FDA81C4E1}"/>
+    <hyperlink ref="F135" r:id="rId90" tooltip="https://github.com/qiangxi/CheckUpdateLibrary/issues/12" xr:uid="{A6706568-FC0F-40E4-806B-4C05B55E708A}"/>
+    <hyperlink ref="F91" r:id="rId91" xr:uid="{227F46C1-D334-4FA7-AD00-AD1BEC9C230E}"/>
+    <hyperlink ref="F92" r:id="rId92" xr:uid="{6B4C8BF2-2E6B-44BE-B5DB-AE495E315906}"/>
+    <hyperlink ref="F93" r:id="rId93" tooltip="https://github.com/BelledonneCommunications/linphone-android/issues/837" xr:uid="{015AF2DF-D8EF-4CB7-80BD-CC3B3E7BCA99}"/>
+    <hyperlink ref="F94" r:id="rId94" xr:uid="{1DA6EB14-3821-431C-907B-CC03E7E7A070}"/>
+    <hyperlink ref="F95" r:id="rId95" xr:uid="{6C7995B7-11C7-4EA5-A2FF-BCC55BF05F3A}"/>
+    <hyperlink ref="F86" r:id="rId96" xr:uid="{2C0F189C-5CDC-48F4-8FF2-AEC97A4534E2}"/>
+    <hyperlink ref="F80" r:id="rId97" xr:uid="{416D9ECF-5759-4002-BDD9-886A3FE800FE}"/>
+    <hyperlink ref="F83" r:id="rId98" xr:uid="{8001AFA2-E6FA-4B67-9F7A-89FC705A625A}"/>
+    <hyperlink ref="F78" r:id="rId99" xr:uid="{0B817655-577D-47BC-877F-80C5F482798F}"/>
+    <hyperlink ref="F79" r:id="rId100" tooltip="https://github.com/ThanosFisherman/WifiUtils/issues/38" xr:uid="{72816035-4CAA-4121-8FCC-0AA3C8B70AE8}"/>
+    <hyperlink ref="F82" r:id="rId101" tooltip="https://github.com/TeamNewPipe/NewPipe/issues/1998" xr:uid="{3ECCEC13-8091-4E35-BAF8-8290F2C895A3}"/>
+    <hyperlink ref="F84" r:id="rId102" tooltip="https://github.com/federicoiosue/Omni-Notes/issues/695" xr:uid="{E7513593-2100-4398-9DC9-922BF80CA832}"/>
+    <hyperlink ref="F85" r:id="rId103" tooltip="https://github.com/xuyisheng/ShortcutHelper/issues/14" xr:uid="{A808D7F5-8218-440B-9DE8-5EA4CB7608DB}"/>
+    <hyperlink ref="F87" r:id="rId104" xr:uid="{B9C5EDD3-9532-4F56-BCC5-BEA9C4C94F7C}"/>
+    <hyperlink ref="F88" r:id="rId105" tooltip="https://github.com/exozet/Geolocator/issues/5" xr:uid="{576C6025-6F20-46F6-A7CE-B588057BDADA}"/>
+    <hyperlink ref="F89" r:id="rId106" tooltip="https://github.com/LuckSiege/PictureSelector/issues/624" xr:uid="{6E071450-7BA4-47CC-A605-D7833CE0187A}"/>
+    <hyperlink ref="F75" r:id="rId107" xr:uid="{F02251CF-F879-4B4E-8761-AA63C9D8E142}"/>
+    <hyperlink ref="F76" r:id="rId108" xr:uid="{77DF8D3A-2E63-423E-A072-5A8FB2E49864}"/>
+    <hyperlink ref="F77" r:id="rId109" xr:uid="{019819F2-31B5-4B0F-B77C-C3235535348A}"/>
+    <hyperlink ref="F73" r:id="rId110" xr:uid="{AE788CB9-1BDF-4EF1-80F2-12240DA197D1}"/>
+    <hyperlink ref="F72" r:id="rId111" xr:uid="{7A2F7260-C29C-405E-BA43-456B3FC856FC}"/>
+    <hyperlink ref="F71" r:id="rId112" xr:uid="{2667900E-A747-4B1F-AE1F-5319253247EF}"/>
+    <hyperlink ref="F70" r:id="rId113" xr:uid="{03FD922C-82F9-4E12-AD17-F3936FA02A6A}"/>
+    <hyperlink ref="F74" r:id="rId114" xr:uid="{E574B7E9-C211-43A6-A680-CCC3F7F8583B}"/>
+    <hyperlink ref="F48" r:id="rId115" xr:uid="{80D329E6-0BB0-4A86-BCC0-05A5B381982E}"/>
+    <hyperlink ref="F68" r:id="rId116" xr:uid="{B604D51A-317B-4354-8D33-F41080B3B86C}"/>
+    <hyperlink ref="F47" r:id="rId117" xr:uid="{ACACE800-48C3-4693-AD13-5DB450248D72}"/>
+    <hyperlink ref="F46" r:id="rId118" xr:uid="{B6E749D4-4E09-45A7-88BD-0F64395CE955}"/>
+    <hyperlink ref="F45" r:id="rId119" xr:uid="{548D4987-5940-4834-9CC4-3660009F85DB}"/>
+    <hyperlink ref="F44" r:id="rId120" xr:uid="{1C027DF7-9A75-43EC-A5E4-A8944EDF58AD}"/>
+    <hyperlink ref="F43" r:id="rId121" xr:uid="{7658D531-9DE6-44E7-8108-4EFAA21ECE3D}"/>
+    <hyperlink ref="F42" r:id="rId122" xr:uid="{08178725-6C30-4633-8CDF-A0A4C1BCC879}"/>
+    <hyperlink ref="F41" r:id="rId123" xr:uid="{D7C94FBB-0BB5-4F73-B374-730B1CAB7440}"/>
+    <hyperlink ref="F40" r:id="rId124" xr:uid="{2328B616-FB0E-4C57-8430-5B5DDECF3523}"/>
+    <hyperlink ref="F39" r:id="rId125" xr:uid="{F819E65D-949C-4801-9767-7FFA88555660}"/>
+    <hyperlink ref="F38" r:id="rId126" xr:uid="{4E2C2767-F883-40D4-A047-FBE20A7F1335}"/>
+    <hyperlink ref="F37" r:id="rId127" xr:uid="{294CB2FE-DA74-487F-BC73-98262B705527}"/>
+    <hyperlink ref="F36" r:id="rId128" xr:uid="{E402C290-3738-4646-AFBF-F3A177B14645}"/>
+    <hyperlink ref="F35" r:id="rId129" xr:uid="{FB9E06E7-4EC5-443A-A7E2-07C98002A37C}"/>
+    <hyperlink ref="F34" r:id="rId130" xr:uid="{FC6E20E4-93C8-4E75-8760-D62D25F6EF8A}"/>
+    <hyperlink ref="F33" r:id="rId131" xr:uid="{6D6F34D9-F552-48A5-8B50-E1B4BC1E3ABF}"/>
+    <hyperlink ref="F32" r:id="rId132" xr:uid="{62C7393C-DB3F-4A48-81C4-9706EE461758}"/>
+    <hyperlink ref="F31" r:id="rId133" xr:uid="{B3F43A38-372B-462D-B14B-553A08B52D7A}"/>
+    <hyperlink ref="F30" r:id="rId134" xr:uid="{55EF74EA-CE62-402C-8A73-CF73886CC115}"/>
+    <hyperlink ref="F29" r:id="rId135" xr:uid="{02CA3620-16E0-4A57-838C-61B1746F8941}"/>
+    <hyperlink ref="F28" r:id="rId136" xr:uid="{B984B976-6AAB-41D2-A6AD-5BBE2BF24446}"/>
+    <hyperlink ref="F27" r:id="rId137" xr:uid="{B4D661A2-10F6-46D6-B1F1-1CD5769B695E}"/>
+    <hyperlink ref="F26" r:id="rId138" xr:uid="{430093D9-697D-40D1-80BF-FDB40D249B34}"/>
+    <hyperlink ref="F25" r:id="rId139" xr:uid="{19F055C1-9871-4D82-A9BA-6C5B2D9F531D}"/>
+    <hyperlink ref="F24" r:id="rId140" xr:uid="{051FEDEB-A78F-4BD6-8DC0-3AAA4AF5F115}"/>
+    <hyperlink ref="F23" r:id="rId141" xr:uid="{B4EC6143-2FEB-44DD-AEC5-EA2AA270253C}"/>
+    <hyperlink ref="F22" r:id="rId142" xr:uid="{FE34CF41-FC3C-4B99-AF03-35B45AD7791D}"/>
+    <hyperlink ref="F14" r:id="rId143" xr:uid="{535D3146-155E-4070-AD4D-23C3CC222941}"/>
+    <hyperlink ref="F13" r:id="rId144" xr:uid="{E11D326A-A517-4E37-BD52-9B092F24CF20}"/>
+    <hyperlink ref="F12" r:id="rId145" xr:uid="{07A8B24F-BB28-43F0-8FD8-3125883080C2}"/>
+    <hyperlink ref="F11" r:id="rId146" xr:uid="{5261EFF1-B589-43BE-94F6-27D7674DB791}"/>
+    <hyperlink ref="F10" r:id="rId147" xr:uid="{B1B118DC-4C63-4502-9E15-E1F749044113}"/>
+    <hyperlink ref="F9" r:id="rId148" xr:uid="{00CCC760-197B-40BB-A433-EB601F533780}"/>
+    <hyperlink ref="F21" r:id="rId149" xr:uid="{CE6B82F9-81D3-4912-AACD-656326B21C73}"/>
+    <hyperlink ref="F8" r:id="rId150" xr:uid="{628B15F6-FD8C-4B92-92B8-4D81BC5363C6}"/>
+    <hyperlink ref="F7" r:id="rId151" xr:uid="{6436E916-6010-4BBF-8D4E-1256C839BBAD}"/>
+    <hyperlink ref="F6" r:id="rId152" xr:uid="{D0B968EA-44D8-4D2C-96D4-E7E319518A84}"/>
+    <hyperlink ref="F5" r:id="rId153" xr:uid="{E36FCC59-17D8-40D4-8A2D-C025D3D2858A}"/>
+    <hyperlink ref="F3" r:id="rId154" xr:uid="{5EA8ECBC-DAB7-47D6-938C-C5F448138EA4}"/>
+    <hyperlink ref="F2" r:id="rId155" xr:uid="{3B415DAD-2367-4C37-8972-A06047674D39}"/>
+    <hyperlink ref="F57" r:id="rId156" xr:uid="{E4A41096-B979-4CD9-98ED-0709885BB8FF}"/>
+    <hyperlink ref="F16" r:id="rId157" xr:uid="{5A6A60C6-40A5-45CA-B7D5-309F1B1E0FB3}"/>
+    <hyperlink ref="F58" r:id="rId158" xr:uid="{F9F22161-94F5-44BC-B273-BABB0231521F}"/>
+    <hyperlink ref="F60" r:id="rId159" xr:uid="{CA0F8155-E41C-4495-87D1-67111B4EED02}"/>
+    <hyperlink ref="F19" r:id="rId160" xr:uid="{1BD5AE42-B4ED-4818-BF33-5346A53EEC50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId158"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId161"/>
 </worksheet>
 </file>
--- a/Github Issues.xlsx
+++ b/Github Issues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AndroidPermission\EP-Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wowhhh\ARP-issues.github.io-master\ARP-issues.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C6FD3F-ED02-4093-8527-C11F0851F35D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07E155F-5519-488D-8A7E-DADBF29E4B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{A6ADBFC8-225E-4F88-98AE-4FFB5B264DE3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A6ADBFC8-225E-4F88-98AE-4FFB5B264DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -2864,2035 +2864,2035 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="149.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
     </row>
-    <row r="161" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
     </row>
-    <row r="163" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
     </row>
-    <row r="164" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
     </row>
-    <row r="165" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
     </row>
-    <row r="170" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
     </row>
-    <row r="172" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
     </row>
-    <row r="173" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
     </row>
-    <row r="174" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
     </row>
-    <row r="175" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
     </row>
-    <row r="176" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
     </row>
-    <row r="177" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
     </row>
-    <row r="178" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
     </row>
-    <row r="179" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
     </row>
-    <row r="180" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
     </row>
-    <row r="181" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
     </row>
-    <row r="182" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
     </row>
-    <row r="183" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
     </row>
-    <row r="184" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
     </row>
-    <row r="185" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
     </row>
-    <row r="186" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
     </row>
-    <row r="187" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
     </row>
-    <row r="188" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
     </row>
-    <row r="189" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
     </row>
-    <row r="190" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
     </row>
-    <row r="191" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
     </row>
-    <row r="192" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
     </row>
-    <row r="193" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
     </row>
-    <row r="194" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
     </row>
-    <row r="195" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
     </row>
-    <row r="196" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
     </row>
-    <row r="197" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
     </row>
-    <row r="198" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
     </row>
-    <row r="199" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
     </row>
-    <row r="200" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
     </row>
-    <row r="201" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
     </row>
-    <row r="202" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
     </row>
-    <row r="203" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
     </row>
-    <row r="204" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
     </row>
-    <row r="205" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
     </row>
-    <row r="206" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
     </row>
-    <row r="207" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
     </row>
-    <row r="208" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
     </row>
-    <row r="209" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
     </row>
-    <row r="210" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
     </row>
-    <row r="212" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
     </row>
-    <row r="213" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
     </row>
-    <row r="214" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
     </row>
-    <row r="217" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
     </row>
-    <row r="218" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
     </row>
-    <row r="219" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
     </row>
-    <row r="220" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
     </row>
-    <row r="222" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
     </row>
-    <row r="223" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
     </row>
-    <row r="224" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
     </row>
-    <row r="225" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
     </row>
-    <row r="226" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
     </row>
-    <row r="227" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
     </row>
-    <row r="228" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
     </row>
-    <row r="229" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
     </row>
-    <row r="230" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
     </row>
-    <row r="231" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
     </row>
-    <row r="232" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
     </row>
-    <row r="233" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
     </row>
-    <row r="234" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
     </row>
-    <row r="235" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
     </row>
-    <row r="236" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
     </row>
-    <row r="237" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
     </row>
-    <row r="238" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
     </row>
-    <row r="239" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
     </row>
-    <row r="240" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
     </row>
-    <row r="241" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
     </row>
-    <row r="242" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
     </row>
-    <row r="243" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
     </row>
-    <row r="244" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
     </row>
-    <row r="245" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
     </row>
-    <row r="246" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
     </row>
-    <row r="247" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
     </row>
-    <row r="248" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
     </row>
-    <row r="249" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
     </row>
-    <row r="250" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
     </row>
-    <row r="251" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
     </row>
-    <row r="252" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
     </row>
-    <row r="253" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
     </row>
-    <row r="254" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
     </row>
-    <row r="255" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
     </row>
-    <row r="256" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
     </row>
-    <row r="257" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
     </row>
-    <row r="258" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
     </row>
-    <row r="259" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
     </row>
-    <row r="260" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
     </row>
-    <row r="261" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
     </row>
-    <row r="262" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
     </row>
-    <row r="264" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
     </row>
-    <row r="265" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
     </row>
-    <row r="266" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
     </row>
-    <row r="268" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
     </row>
-    <row r="269" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
     </row>
-    <row r="270" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
     </row>
-    <row r="271" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
     </row>
-    <row r="272" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
     </row>
-    <row r="273" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
     </row>
-    <row r="274" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
     </row>
-    <row r="275" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
     </row>
-    <row r="276" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
     </row>
-    <row r="277" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
     </row>
-    <row r="278" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
     </row>
-    <row r="279" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
     </row>
-    <row r="280" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
     </row>
-    <row r="281" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
     </row>
-    <row r="282" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
     </row>
-    <row r="283" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
     </row>
-    <row r="284" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
     </row>
-    <row r="285" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
     </row>
-    <row r="286" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
     </row>
-    <row r="287" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
     </row>
-    <row r="288" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
     </row>
-    <row r="289" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
     </row>
-    <row r="290" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
     </row>
-    <row r="291" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
     </row>
-    <row r="292" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
     </row>
-    <row r="293" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
     </row>
-    <row r="294" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
     </row>
-    <row r="295" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
     </row>
-    <row r="296" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
     </row>
-    <row r="297" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
     </row>
-    <row r="298" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
     </row>
-    <row r="299" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
     </row>
-    <row r="300" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
     </row>
-    <row r="301" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
     </row>
-    <row r="302" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
     </row>
-    <row r="303" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
     </row>
-    <row r="304" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
     </row>
-    <row r="305" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
     </row>
-    <row r="306" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
     </row>
-    <row r="307" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
     </row>
-    <row r="308" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
     </row>
-    <row r="309" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
     </row>
-    <row r="310" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
     </row>
-    <row r="311" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
     </row>
-    <row r="312" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
     </row>
-    <row r="313" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
     </row>
-    <row r="314" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
     </row>
-    <row r="315" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
     </row>
-    <row r="316" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
     </row>
-    <row r="317" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
     </row>
-    <row r="318" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
     </row>
-    <row r="319" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
     </row>
-    <row r="320" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
     </row>
-    <row r="321" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
     </row>
-    <row r="322" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
     </row>
-    <row r="323" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
     </row>
-    <row r="324" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
     </row>
-    <row r="325" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
     </row>
-    <row r="326" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
     </row>
-    <row r="327" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
     </row>
-    <row r="328" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
     </row>
-    <row r="329" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
     </row>
-    <row r="330" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
     </row>
-    <row r="331" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
     </row>
-    <row r="332" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
     </row>
-    <row r="333" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
     </row>
-    <row r="334" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
     </row>
-    <row r="335" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
     </row>
-    <row r="336" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
     </row>
-    <row r="337" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
     </row>
-    <row r="338" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
     </row>
-    <row r="339" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
     </row>
-    <row r="340" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
     </row>
-    <row r="341" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
     </row>
-    <row r="342" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
     </row>
-    <row r="343" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
     </row>
-    <row r="344" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
     </row>
-    <row r="345" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
     </row>
-    <row r="346" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
     </row>
-    <row r="347" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
     </row>
-    <row r="348" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
     </row>
-    <row r="349" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
     </row>
-    <row r="350" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
     </row>
-    <row r="351" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
     </row>
-    <row r="352" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
     </row>
-    <row r="353" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
     </row>
-    <row r="354" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
     </row>
-    <row r="355" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
     </row>
-    <row r="356" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
     </row>
-    <row r="357" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
     </row>
-    <row r="358" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
     </row>
-    <row r="359" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
     </row>
-    <row r="360" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
     </row>
-    <row r="361" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
     </row>
-    <row r="362" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
     </row>
-    <row r="363" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
     </row>
-    <row r="364" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
     </row>
-    <row r="365" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
     </row>
-    <row r="366" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
     </row>
-    <row r="367" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
     </row>
-    <row r="368" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
     </row>
-    <row r="369" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
     </row>
-    <row r="370" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
     </row>
-    <row r="371" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
     </row>
-    <row r="372" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
     </row>
-    <row r="373" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
     </row>
-    <row r="374" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
     </row>
-    <row r="375" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
     </row>
-    <row r="376" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
     </row>
-    <row r="377" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
     </row>
-    <row r="378" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
     </row>
-    <row r="379" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
     </row>
-    <row r="380" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
     </row>
-    <row r="381" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
     </row>
-    <row r="382" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
     </row>
-    <row r="383" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
     </row>
-    <row r="384" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
     </row>
-    <row r="385" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
     </row>
-    <row r="386" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
     </row>
-    <row r="387" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
     </row>
-    <row r="388" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
     </row>
-    <row r="389" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
     </row>
-    <row r="390" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
     </row>
-    <row r="391" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
     </row>
-    <row r="392" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
     </row>
-    <row r="393" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
     </row>
-    <row r="394" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
     </row>
-    <row r="395" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
     </row>
-    <row r="396" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
     </row>
-    <row r="397" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
     </row>
-    <row r="398" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
     </row>
-    <row r="399" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
     </row>
-    <row r="400" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
     </row>
-    <row r="401" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
     </row>
-    <row r="402" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
     </row>
-    <row r="403" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
     </row>
-    <row r="404" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
     </row>
-    <row r="405" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
     </row>
-    <row r="406" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
     </row>
-    <row r="407" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
     </row>
-    <row r="408" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
     </row>
-    <row r="409" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
     </row>
-    <row r="410" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
     </row>
-    <row r="411" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
     </row>
-    <row r="412" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
     </row>
-    <row r="413" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
     </row>
-    <row r="414" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
     </row>
-    <row r="415" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
     </row>
-    <row r="416" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
     </row>
-    <row r="417" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
     </row>
-    <row r="418" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
     </row>
-    <row r="419" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
     </row>
-    <row r="420" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
     </row>
-    <row r="421" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
     </row>
-    <row r="422" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
     </row>
-    <row r="423" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
     </row>
-    <row r="424" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
     </row>
-    <row r="425" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
     </row>
-    <row r="426" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
     </row>
-    <row r="427" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
     </row>
-    <row r="428" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
     </row>
-    <row r="429" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
     </row>
-    <row r="430" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
     </row>
-    <row r="431" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
     </row>
-    <row r="432" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
     </row>
-    <row r="433" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
     </row>
-    <row r="434" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
     </row>
-    <row r="435" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
     </row>
-    <row r="436" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
     </row>
-    <row r="437" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
     </row>
-    <row r="438" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
     </row>
-    <row r="439" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
     </row>
-    <row r="440" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
     </row>
-    <row r="441" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
     </row>
-    <row r="442" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
     </row>
-    <row r="443" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
     </row>
-    <row r="444" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
     </row>
-    <row r="445" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
     </row>
-    <row r="446" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
     </row>
-    <row r="447" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
     </row>
-    <row r="448" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
     </row>
-    <row r="449" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
     </row>
-    <row r="450" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
     </row>
-    <row r="451" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
     </row>
-    <row r="452" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
     </row>
-    <row r="453" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
     </row>
-    <row r="454" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
     </row>
-    <row r="455" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
     </row>
-    <row r="456" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
     </row>
-    <row r="457" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
     </row>
-    <row r="458" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
     </row>
-    <row r="459" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
     </row>
-    <row r="460" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
     </row>
-    <row r="461" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
     </row>
-    <row r="462" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
     </row>
-    <row r="463" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
     </row>
-    <row r="464" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
     </row>
-    <row r="465" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
     </row>
-    <row r="466" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
     </row>
-    <row r="467" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
     </row>
-    <row r="468" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
     </row>
-    <row r="469" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
     </row>
-    <row r="470" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
     </row>
-    <row r="471" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
     </row>
-    <row r="472" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
     </row>
-    <row r="473" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
     </row>
-    <row r="474" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
     </row>
-    <row r="475" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
     </row>
-    <row r="476" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
     </row>
-    <row r="477" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
     </row>
-    <row r="478" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
     </row>
-    <row r="479" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
     </row>
-    <row r="480" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
     </row>
-    <row r="481" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
     </row>
-    <row r="482" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
     </row>
-    <row r="483" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
     </row>
-    <row r="484" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
     </row>
-    <row r="485" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
     </row>
-    <row r="486" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
     </row>
-    <row r="487" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
     </row>
-    <row r="488" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
     </row>
-    <row r="489" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
     </row>
-    <row r="490" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
     </row>
-    <row r="491" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
     </row>
-    <row r="492" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
     </row>
-    <row r="493" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
     </row>
-    <row r="494" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
     </row>
-    <row r="495" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
     </row>
-    <row r="496" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
     </row>
-    <row r="497" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
     </row>
-    <row r="498" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
     </row>
-    <row r="499" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
     </row>
-    <row r="500" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
     </row>
-    <row r="501" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
     </row>
-    <row r="502" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
     </row>
-    <row r="503" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
     </row>
-    <row r="504" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
     </row>
-    <row r="505" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
     </row>
-    <row r="506" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
     </row>
-    <row r="507" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
     </row>
-    <row r="508" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
     </row>
-    <row r="509" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
     </row>
-    <row r="510" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
     </row>
-    <row r="511" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
     </row>
-    <row r="512" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
     </row>
-    <row r="513" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
     </row>
-    <row r="514" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
     </row>
-    <row r="515" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
     </row>
-    <row r="516" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
     </row>
-    <row r="517" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
     </row>
-    <row r="518" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
     </row>
-    <row r="519" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
     </row>
-    <row r="520" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
     </row>
-    <row r="521" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
     </row>
-    <row r="522" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
     </row>
-    <row r="523" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
     </row>
-    <row r="524" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
     </row>
-    <row r="525" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
     </row>
-    <row r="526" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
     </row>
-    <row r="527" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
     </row>
-    <row r="528" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
     </row>
-    <row r="529" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
     </row>
-    <row r="530" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
     </row>
-    <row r="531" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
     </row>
-    <row r="532" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
     </row>
-    <row r="533" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
     </row>
-    <row r="534" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
     </row>
-    <row r="535" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
     </row>
-    <row r="536" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
     </row>
-    <row r="537" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
     </row>
-    <row r="538" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
     </row>
-    <row r="539" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
     </row>
-    <row r="540" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
     </row>
-    <row r="541" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
     </row>
-    <row r="542" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
     </row>
-    <row r="543" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
     </row>
-    <row r="544" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
     </row>
-    <row r="545" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
     </row>
-    <row r="546" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
     </row>
-    <row r="547" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
     </row>
-    <row r="548" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
     </row>
-    <row r="549" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
     </row>
-    <row r="550" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
     </row>
-    <row r="551" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
     </row>
-    <row r="552" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
     </row>
-    <row r="553" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
     </row>
-    <row r="554" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
     </row>
-    <row r="555" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
     </row>
-    <row r="556" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
     </row>
-    <row r="557" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
     </row>
-    <row r="558" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
     </row>
-    <row r="559" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
     </row>
-    <row r="560" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
     </row>
-    <row r="561" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
     </row>
-    <row r="562" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
     </row>
-    <row r="563" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
     </row>
-    <row r="564" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
     </row>
-    <row r="565" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
     </row>
-    <row r="566" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
     </row>
-    <row r="567" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
     </row>
-    <row r="568" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
     </row>
-    <row r="569" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
     </row>
-    <row r="570" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
     </row>
-    <row r="571" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
     </row>
-    <row r="572" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
     </row>
-    <row r="573" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
     </row>
-    <row r="574" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
     </row>
-    <row r="575" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
     </row>
-    <row r="576" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
     </row>
-    <row r="577" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
     </row>
-    <row r="578" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
     </row>
-    <row r="579" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
     </row>
-    <row r="580" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
     </row>
-    <row r="581" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
     </row>
-    <row r="582" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
     </row>
-    <row r="583" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
     </row>
-    <row r="584" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
     </row>
-    <row r="585" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
     </row>
-    <row r="586" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
     </row>
-    <row r="587" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
     </row>
-    <row r="588" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
     </row>
-    <row r="589" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
     </row>
-    <row r="590" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
     </row>
-    <row r="591" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
     </row>
-    <row r="592" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
     </row>
-    <row r="593" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
     </row>
-    <row r="594" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
     </row>
-    <row r="595" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
     </row>
-    <row r="596" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
     </row>
-    <row r="597" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
     </row>
-    <row r="598" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
     </row>
-    <row r="599" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
     </row>
-    <row r="600" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
     </row>
-    <row r="601" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
     </row>
-    <row r="602" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
     </row>
-    <row r="603" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
     </row>
-    <row r="604" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
     </row>
-    <row r="605" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
     </row>
-    <row r="606" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
     </row>
-    <row r="607" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
     </row>
-    <row r="608" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
     </row>
-    <row r="609" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
     </row>
-    <row r="610" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
     </row>
-    <row r="611" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
     </row>
-    <row r="612" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
     </row>
-    <row r="613" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
     </row>
-    <row r="614" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
     </row>
-    <row r="615" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
     </row>
-    <row r="616" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
     </row>
-    <row r="617" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
     </row>
-    <row r="618" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
     </row>
-    <row r="619" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
     </row>
-    <row r="620" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
     </row>
-    <row r="621" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
     </row>
-    <row r="622" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
     </row>
-    <row r="623" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
     </row>
-    <row r="624" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
     </row>
-    <row r="625" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
     </row>
-    <row r="626" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
     </row>
-    <row r="627" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
     </row>
-    <row r="628" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
     </row>
-    <row r="629" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
     </row>
-    <row r="630" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
     </row>
-    <row r="631" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
     </row>
-    <row r="632" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
     </row>
-    <row r="633" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
     </row>
-    <row r="634" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
     </row>
-    <row r="635" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
     </row>
-    <row r="636" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
     </row>
-    <row r="637" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
     </row>
-    <row r="638" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
     </row>
-    <row r="639" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
     </row>
-    <row r="640" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
     </row>
-    <row r="641" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
     </row>
-    <row r="642" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
     </row>
-    <row r="643" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
     </row>
-    <row r="644" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
     </row>
-    <row r="645" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
     </row>
-    <row r="646" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
     </row>
-    <row r="647" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
     </row>
-    <row r="648" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
     </row>
-    <row r="649" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
     </row>
-    <row r="650" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
     </row>
-    <row r="651" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
     </row>
-    <row r="652" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
     </row>
-    <row r="653" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
     </row>
-    <row r="654" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
     </row>
-    <row r="655" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
     </row>
-    <row r="656" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
     </row>
-    <row r="657" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
     </row>
-    <row r="658" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
     </row>
-    <row r="659" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
     </row>
-    <row r="660" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
     </row>
-    <row r="661" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
     </row>
-    <row r="662" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
     </row>
-    <row r="663" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
     </row>
   </sheetData>
@@ -4906,21 +4906,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0D53C4-C210-4176-8EEA-224DB90158C3}">
   <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="D67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.08203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.58203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="77.125" customWidth="1"/>
+    <col min="6" max="6" width="77.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -5214,7 +5214,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -5228,7 +5228,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -5242,7 +5242,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -5256,7 +5256,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -5270,7 +5270,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -5284,7 +5284,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>14</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>15</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>16</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>18</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>19</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>20</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>21</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>22</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>23</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>24</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>25</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>26</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>27</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>32</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>33</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>34</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>35</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>36</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>37</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>38</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>39</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>40</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>41</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>42</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>43</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -5858,7 +5858,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -5872,7 +5872,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -5886,7 +5886,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -5900,7 +5900,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -5914,7 +5914,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -5928,7 +5928,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -5942,7 +5942,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -5956,7 +5956,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -5970,7 +5970,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -5984,7 +5984,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -5998,7 +5998,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -6012,7 +6012,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -6026,7 +6026,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -6040,7 +6040,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -6054,7 +6054,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -6068,7 +6068,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -6082,7 +6082,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -6096,7 +6096,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -6110,7 +6110,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>44</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -6144,7 +6144,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>46</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <v>47</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
         <v>48</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>49</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>45</v>
       </c>
@@ -6238,13 +6238,13 @@
         <v>125</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>394</v>
+        <v>466</v>
       </c>
       <c r="F74" s="14" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>50</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>51</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>52</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <v>53</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>54</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>55</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <v>56</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <v>57</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <v>58</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
         <v>59</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
         <v>60</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <v>61</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <v>62</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>63</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>64</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -6558,7 +6558,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>65</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>66</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>67</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>68</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>69</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>70</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>71</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>72</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>73</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>74</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>75</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>76</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <v>77</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>78</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>79</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
         <v>80</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <v>81</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <v>82</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <v>83</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <v>84</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <v>85</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
         <v>86</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>87</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>88</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <v>89</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>90</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <v>91</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>92</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="12"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -7132,7 +7132,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -7146,7 +7146,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="12"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -7160,7 +7160,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="12"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -7174,7 +7174,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
@@ -7188,7 +7188,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -7202,7 +7202,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -7216,7 +7216,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -7230,7 +7230,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -7244,7 +7244,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -7258,7 +7258,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="12"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -7272,7 +7272,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="12"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -7286,7 +7286,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="12"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -7300,7 +7300,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="12"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -7314,7 +7314,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
         <v>94</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
         <v>93</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>95</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>96</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>97</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>98</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>99</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>100</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>101</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -7508,7 +7508,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -7522,7 +7522,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <v>102</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <v>103</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <v>104</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>105</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <v>106</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
         <v>107</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="12">
         <v>108</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
         <v>109</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="12">
         <v>110</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="12">
         <v>111</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="12">
         <v>112</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="12">
         <v>113</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="12">
         <v>114</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="12">
         <v>115</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="12">
         <v>116</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12">
         <v>117</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="12"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -7856,7 +7856,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>118</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>119</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>120</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>121</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>122</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>123</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>124</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>125</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>126</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
         <v>127</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
         <v>128</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>129</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
         <v>130</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
         <v>131</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
         <v>132</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
         <v>133</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="12">
         <v>134</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="12">
         <v>135</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="12">
         <v>136</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="12">
         <v>137</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="12">
         <v>138</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="12">
         <v>139</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="12">
         <v>140</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="12">
         <v>141</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="12">
         <v>142</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="12">
         <v>143</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="12">
         <v>144</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="12">
         <v>145</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="12">
         <v>146</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="12">
         <v>147</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="12">
         <v>148</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="12">
         <v>149</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="12">
         <v>150</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="12">
         <v>151</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="12">
         <v>152</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="12">
         <v>153</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="12">
         <v>154</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="12">
         <v>155</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="12">
         <v>156</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="12">
         <v>157</v>
       </c>
@@ -8656,26 +8656,26 @@
         <v>299</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
